--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9F50E3-A986-49DE-A4F9-3F755F3DEEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A765F777-D5BC-4249-A2B9-91767E174967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="354">
   <si>
     <t>English</t>
   </si>
@@ -1680,6 +1680,115 @@
   </si>
   <si>
     <t>Remember the Past</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AirShipSettings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AirShipの設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MirrorMap</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DieZoom</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Enable Mirror Maps</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Zoom Out If you died</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>死亡時、ズームアウトできる</t>
+    <rPh sb="0" eb="3">
+      <t>シボウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>反転マップを有効化</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorNotInstalled</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorOlderVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorNewerVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorWrongVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorHostNoVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>: has a different or no version of UltimateMods</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>: has an older version of UltimateMods</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>: has a newer version of UltimateMods</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>: has a modified version of UM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のUltimateModsのバージョンがこのバージョンと違います。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のUltimateModsのバージョンがこのバージョンより新しいです。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のUltimateModsのバージョンがこのバージョンより古いです。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のUltimateModsは正常に導入されていません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;color=#00a2ff&gt;The host has no or a different version of UltimateMods
+You will be kicked in {0}s&lt;/color&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;color=#00a2ff&gt;ホストがUltimateModsを導入していないかバージョンが違います。
+バグ防止のため、あなたはあと{0}秒でキックされます。&lt;/color&gt;</t>
+    <rPh sb="54" eb="56">
+      <t>ボウシ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2474,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3211,23 +3320,67 @@
       <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="M67" s="8"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A68" s="7"/>
+      <c r="A67" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A68" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A69" s="7"/>
+    <row r="69" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="O69" s="4"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+      <c r="A71" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>353</v>
+      </c>
       <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O73" s="4"/>
@@ -4400,10 +4553,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98A575F-FC0C-4F2D-9AA5-3764DA9D9B0E}">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4773,261 +4926,239 @@
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="O35" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>223</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
-      <c r="O37" s="4"/>
+      <c r="A37" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="M38" t="s">
-        <v>225</v>
-      </c>
-      <c r="O38" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" t="s">
-        <v>229</v>
-      </c>
-      <c r="M39" t="s">
-        <v>230</v>
-      </c>
+      <c r="A39" s="7"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="M40" t="s">
+        <v>225</v>
       </c>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
+      </c>
+      <c r="M41" t="s">
+        <v>230</v>
       </c>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>235</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
-      </c>
-      <c r="M43" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O44" s="4"/>
+      <c r="A44" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s">
+        <v>226</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>243</v>
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
+        <v>227</v>
+      </c>
+      <c r="M45" t="s">
+        <v>228</v>
       </c>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>242</v>
-      </c>
+      <c r="A46" s="7"/>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>179</v>
+        <v>331</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>238</v>
+        <v>331</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>241</v>
+        <v>332</v>
       </c>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="A49" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="9" t="s">
-        <v>74</v>
+        <v>179</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="9" t="s">
-        <v>75</v>
+        <v>180</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="O51" s="4"/>
     </row>
@@ -5047,7 +5178,12 @@
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="2"/>
+      <c r="A53" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -5058,40 +5194,79 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="M53" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="O53" s="4"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="O54" s="3"/>
+      <c r="A54" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O54" s="4"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
       <c r="O55" s="4"/>
     </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="O56" s="4"/>
+    </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O57" s="4"/>
+      <c r="B57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O59" s="4"/>
+      <c r="O58" s="4"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B60" s="1"/>
-      <c r="M60" s="1"/>
       <c r="O60" s="4"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="O61" s="4"/>
+      <c r="B61" s="2"/>
+      <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B62" s="1"/>
-      <c r="M62" s="1"/>
       <c r="O62" s="4"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
@@ -5102,44 +5277,50 @@
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B64" s="1"/>
       <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B65" s="1"/>
+      <c r="M65" s="1"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B66" s="1"/>
+      <c r="M66" s="1"/>
       <c r="O66" s="4"/>
     </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O68" s="4"/>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O69" s="4"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O71" s="4"/>
     </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O73" s="4"/>
     </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O74" s="4"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O80" s="4"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
@@ -5158,41 +5339,36 @@
       <c r="O85" s="4"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B86" s="5"/>
+      <c r="O86" s="4"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O87" s="3"/>
+      <c r="O87" s="4"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="O88" s="3"/>
+      <c r="O88" s="4"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="O89" s="4"/>
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O90" s="3"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B91" s="1"/>
+      <c r="M91" s="1"/>
       <c r="O91" s="3"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="O93" s="3"/>
+      <c r="O92" s="4"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B94" s="1"/>
-      <c r="M94" s="1"/>
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
+      <c r="M95" s="1"/>
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.4">
@@ -5207,7 +5383,6 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
-      <c r="M98" s="1"/>
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
@@ -5218,9 +5393,11 @@
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="O100"/>
+      <c r="O100" s="3"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B101" s="1"/>
+      <c r="M101" s="1"/>
       <c r="O101" s="3"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.4">
@@ -5231,10 +5408,9 @@
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="O103" s="3"/>
+      <c r="O103"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B104" s="1"/>
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
@@ -5249,7 +5425,21 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
-      <c r="M107" s="1"/>
+      <c r="O107" s="3"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="O108" s="3"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="O109" s="3"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="M110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A765F777-D5BC-4249-A2B9-91767E174967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA3E118-19C3-4CB7-816A-F4DC9814A5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,14 @@
     <sheet name="CustomOptions" sheetId="10" r:id="rId5"/>
     <sheet name="CustomRoleOptions" sheetId="11" r:id="rId6"/>
     <sheet name="RoleText" sheetId="12" r:id="rId7"/>
+    <sheet name="Button" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="380">
   <si>
     <t>English</t>
   </si>
@@ -401,1394 +402,1545 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>Position</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>座標:</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Position:</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Lose</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>敗北</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Everyone</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ReactorWin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>O2Win</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;リアクターサボが発動した。&lt;/size&gt;</t>
+    <rPh sb="18" eb="20">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;酸素サボが発動した。&lt;/size&gt;</t>
+    <rPh sb="10" eb="12">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;Oxygen Sabotage was activated,&lt;/size&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;Reactor Sabotage was activated.&lt;/size&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ModOptionsText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VanillaOptionsText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GeneralSettings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImpostorSettings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NeutralSettings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CrewmateSettings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ModifierSettings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OtherSettings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CreditsMain</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CreditsVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CreditsBetaVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MeetingStatus</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NoUpdate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Updating</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UpdateManually</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UpdateInProgress</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UpdateButton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UpdateRestart</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UpdateFailed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OptionOn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OptionOff</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RestrictOutOfTime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Out Of Time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時間切れ</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TimeRemaining</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Remaining: {0}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>残り時間: {0}</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JesterMeetingButton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジェスターは緊急会議を開けない…</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Jester can't call meetings...</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ButtonBlocked</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BLOCKED</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>使用不可</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ActivateRoles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Activate Mod Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Mod役職有効化</t>
+    <rPh sb="3" eb="5">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PresetSelection</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RandomGen</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CrewmateRolesCountMin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CrewmateRolesCountMax</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NeutralRolesCountMin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NeutralRolesCountMax</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImpostorRolesCountMin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImpostorRolesCountMax</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ModifierCountMin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ModifierCountMax</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MaxNumberOfMeetings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BlockSkip</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NoVoteIsSelfVote</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NoMedBayLimit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>VentAnimation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HideOutName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RefundVoteDeath</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EnableGodMira</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PlayRandomMaps</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RandomMapsEnableSkeld</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RandomMapsEnableMira</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RandomMapsEnablePolus</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RandomMapsEnableAirShip</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RandomMapsEnableSubmerged</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RestrictDevices</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DisableAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DisableCameras</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DisableVitals</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RestrictPerTurn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RestrictPerGame</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OldAirShipAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EnableRecordsAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EnableCockpitAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AirShipReactorDuration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Preset</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Random Generator</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>強力な乱数生成機</t>
+    <rPh sb="0" eb="2">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ランスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プリセット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Minimum Crewmate Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Maximum Crewmate Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Minimum Neutral Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Maximum Neutral Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Minimum Impostor Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Maximum Impostor Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Minimum Modifier Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Maximum Modifier Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最大属性役職数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最小属性役職数</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最小クルーメイト陣営役職数</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最大クルーメイト陣営役職数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジンエイヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最小第三陣営役職数</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最大第三陣営役職数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最小インポスター陣営役職数</t>
+    <rPh sb="0" eb="2">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最大インポスター陣営役職数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Maximum Can Emergency Meetings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>緊急会議の最大回数</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can't Skip Vote</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スキップ投票禁止</t>
+    <rPh sb="4" eb="6">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can't Self Vote</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自投票禁止</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Simultaneous Progress Med Bay Scan</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Disable VentAnimation</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NameTag doesn't Cross the Wall</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>医務室のスキャンタスクを同時に進行できる</t>
+    <rPh sb="0" eb="3">
+      <t>イムシツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ベントの開閉運動無効化</t>
+    <rPh sb="4" eb="6">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ネームタグの壁抜けを防止</t>
+    <rPh sb="6" eb="7">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Refund Votes on Death Player</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>投票先が死亡した時、再投票可</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイトウヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Enable God MiraHQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>神ラを有効にする</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Enable Random Maps</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ランダムマップモード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>The Skeld</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MiraHQ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Polus</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AirShip</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Submerged</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Restrict Special Devices</t>
+  </si>
+  <si>
+    <t>特殊装置の制限</t>
+  </si>
+  <si>
+    <t>Time Per Round</t>
+  </si>
+  <si>
+    <t>Time Per Game</t>
+  </si>
+  <si>
+    <t>試合毎</t>
+  </si>
+  <si>
+    <t>Restrict Admin Table</t>
+  </si>
+  <si>
+    <t>アドミンの制限時間</t>
+  </si>
+  <si>
+    <t>Restrict Security Devices</t>
+  </si>
+  <si>
+    <t>Restrict Vitals Panel</t>
+  </si>
+  <si>
+    <t>カメラの制限時間</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バイタルの制限時間</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ターン毎</t>
+    <rPh sb="3" eb="4">
+      <t>ゴト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Old AirShip Admin System</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Enable Archive Admin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Enable Cockpit Admin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AirShip Reactor Duration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AirShip昇降機制限時間</t>
+    <rPh sb="7" eb="10">
+      <t>ショウコウキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コックピットのアドミン有効化</t>
+    <rPh sb="11" eb="14">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アーカイブのアドミン有効化</t>
+    <rPh sb="10" eb="13">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>旧AirShipアドミン仕様</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ChangePage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CrewmateRoles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NeutralRoles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImpostorRoles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Crewmate Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Neutral Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Impostor Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インポスター陣営役職</t>
+    <rPh sb="6" eb="8">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クルーメイト陣営役職</t>
+    <rPh sb="6" eb="10">
+      <t>ジンエイヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第三陣営役職</t>
+    <rPh sb="0" eb="2">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Press &lt; &gt; for Change Pages,</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt; &gt;でページを変更</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Emergency Meeting</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Sabotage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Has Impostor Vision</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インポスターの視界を持つ</t>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>緊急会議を開ける</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サボタージュができる</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Use Vents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ベントが使える</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}秒</t>
+    <rPh sb="3" eb="4">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}回</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatSeconds</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatTimes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatPlayer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}人</t>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}Player</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}Seconds</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}Times</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ModifierRoles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>属性陣営役職</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Modifier Roles</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;クルー {0} は
+&lt;color=red&gt;残り{1}回、全体では{2}回&lt;/color&gt;
+緊急会議を開催できる&lt;/size&gt;</t>
+    <rPh sb="37" eb="38">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カイサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;size=100%&gt;Crewmate {0} has
+&lt;color=red&gt;{1} times left, {2} times overall&lt;/color&gt;
+can hold emergency meetings.&lt;/size&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GhostsSeeTasksButton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GhostsSeeVotesButton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GhostsSeeRolesButton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ShowRoleSummaryButton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HideNameplates</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HideTaskArrows</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Ghosts See Votes</t>
+  </si>
+  <si>
+    <t>Ghosts See Roles</t>
+  </si>
+  <si>
+    <t>Show Role Summary</t>
+  </si>
+  <si>
+    <t>Ghosts See Remaining Tasks</t>
+  </si>
+  <si>
+    <t>Hide Nameplates</t>
+  </si>
+  <si>
+    <t>Hide Task Arrows</t>
+  </si>
+  <si>
+    <t>ネームプレートを\n非表示にする</t>
+  </si>
+  <si>
+    <t>最終結果を表示</t>
+  </si>
+  <si>
+    <t>タスクの矢印を\n非表示にする</t>
+  </si>
+  <si>
+    <t>幽霊が全員の\nタスク残量が見える</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽霊が全員の\nロールが見える</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽霊が全員の\n投票先が見える</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatShots</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}Shots</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}発</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Sheriff</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シェリフ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SheriffIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Shoot the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF1919FF&gt;インポスターたち&lt;/color&gt;を撃ち抜け</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SheriffShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SheriffFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CanKillNeutral</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Max Shots</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Kill Cooldowns</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Kill Neutral</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Misfire Kills Target</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>撃てる最大数</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キルクール</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第三陣営を殺せる</t>
+    <rPh sb="0" eb="2">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ミスでも相手を道連れにする</t>
+    <rPh sb="4" eb="6">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Shots: {0}</t>
+  </si>
+  <si>
+    <t>残り {0}発</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RoleNumAssigned</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>Role Counts</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MaxShots</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>KillCooldowns</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MisfireKillsTarget</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RememberClassic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>過去を思い出す</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Remember the Past</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AirShipSettings</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AirShipの設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MirrorMap</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DieZoom</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Enable Mirror Maps</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Zoom Out If you died</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>死亡時、ズームアウトできる</t>
+    <rPh sb="0" eb="3">
+      <t>シボウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>反転マップを有効化</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorNotInstalled</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorOlderVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorNewerVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorWrongVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ErrorHostNoVersion</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>: has a different or no version of UltimateMods</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>: has an older version of UltimateMods</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>: has a newer version of UltimateMods</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>: has a modified version of UM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のUltimateModsのバージョンがこのバージョンと違います。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のUltimateModsのバージョンがこのバージョンより新しいです。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のUltimateModsのバージョンがこのバージョンより古いです。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>のUltimateModsは正常に導入されていません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;color=#00a2ff&gt;The host has no or a different version of UltimateMods
+You will be kicked in {0}s&lt;/color&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;color=#00a2ff&gt;ホストがUltimateModsを導入していないかバージョンが違います。
+バグ防止のため、あなたはあと{0}秒でキックされます。&lt;/color&gt;</t>
+    <rPh sb="54" eb="56">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CanUseVents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CanSabotage</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CanEmergencyMeeting</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HasImpostorVision</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ReamingCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Reaming: {0}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>残り {0}回</t>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ReamingShots</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>直す</t>
+    <rPh sb="0" eb="1">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Repair</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EngineerRepairButtonText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EngineerCanFixSabo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EngineerSaboFixCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Fix Sabotage with Button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Fix Count</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ボタンでサボタージュを直せる</t>
+    <rPh sb="11" eb="12">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>直せる回数</t>
+    <rPh sb="0" eb="1">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Engineer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エンジニア</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EngineerIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EngineerShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EngineerFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>メンテナンスを欠かすな</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Normal Crewmate.
+Let's do Tasks.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通常のクルーメイト
+タスクを行おう。</t>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Shoot the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>追放されれば勝利。
+&lt;color=#FF1919FF&gt;インポスター&lt;/color&gt;などに殺されないようにしよう。</t>
+    <rPh sb="0" eb="2">
+      <t>ツイホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Get out of here to win.
+Not to be killed by &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>サボタージュを直したり、ベントに入ることができる。</t>
+    <rPh sb="7" eb="8">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Let's Maintenance.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>You can repair Sabotage with button and
+enter vents.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>&lt;align="center"&gt;&lt;size=120%&gt;Reference Mod&lt;/size&gt;&lt;/align&gt;&lt;size=75%&gt;
 &lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt; from Eisbison
 &lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt; from tomarai
 &lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt; from Yukinogatari
 &lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt; from Haoming
-&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt; from ykundesu
-&lt;color=#ffffff&gt;TownOfPlus&lt;/color&gt; from tugaru1975
+&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt; from Yoppy
+&lt;color=#ffffff&gt;Town of Plus&lt;/color&gt; from tugaru1975
+&lt;color=#4169e1&gt;Town of Super&lt;/color&gt; from reitou-mugicha
 &lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt; from eDonnes124
-&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostor&lt;/color&gt; from Team ToI
-&lt;color=#ffffff&gt;LasMonjas&lt;/color&gt; from KiraYamato94
-&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt; from reitoh-mugicha&lt;/size&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>座標:</t>
-    <rPh sb="0" eb="2">
-      <t>ザヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Position:</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Lose</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>敗北</t>
-    <rPh sb="0" eb="2">
-      <t>ハイボク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Everyone</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全員</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
+&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt; from TeamToI
+&lt;color=#ffffff&gt;Las Monjas&lt;/color&gt; from KiraYamato94
+&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt; from yukieiji
+&lt;color=#02fcfe&gt;Town of Host&lt;/color&gt; from Empty Bottle
+&lt;/size&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>&lt;align="center"&gt;&lt;size=120%&gt;参考Mod&lt;/size&gt;&lt;/align&gt;&lt;size=75%&gt;
+&lt;align=""center""&gt;&lt;size=120%&gt;参考Mod&lt;/size&gt;&lt;/align&gt;&lt;size=75%&gt;
 Eisbison様の&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt;
 tomarai様の&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt;
 Yukinogatari様の&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt;
 Haoming様の&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt;
-ykundesu様の&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt;
+よっキングの&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt;
 tugaru1975様の&lt;color=#ffffff&gt;TownOfPlus&lt;/color&gt;
 eDonnes124様の&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt;
-ToI製作チーム様の&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostor&lt;/color&gt;
+ToI製作チーム様の&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt;
 KiraYamato94様の&lt;color=#ffffff&gt;LasMonjas&lt;/color&gt;
-reitoh-mugicha様の&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt;&lt;/size&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ReactorWin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>O2Win</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;リアクターサボが発動した。&lt;/size&gt;</t>
-    <rPh sb="18" eb="20">
-      <t>ハツドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;酸素サボが発動した。&lt;/size&gt;</t>
-    <rPh sb="10" eb="12">
-      <t>サンソ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハツドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;Oxygen Sabotage was activated,&lt;/size&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;Reactor Sabotage was activated.&lt;/size&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ModOptionsText</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>VanillaOptionsText</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>GeneralSettings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ImpostorSettings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NeutralSettings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CrewmateSettings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ModifierSettings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OtherSettings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CreditsMain</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CreditsVersion</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CreditsBetaVersion</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MeetingStatus</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NoUpdate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Updating</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UpdateManually</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UpdateInProgress</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UpdateButton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UpdateRestart</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UpdateFailed</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OptionOn</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OptionOff</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RestrictOutOfTime</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Out Of Time</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>時間切れ</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TimeRemaining</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Remaining: {0}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>残り時間: {0}</t>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JesterMeetingButton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ジェスターは緊急会議を開けない…</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Jester can't call meetings...</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ButtonBlocked</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BLOCKED</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>使用不可</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ActivateRoles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Activate Mod Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Mod役職有効化</t>
-    <rPh sb="3" eb="5">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ユウコウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PresetSelection</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RandomGen</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CrewmateRolesCountMin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CrewmateRolesCountMax</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NeutralRolesCountMin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NeutralRolesCountMax</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ImpostorRolesCountMin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ImpostorRolesCountMax</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ModifierCountMin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ModifierCountMax</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MaxNumberOfMeetings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BlockSkip</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NoVoteIsSelfVote</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NoMedBayLimit</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>VentAnimation</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HideOutName</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RefundVoteDeath</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EnableGodMira</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>PlayRandomMaps</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RandomMapsEnableSkeld</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RandomMapsEnableMira</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RandomMapsEnablePolus</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RandomMapsEnableAirShip</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RandomMapsEnableSubmerged</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RestrictDevices</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DisableAdmin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DisableCameras</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DisableVitals</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RestrictPerTurn</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RestrictPerGame</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OldAirShipAdmin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EnableRecordsAdmin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EnableCockpitAdmin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AirShipReactorDuration</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Preset</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Random Generator</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>強力な乱数生成機</t>
-    <rPh sb="0" eb="2">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ランスウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>プリセット</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Minimum Crewmate Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Maximum Crewmate Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Minimum Neutral Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Maximum Neutral Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Minimum Impostor Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Maximum Impostor Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Minimum Modifier Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Maximum Modifier Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最大属性役職数</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最小属性役職数</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最小クルーメイト陣営役職数</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最大クルーメイト陣営役職数</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ジンエイヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最小第三陣営役職数</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイサン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最大第三陣営役職数</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイサン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最小インポスター陣営役職数</t>
-    <rPh sb="0" eb="2">
-      <t>サイショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最大インポスター陣営役職数</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Maximum Can Emergency Meetings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>緊急会議の最大回数</t>
-    <rPh sb="0" eb="2">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can't Skip Vote</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スキップ投票禁止</t>
-    <rPh sb="4" eb="6">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can't Self Vote</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>自投票禁止</t>
-    <rPh sb="0" eb="1">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キンシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can Simultaneous Progress Med Bay Scan</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Disable VentAnimation</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NameTag doesn't Cross the Wall</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>医務室のスキャンタスクを同時に進行できる</t>
-    <rPh sb="0" eb="3">
-      <t>イムシツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ベントの開閉運動無効化</t>
-    <rPh sb="4" eb="6">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンドウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ムコウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ネームタグの壁抜けを防止</t>
-    <rPh sb="6" eb="7">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ボウシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Refund Votes on Death Player</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>投票先が死亡した時、再投票可</t>
-    <rPh sb="0" eb="2">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>サイトウヒョウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Enable God MiraHQ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>神ラを有効にする</t>
-    <rPh sb="0" eb="1">
-      <t>カミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Enable Random Maps</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ランダムマップモード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>The Skeld</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MiraHQ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Polus</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AirShip</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Submerged</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Restrict Special Devices</t>
-  </si>
-  <si>
-    <t>特殊装置の制限</t>
-  </si>
-  <si>
-    <t>Time Per Round</t>
-  </si>
-  <si>
-    <t>Time Per Game</t>
-  </si>
-  <si>
-    <t>試合毎</t>
-  </si>
-  <si>
-    <t>Restrict Admin Table</t>
-  </si>
-  <si>
-    <t>アドミンの制限時間</t>
-  </si>
-  <si>
-    <t>Restrict Security Devices</t>
-  </si>
-  <si>
-    <t>Restrict Vitals Panel</t>
-  </si>
-  <si>
-    <t>カメラの制限時間</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>バイタルの制限時間</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ターン毎</t>
-    <rPh sb="3" eb="4">
-      <t>ゴト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Old AirShip Admin System</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Enable Archive Admin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Enable Cockpit Admin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AirShip Reactor Duration</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AirShip昇降機制限時間</t>
-    <rPh sb="7" eb="10">
-      <t>ショウコウキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>コックピットのアドミン有効化</t>
-    <rPh sb="11" eb="14">
-      <t>ユウコウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アーカイブのアドミン有効化</t>
-    <rPh sb="10" eb="13">
-      <t>ユウコウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>旧AirShipアドミン仕様</t>
-    <rPh sb="0" eb="1">
-      <t>キュウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ChangePage</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CrewmateRoles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>NeutralRoles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ImpostorRoles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Crewmate Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Neutral Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Impostor Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>インポスター陣営役職</t>
-    <rPh sb="6" eb="8">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>クルーメイト陣営役職</t>
-    <rPh sb="6" eb="10">
-      <t>ジンエイヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第三陣営役職</t>
-    <rPh sb="0" eb="2">
-      <t>ダイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Press &lt; &gt; for Change Pages,</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt; &gt;でページを変更</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JesterCanEmergencyMeeting</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JesterHasImpostorVision</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JesterCanSabotage</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can Emergency Meeting</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can Sabotage</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Has Impostor Vision</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>インポスターの視界を持つ</t>
-    <rPh sb="7" eb="9">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>緊急会議を開ける</t>
-    <rPh sb="0" eb="2">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>サボタージュができる</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JesterCanUseVents</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can Use Vents</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ベントが使える</t>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}秒</t>
-    <rPh sb="3" eb="4">
-      <t>ビョウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}回</t>
-    <rPh sb="3" eb="4">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FormatSeconds</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FormatTimes</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FormatPlayer</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}人</t>
-    <rPh sb="3" eb="4">
-      <t>ニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}Player</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}Seconds</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}Times</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ModifierRoles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>属性陣営役職</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Modifier Roles</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;クルー {0} は
-&lt;color=red&gt;残り{1}回、全体では{2}回&lt;/color&gt;
-緊急会議を開催できる&lt;/size&gt;</t>
-    <rPh sb="37" eb="38">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カイサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;Crewmate {0} has
-&lt;color=red&gt;{1} times left, {2} times overall&lt;/color&gt;
-can hold emergency meetings.&lt;/size&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>GhostsSeeTasksButton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>GhostsSeeVotesButton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>GhostsSeeRolesButton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ShowRoleSummaryButton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HideNameplates</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HideTaskArrows</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Ghosts See Votes</t>
-  </si>
-  <si>
-    <t>Ghosts See Roles</t>
-  </si>
-  <si>
-    <t>Show Role Summary</t>
-  </si>
-  <si>
-    <t>Ghosts See Remaining Tasks</t>
-  </si>
-  <si>
-    <t>Hide Nameplates</t>
-  </si>
-  <si>
-    <t>Hide Task Arrows</t>
-  </si>
-  <si>
-    <t>ネームプレートを\n非表示にする</t>
-  </si>
-  <si>
-    <t>最終結果を表示</t>
-  </si>
-  <si>
-    <t>タスクの矢印を\n非表示にする</t>
-  </si>
-  <si>
-    <t>幽霊が全員の\nタスク残量が見える</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幽霊が全員の\nロールが見える</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幽霊が全員の\n投票先が見える</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FormatShots</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}Shots</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}発</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Sheriff</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>シェリフ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SheriffIntro</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Shoot the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#FF1919FF&gt;インポスターたち&lt;/color&gt;を撃ち抜け</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SheriffShort</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>SheriffFull</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CanKillNeutral</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Max Shots</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Kill Cooldowns</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can Kill Neutral</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Misfire Kills Target</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>撃てる最大数</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>キルクール</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>第三陣営を殺せる</t>
-    <rPh sb="0" eb="2">
-      <t>ダイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>コロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ミスでも相手を道連れにする</t>
-    <rPh sb="4" eb="6">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヅ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Shots: {0}</t>
-  </si>
-  <si>
-    <t>残り {0}発</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RoleNumAssigned</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
-    <t>Role Counts</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MaxShots</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>KillCooldowns</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MisfireKillsTarget</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Shots</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RememberClassic</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>過去を思い出す</t>
-    <rPh sb="0" eb="2">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Remember the Past</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AirShipSettings</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>AirShipの設定</t>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>MirrorMap</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>DieZoom</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Enable Mirror Maps</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can Zoom Out If you died</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>死亡時、ズームアウトできる</t>
-    <rPh sb="0" eb="3">
-      <t>シボウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>反転マップを有効化</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ユウコウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ErrorNotInstalled</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ErrorOlderVersion</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ErrorNewerVersion</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ErrorWrongVersion</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ErrorHostNoVersion</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>: has a different or no version of UltimateMods</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>: has an older version of UltimateMods</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>: has a newer version of UltimateMods</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>: has a modified version of UM</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>のUltimateModsのバージョンがこのバージョンと違います。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>のUltimateModsのバージョンがこのバージョンより新しいです。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>のUltimateModsのバージョンがこのバージョンより古いです。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>のUltimateModsは正常に導入されていません。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;color=#00a2ff&gt;The host has no or a different version of UltimateMods
-You will be kicked in {0}s&lt;/color&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;color=#00a2ff&gt;ホストがUltimateModsを導入していないかバージョンが違います。
-バグ防止のため、あなたはあと{0}秒でキックされます。&lt;/color&gt;</t>
-    <rPh sb="54" eb="56">
-      <t>ボウシ</t>
-    </rPh>
+冷凍麦茶様の&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt;
+yukieiji様の&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt;
+空き瓶様の&lt;color=#02fcfe&gt;Town of Host&lt;/color&gt;&lt;/size&gt;&lt;/size&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2583,8 +2735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2647,7 +2799,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2659,7 +2811,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2671,7 +2823,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2683,7 +2835,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -2695,7 +2847,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -2707,7 +2859,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -2719,7 +2871,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -2731,7 +2883,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2770,49 +2922,49 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="O17" s="4"/>
     </row>
@@ -2836,7 +2988,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -2848,7 +3000,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
@@ -2859,7 +3011,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>88</v>
@@ -2888,13 +3040,13 @@
     </row>
     <row r="27" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O27" s="4"/>
     </row>
@@ -2903,7 +3055,7 @@
     </row>
     <row r="29" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>63</v>
@@ -2915,7 +3067,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>65</v>
@@ -2927,7 +3079,7 @@
     </row>
     <row r="31" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>66</v>
@@ -2939,7 +3091,7 @@
     </row>
     <row r="32" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>69</v>
@@ -2951,7 +3103,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>64</v>
@@ -2962,7 +3114,7 @@
     </row>
     <row r="34" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>69</v>
@@ -2974,7 +3126,7 @@
     </row>
     <row r="35" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>66</v>
@@ -2989,7 +3141,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>73</v>
@@ -3001,7 +3153,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>72</v>
@@ -3019,49 +3171,49 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O43" s="4"/>
     </row>
@@ -3109,10 +3261,10 @@
         <v>89</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>96</v>
+        <v>378</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="O49" s="4"/>
     </row>
@@ -3145,10 +3297,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3161,7 +3313,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O52" s="4"/>
     </row>
@@ -3183,10 +3335,10 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3199,31 +3351,31 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O54" s="4"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M55" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="M56" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="O56" s="4"/>
     </row>
@@ -3234,84 +3386,84 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="M58" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O58" s="4"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B60" t="s">
+        <v>285</v>
+      </c>
+      <c r="M60" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="O60" s="4"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" t="s">
         <v>283</v>
       </c>
-      <c r="B61" t="s">
-        <v>289</v>
-      </c>
       <c r="M61" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B62" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="O62" s="4"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B63" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M63" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O63" s="4"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B64" t="s">
         <v>286</v>
       </c>
-      <c r="B64" t="s">
-        <v>292</v>
-      </c>
       <c r="M64" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O64" s="4"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B65" t="s">
         <v>287</v>
       </c>
-      <c r="B65" t="s">
-        <v>293</v>
-      </c>
       <c r="M65" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O65" s="4"/>
     </row>
@@ -3321,60 +3473,60 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="M67" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="O68" s="4"/>
     </row>
     <row r="69" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="O69" s="4"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="O70" s="4"/>
     </row>
     <row r="71" spans="1:15" ht="75" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="O71" s="4"/>
     </row>
@@ -3530,7 +3682,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3629,17 +3781,26 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>365</v>
+      </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -4006,7 +4167,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4126,15 +4287,15 @@
       </c>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>82</v>
+      <c r="B7" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -4165,100 +4326,127 @@
       </c>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>85</v>
+      <c r="B11" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" t="s">
-        <v>306</v>
+        <v>299</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O29" s="3"/>
     </row>
-    <row r="31" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
@@ -4619,48 +4807,48 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O5" s="4"/>
     </row>
@@ -4669,61 +4857,61 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="O11" s="4"/>
     </row>
@@ -4733,97 +4921,97 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O20" s="4"/>
     </row>
@@ -4832,120 +5020,120 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="O31" s="4"/>
     </row>
@@ -4954,73 +5142,73 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
@@ -5029,72 +5217,72 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s">
+        <v>229</v>
+      </c>
+      <c r="M42" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s">
+        <v>230</v>
+      </c>
+      <c r="M43" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O45" s="4"/>
     </row>
@@ -5104,61 +5292,61 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O51" s="4"/>
     </row>
@@ -5179,7 +5367,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>73</v>
@@ -5201,7 +5389,7 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>72</v>
@@ -5452,7 +5640,7 @@
   <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5515,121 +5703,140 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O7" s="4"/>
+      <c r="A7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="O8" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>264</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>363</v>
+      </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="7"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -5990,7 +6197,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6053,18 +6260,26 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="O3" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -6433,4 +6648,453 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4B5581-88E7-4442-BC96-D82399DEE6D9}">
+  <dimension ref="A1:Q100"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="37.25" customWidth="1"/>
+    <col min="13" max="13" width="44.5" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O3" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="31" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O35" s="4"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O49" s="4"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="O57" s="4"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O59" s="4"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O61" s="4"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O62" s="4"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O65" s="4"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O67" s="4"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O69" s="4"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O70" s="4"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O73" s="4"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O74" s="4"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O76" s="4"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O78" s="4"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B79" s="5"/>
+      <c r="O79" s="4"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O83" s="4"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B88" s="1"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O94"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B97" s="1"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="O100" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA3E118-19C3-4CB7-816A-F4DC9814A5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198A1F24-A3B8-4F6A-A1A5-C9E8975EDFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="ModText" sheetId="6" r:id="rId2"/>
-    <sheet name="RoleName" sheetId="8" r:id="rId3"/>
+    <sheet name="Role・ModifierName" sheetId="8" r:id="rId3"/>
     <sheet name="Intro・Short・Full" sheetId="9" r:id="rId4"/>
     <sheet name="CustomOptions" sheetId="10" r:id="rId5"/>
     <sheet name="CustomRoleOptions" sheetId="11" r:id="rId6"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="402">
   <si>
     <t>English</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>強制終了</t>
-  </si>
-  <si>
-    <t>roleSummaryText</t>
   </si>
   <si>
     <t>Role Summary</t>
@@ -352,17 +349,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Win</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>勝利</t>
-    <rPh sb="0" eb="2">
-      <t>ショウリ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Version.Beta{0}</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -417,25 +403,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Lose</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>敗北</t>
-    <rPh sb="0" eb="2">
-      <t>ハイボク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Everyone</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全員</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -693,10 +661,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>VentAnimation</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>HideOutName</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -998,10 +962,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Disable VentAnimation</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>NameTag doesn't Cross the Wall</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1019,19 +979,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ベントの開閉運動無効化</t>
-    <rPh sb="4" eb="6">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンドウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ムコウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ネームタグの壁抜けを防止</t>
     <rPh sb="6" eb="7">
       <t>カベ</t>
@@ -1114,9 +1061,6 @@
   </si>
   <si>
     <t>Restrict Special Devices</t>
-  </si>
-  <si>
-    <t>特殊装置の制限</t>
   </si>
   <si>
     <t>Time Per Round</t>
@@ -1462,25 +1406,7 @@
     <t>Hide Task Arrows</t>
   </si>
   <si>
-    <t>ネームプレートを\n非表示にする</t>
-  </si>
-  <si>
     <t>最終結果を表示</t>
-  </si>
-  <si>
-    <t>タスクの矢印を\n非表示にする</t>
-  </si>
-  <si>
-    <t>幽霊が全員の\nタスク残量が見える</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幽霊が全員の\nロールが見える</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幽霊が全員の\n投票先が見える</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>FormatShots</t>
@@ -1910,7 +1836,23 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;align="center"&gt;&lt;size=120%&gt;Reference Mod&lt;/size&gt;&lt;/align&gt;&lt;size=75%&gt;
+    <t>&lt;align="center"&gt;&lt;size=120%&gt;参考Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
+Eisbison様の&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt;
+tomarai様の&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt;
+Yukinogatari様の&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt;
+Haoming様の&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt;
+よっキングの&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt;
+tugaru1975様の&lt;color=#ffffff&gt;TownOfPlus&lt;/color&gt;
+eDonnes124様の&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt;
+ToI製作チーム様の&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt;
+KiraYamato94様の&lt;color=#ffffff&gt;LasMonjas&lt;/color&gt;
+冷凍麦茶様の&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt;
+yukieiji様の&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt;
+空き瓶様の&lt;color=#02fcfe&gt;Town of Host&lt;/color&gt;&lt;/size&gt;&lt;/size&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;align="center"&gt;&lt;size=120%&gt;Reference Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
 &lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt; from Eisbison
 &lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt; from tomarai
 &lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt; from Yukinogatari
@@ -1927,20 +1869,167 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>&lt;align="center"&gt;&lt;size=120%&gt;参考Mod&lt;/size&gt;&lt;/align&gt;&lt;size=75%&gt;
-&lt;align=""center""&gt;&lt;size=120%&gt;参考Mod&lt;/size&gt;&lt;/align&gt;&lt;size=75%&gt;
-Eisbison様の&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt;
-tomarai様の&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt;
-Yukinogatari様の&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt;
-Haoming様の&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt;
-よっキングの&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt;
-tugaru1975様の&lt;color=#ffffff&gt;TownOfPlus&lt;/color&gt;
-eDonnes124様の&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt;
-ToI製作チーム様の&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt;
-KiraYamato94様の&lt;color=#ffffff&gt;LasMonjas&lt;/color&gt;
-冷凍麦茶様の&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt;
-yukieiji様の&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt;
-空き瓶様の&lt;color=#02fcfe&gt;Town of Host&lt;/color&gt;&lt;/size&gt;&lt;/size&gt;</t>
+    <t>JesterMustFinishTasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Must Finish Tasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスクを終了する必要がある</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽霊時全員の\nタスク残量が見える</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽霊時全員の\n投票先が見える</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ネームプレートを\n非表示にする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスクの矢印を\n非表示にする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽霊時全員の\n約束が見える</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤクソク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>特殊装置の制限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Opportunist</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オポチュニスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OpportunistPostfix</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OpportunistExtra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Crewmates {0} Win</t>
+  </si>
+  <si>
+    <t>Impostors {0} Win</t>
+  </si>
+  <si>
+    <t>インポスター{0}勝利</t>
+  </si>
+  <si>
+    <t>Jester {0} Win</t>
+  </si>
+  <si>
+    <t>ジェスター{0}勝利</t>
+  </si>
+  <si>
+    <t>CrewWinExtra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImpostorWinExtra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JesterWinExtra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Crewmates Win</t>
+  </si>
+  <si>
+    <t>インポスター勝利</t>
+  </si>
+  <si>
+    <t>ジェスター勝利</t>
+  </si>
+  <si>
+    <t>CrewmateWin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImpostorWin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JesterWin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Jester Win</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Impostors Win</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クルーメイト勝利</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クルーメイト{0}勝利</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Everyone Lose</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全員敗北</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RoleSummaryText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp; &lt;color=#00da00&gt;オポチュニスト&lt;/color&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp; &lt;color#00da00&gt;Oppotunist&lt;/color&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2733,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2799,7 +2888,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2811,7 +2900,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2823,7 +2912,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2835,7 +2924,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -2847,7 +2936,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -2859,7 +2948,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -2871,7 +2960,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -2883,7 +2972,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2894,664 +2983,714 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>31</v>
+      <c r="A12" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
+        <v>387</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>86</v>
+        <v>391</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>87</v>
+        <v>394</v>
+      </c>
+      <c r="M13" t="s">
+        <v>388</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>100</v>
+        <v>393</v>
+      </c>
+      <c r="M14" t="s">
+        <v>389</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>102</v>
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>108</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" t="s">
+        <v>379</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>396</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>33</v>
+      <c r="A19" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>380</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O20" s="3"/>
+      <c r="A20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" t="s">
+        <v>382</v>
+      </c>
+      <c r="M20" t="s">
+        <v>383</v>
+      </c>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
+        <v>98</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>88</v>
+        <v>378</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>401</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>88</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>70</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M35" s="8" t="s">
+    </row>
+    <row r="37" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M38" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="M39" s="8"/>
+      <c r="A39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>264</v>
+        <v>120</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>262</v>
+        <v>69</v>
       </c>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>270</v>
+        <v>121</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>267</v>
-      </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>296</v>
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="O43" s="4"/>
     </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O44" s="4"/>
+    </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="M45" s="8"/>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M51" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A50" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="9" t="s">
-        <v>97</v>
+        <v>78</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="9"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="9" t="s">
-        <v>132</v>
+        <v>87</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A55" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>135</v>
+        <v>86</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>141</v>
+        <v>90</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="O57" s="3"/>
+      <c r="O57" s="4"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M58" s="7" t="s">
-        <v>137</v>
+        <v>93</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="O58" s="4"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="7"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="9"/>
+      <c r="O59" s="4"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B60" t="s">
-        <v>285</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="O60" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B61" t="s">
-        <v>283</v>
+        <v>127</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>292</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="O61" s="4"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B62" t="s">
-        <v>282</v>
-      </c>
-      <c r="M62" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="O62" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B63" t="s">
-        <v>284</v>
-      </c>
-      <c r="M63" t="s">
-        <v>288</v>
-      </c>
+      <c r="B63" s="2"/>
+      <c r="M63" s="2"/>
       <c r="O63" s="4"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B64" t="s">
-        <v>286</v>
-      </c>
-      <c r="M64" t="s">
-        <v>289</v>
-      </c>
-      <c r="O64" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B65" t="s">
-        <v>287</v>
-      </c>
-      <c r="M65" t="s">
-        <v>290</v>
-      </c>
       <c r="O65" s="4"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B66" s="1"/>
+      <c r="A66" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" t="s">
+        <v>275</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+        <v>267</v>
+      </c>
+      <c r="B67" t="s">
+        <v>273</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="O67" s="4"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="M68" s="8" t="s">
-        <v>343</v>
+        <v>268</v>
+      </c>
+      <c r="B68" t="s">
+        <v>272</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>342</v>
+        <v>269</v>
+      </c>
+      <c r="B69" t="s">
+        <v>274</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="O69" s="4"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+        <v>270</v>
+      </c>
+      <c r="B70" t="s">
+        <v>276</v>
+      </c>
+      <c r="M70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>346</v>
+        <v>271</v>
+      </c>
+      <c r="B71" t="s">
+        <v>277</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="O71" s="4"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="1"/>
+      <c r="O72" s="4"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>328</v>
+      </c>
       <c r="O74" s="4"/>
     </row>
+    <row r="75" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="O76" s="4"/>
     </row>
+    <row r="77" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+      <c r="A77" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="O77" s="4"/>
+    </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O78" s="4"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O80" s="4"/>
-    </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O81" s="4"/>
     </row>
@@ -3577,33 +3716,23 @@
       <c r="O88" s="4"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B89" s="5"/>
+      <c r="O89" s="4"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O90" s="3"/>
+      <c r="O90" s="4"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="O92" s="4"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O93" s="3"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="O96" s="3"/>
+      <c r="B95" s="5"/>
+      <c r="O95" s="4"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
@@ -3612,16 +3741,13 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
+      <c r="M98" s="1"/>
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B99" s="1"/>
-      <c r="M99" s="1"/>
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B100" s="1"/>
-      <c r="M100" s="1"/>
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.4">
@@ -3637,9 +3763,10 @@
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="O103"/>
+      <c r="O103" s="3"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B104" s="1"/>
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
@@ -3650,10 +3777,11 @@
     <row r="106" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
-      <c r="O106" s="3"/>
+      <c r="O106"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
+      <c r="M107" s="1"/>
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.4">
@@ -3667,8 +3795,32 @@
       <c r="O109" s="3"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B110" s="1"/>
-      <c r="M110" s="1"/>
+      <c r="O110" s="3"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="O111" s="3"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="O112" s="3"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B113" s="1"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B116" s="1"/>
+      <c r="M116" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3682,7 +3834,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3745,61 +3897,61 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
       </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -3807,9 +3959,27 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>377</v>
+      </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -4230,72 +4400,72 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="M2" t="s">
         <v>49</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
         <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -4304,109 +4474,109 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="O17" s="4"/>
     </row>
@@ -4741,10 +4911,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98A575F-FC0C-4F2D-9AA5-3764DA9D9B0E}">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4807,48 +4977,48 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="O5" s="4"/>
     </row>
@@ -4857,61 +5027,61 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="O11" s="4"/>
     </row>
@@ -4921,97 +5091,97 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="O20" s="4"/>
     </row>
@@ -5020,338 +5190,346 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>213</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="O36" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="O37" s="3"/>
+        <v>212</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>221</v>
-      </c>
+      <c r="A38" s="7"/>
+      <c r="O38" s="4"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="7"/>
+      <c r="A39" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>373</v>
+      </c>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M40" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
-      </c>
-      <c r="M41" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="O43" s="4"/>
+        <v>223</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>233</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M44" t="s">
+        <v>216</v>
+      </c>
+      <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" t="s">
-        <v>225</v>
-      </c>
-      <c r="M45" t="s">
-        <v>226</v>
-      </c>
+      <c r="A45" s="7"/>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="7"/>
+      <c r="A46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>310</v>
+      </c>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>325</v>
+        <v>231</v>
       </c>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="2"/>
+      <c r="A52" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -5362,15 +5540,17 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="M52" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5388,12 +5568,7 @@
       <c r="O53" s="4"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -5404,9 +5579,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="M54" s="2"/>
       <c r="O54" s="4"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
@@ -5426,35 +5599,25 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="O56" s="4"/>
+      <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O58" s="4"/>
+      <c r="O57" s="4"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O59" s="4"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O60" s="4"/>
+      <c r="B60" s="2"/>
+      <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="O61" s="4"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B62" s="1"/>
+      <c r="M62" s="1"/>
       <c r="O62" s="4"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
@@ -5475,11 +5638,9 @@
     <row r="66" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="O66" s="4"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B67" s="1"/>
-      <c r="M67" s="1"/>
+      <c r="O67" s="4"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O68" s="4"/>
@@ -5490,17 +5651,17 @@
     <row r="70" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O71" s="4"/>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O72" s="4"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O74" s="4"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O76" s="4"/>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O75" s="4"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O77" s="4"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O78" s="4"/>
@@ -5533,25 +5694,27 @@
       <c r="O87" s="4"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O88" s="4"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B89" s="5"/>
+      <c r="O89" s="3"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B90" s="1"/>
+      <c r="M90" s="1"/>
       <c r="O90" s="3"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="O92" s="4"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O93" s="3"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B94" s="1"/>
+      <c r="M94" s="1"/>
       <c r="O94" s="3"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
@@ -5566,11 +5729,11 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
-      <c r="M97" s="1"/>
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
+      <c r="M98" s="1"/>
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
@@ -5591,14 +5754,14 @@
     <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="O102" s="3"/>
+      <c r="O102"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="O103"/>
+      <c r="O103" s="3"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B104" s="1"/>
+      <c r="M104" s="1"/>
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
@@ -5608,11 +5771,11 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
-      <c r="M106" s="1"/>
       <c r="O106" s="3"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
+      <c r="M107" s="1"/>
       <c r="O107" s="3"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.4">
@@ -5623,11 +5786,6 @@
     <row r="109" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B109" s="1"/>
       <c r="M109" s="1"/>
-      <c r="O109" s="3"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B110" s="1"/>
-      <c r="M110" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5637,10 +5795,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4BBC3A-3797-425D-9776-E20D484E44D9}">
-  <dimension ref="A1:Q105"/>
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5703,146 +5861,158 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M2" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="M11" s="7"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>347</v>
+      </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.4">
@@ -5858,17 +6028,17 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O21" s="3"/>
+      <c r="O21" s="4"/>
     </row>
     <row r="22" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O22" s="4"/>
     </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O23" s="3"/>
+    </row>
     <row r="24" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O25" s="4"/>
-    </row>
     <row r="26" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O26" s="4"/>
     </row>
@@ -5890,70 +6060,46 @@
     <row r="32" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O34" s="3"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O40" s="4"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+    <row r="47" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+    <row r="48" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
@@ -6003,29 +6149,49 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O53" s="3"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="O53" s="4"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B54" s="2"/>
+      <c r="M54" s="2"/>
       <c r="O54" s="4"/>
     </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O55" s="3"/>
+    </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="2"/>
-      <c r="M56" s="2"/>
       <c r="O56" s="4"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="M58" s="2"/>
       <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="O59" s="4"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B60" s="1"/>
@@ -6042,11 +6208,15 @@
       <c r="M62" s="1"/>
       <c r="O62" s="4"/>
     </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="O63" s="4"/>
+    </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B64" s="1"/>
+      <c r="M64" s="1"/>
       <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O65" s="4"/>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O66" s="4"/>
@@ -6054,11 +6224,14 @@
     <row r="67" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O67" s="4"/>
     </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O68" s="4"/>
+    </row>
     <row r="69" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O70" s="4"/>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O71" s="4"/>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O72" s="4"/>
@@ -6066,9 +6239,6 @@
     <row r="74" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O75" s="4"/>
-    </row>
     <row r="76" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O76" s="4"/>
     </row>
@@ -6094,31 +6264,27 @@
       <c r="O83" s="4"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B84" s="5"/>
       <c r="O84" s="4"/>
     </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O85" s="4"/>
+    </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="O87" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="O86" s="4"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O88" s="4"/>
+      <c r="B88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="O89" s="3"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="O91" s="3"/>
+      <c r="O90" s="4"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
@@ -6127,6 +6293,7 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
+      <c r="M93" s="1"/>
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
@@ -6136,7 +6303,6 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
-      <c r="M95" s="1"/>
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.4">
@@ -6155,7 +6321,9 @@
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O99"/>
+      <c r="B99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="O99" s="3"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
@@ -6163,12 +6331,11 @@
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="O101" s="3"/>
+      <c r="O101"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
+      <c r="M102" s="1"/>
       <c r="O102" s="3"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
@@ -6178,13 +6345,22 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
-      <c r="M104" s="1"/>
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="M105" s="1"/>
       <c r="O105" s="3"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="O107" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -6197,7 +6373,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6260,25 +6436,25 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="O3" s="4"/>
     </row>
@@ -6718,13 +6894,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="O2" s="4"/>
     </row>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198A1F24-A3B8-4F6A-A1A5-C9E8975EDFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177307A3-C032-42BC-AA19-241BB43BE292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2825,7 +2825,7 @@
   <dimension ref="A1:Q116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177307A3-C032-42BC-AA19-241BB43BE292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728EAF3C-0E4F-4469-8BA3-574710E56069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,12 +128,6 @@
     <t>強制終了</t>
   </si>
   <si>
-    <t>Role Summary</t>
-  </si>
-  <si>
-    <t>最終結果</t>
-  </si>
-  <si>
     <t>Created with DekoKiyo</t>
   </si>
   <si>
@@ -403,10 +397,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Everyone</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ReactorWin</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1833,6 +1823,183 @@
   <si>
     <t>You can repair Sabotage with button and
 enter vents.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JesterMustFinishTasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Must Finish Tasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスクを終了する必要がある</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽霊時全員の\nタスク残量が見える</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽霊時全員の\n投票先が見える</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ネームプレートを\n非表示にする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスクの矢印を\n非表示にする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>幽霊時全員の\n約束が見える</t>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤクソク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>特殊装置の制限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Opportunist</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オポチュニスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OpportunistPostfix</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OpportunistExtra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Crewmates {0} Win</t>
+  </si>
+  <si>
+    <t>Impostors {0} Win</t>
+  </si>
+  <si>
+    <t>インポスター{0}勝利</t>
+  </si>
+  <si>
+    <t>Jester {0} Win</t>
+  </si>
+  <si>
+    <t>ジェスター{0}勝利</t>
+  </si>
+  <si>
+    <t>CrewWinExtra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImpostorWinExtra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JesterWinExtra</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Crewmates Win</t>
+  </si>
+  <si>
+    <t>インポスター勝利</t>
+  </si>
+  <si>
+    <t>ジェスター勝利</t>
+  </si>
+  <si>
+    <t>CrewmateWin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ImpostorWin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JesterWin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Jester Win</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Impostors Win</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クルーメイト勝利</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クルーメイト{0}勝利</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Everyone Lose</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全員敗北</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp; &lt;color=#00da00&gt;オポチュニスト&lt;/color&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&amp; &lt;color#00da00&gt;Oppotunist&lt;/color&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;align="center"&gt;&lt;size=120%&gt;Reference Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
+&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt; from Eisbison
+&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt; from tomarai
+&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt; from Yukinogatari
+&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt; from Haoming
+&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt; from Yoppy
+&lt;color=#ffffff&gt;Town of Plus&lt;/color&gt; from tugaru1975
+&lt;color=#4169e1&gt;Town of Super&lt;/color&gt; from reitou-mugicha
+&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt; from eDonnes124
+&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt; from TeamToI
+&lt;color=#ffffff&gt;Las Monjas&lt;/color&gt; from KiraYamato94
+&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt; from yukieiji
+&lt;color=#00bfff&gt;TownOfHost&lt;/color&gt; from Empty Bottle
+&lt;/size&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1848,188 +2015,32 @@
 KiraYamato94様の&lt;color=#ffffff&gt;LasMonjas&lt;/color&gt;
 冷凍麦茶様の&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt;
 yukieiji様の&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt;
-空き瓶様の&lt;color=#02fcfe&gt;Town of Host&lt;/color&gt;&lt;/size&gt;&lt;/size&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&lt;align="center"&gt;&lt;size=120%&gt;Reference Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
-&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt; from Eisbison
-&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt; from tomarai
-&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt; from Yukinogatari
-&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt; from Haoming
-&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt; from Yoppy
-&lt;color=#ffffff&gt;Town of Plus&lt;/color&gt; from tugaru1975
-&lt;color=#4169e1&gt;Town of Super&lt;/color&gt; from reitou-mugicha
-&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt; from eDonnes124
-&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt; from TeamToI
-&lt;color=#ffffff&gt;Las Monjas&lt;/color&gt; from KiraYamato94
-&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt; from yukieiji
-&lt;color=#02fcfe&gt;Town of Host&lt;/color&gt; from Empty Bottle
-&lt;/size&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JesterMustFinishTasks</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Must Finish Tasks</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>タスクを終了する必要がある</t>
+空き瓶様の&lt;color=#00bfff&gt;TownOfHost&lt;/color&gt;&lt;/size&gt;&lt;/size&gt;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EveryoneLose</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FinishedByHost</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Force End with Host</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホストが強制終了を行った。</t>
     <rPh sb="4" eb="6">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>シュウリョウ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幽霊時全員の\nタスク残量が見える</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幽霊時全員の\n投票先が見える</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ネームプレートを\n非表示にする</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>タスクの矢印を\n非表示にする</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>幽霊時全員の\n約束が見える</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヤクソク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>特殊装置の制限</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Opportunist</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>オポチュニスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OpportunistPostfix</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>OpportunistExtra</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Crewmates {0} Win</t>
-  </si>
-  <si>
-    <t>Impostors {0} Win</t>
-  </si>
-  <si>
-    <t>インポスター{0}勝利</t>
-  </si>
-  <si>
-    <t>Jester {0} Win</t>
-  </si>
-  <si>
-    <t>ジェスター{0}勝利</t>
-  </si>
-  <si>
-    <t>CrewWinExtra</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ImpostorWinExtra</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JesterWinExtra</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Crewmates Win</t>
-  </si>
-  <si>
-    <t>インポスター勝利</t>
-  </si>
-  <si>
-    <t>ジェスター勝利</t>
-  </si>
-  <si>
-    <t>CrewmateWin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ImpostorWin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>JesterWin</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Jester Win</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Impostors Win</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>クルーメイト勝利</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>クルーメイト{0}勝利</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Everyone Lose</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>全員敗北</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハイボク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>RoleSummaryText</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&amp; &lt;color=#00da00&gt;オポチュニスト&lt;/color&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>&amp; &lt;color#00da00&gt;Oppotunist&lt;/color&gt;</t>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2822,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2888,7 +2899,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -2900,7 +2911,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -2912,7 +2923,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -2924,7 +2935,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -2936,7 +2947,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -2948,7 +2959,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -2960,7 +2971,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -2972,7 +2983,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -2988,37 +2999,37 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" t="s">
+        <v>382</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="B12" t="s">
-        <v>387</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M13" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M14" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="O14" s="4"/>
     </row>
@@ -3036,13 +3047,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>96</v>
+        <v>398</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="O16" s="4"/>
     </row>
@@ -3051,390 +3062,408 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="M19" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M20" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="M22" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M24" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="M23" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M26" t="s">
         <v>34</v>
       </c>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="M27" t="s">
-        <v>36</v>
+      <c r="M27" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M28" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+      <c r="M34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
+      <c r="B35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
+      <c r="B36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M36" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="M37" s="8" t="s">
         <v>67</v>
       </c>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
+      <c r="B40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M39" s="8" t="s">
+      <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M42" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="M43" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="M44" s="8"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="M45" s="8"/>
+      <c r="A45" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>249</v>
+      </c>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="O46" s="4"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="M47" s="8" t="s">
-        <v>253</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>257</v>
+        <v>276</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A52" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A54" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M54" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>364</v>
-      </c>
       <c r="M55" s="8" t="s">
-        <v>363</v>
+        <v>90</v>
       </c>
       <c r="O55" s="4"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A56" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M56" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="2"/>
+      <c r="B57" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -3445,16 +3474,14 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
+      <c r="M57" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="O57" s="4"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A58" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="A58" s="7"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -3465,14 +3492,16 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="9" t="s">
-        <v>94</v>
-      </c>
+      <c r="M58" s="9"/>
       <c r="O58" s="4"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A59" s="7"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -3483,213 +3512,196 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="9"/>
-      <c r="O59" s="4"/>
+      <c r="M59" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O60" s="3"/>
+      <c r="O60" s="4"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B63" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M63" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="M61" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A62" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M62" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="O63" s="4"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A64" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M64" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="O64" s="4"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" t="s">
+        <v>272</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>363</v>
+      </c>
       <c r="O65" s="4"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="O67" s="4"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O68" s="4"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
-      </c>
-      <c r="M69" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="O69" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="M69" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
-      </c>
-      <c r="M70" t="s">
-        <v>278</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M70" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="O70" s="4"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A71" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71" t="s">
-        <v>277</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="B71" s="1"/>
       <c r="O71" s="4"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B72" s="1"/>
+      <c r="A72" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>326</v>
+      </c>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="O73" s="4"/>
     </row>
     <row r="74" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="M74" s="8" t="s">
+      <c r="B76" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="M76" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A75" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A76" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>326</v>
-      </c>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15" ht="75" x14ac:dyDescent="0.4">
-      <c r="A77" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="O77" s="4"/>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O79" s="4"/>
+      <c r="O78" s="4"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O80" s="4"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O81" s="4"/>
@@ -3721,18 +3733,20 @@
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O91" s="4"/>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O92" s="3"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B95" s="5"/>
-      <c r="O95" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="O94" s="4"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="O96" s="3"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
@@ -3740,14 +3754,14 @@
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B98" s="1"/>
-      <c r="M98" s="1"/>
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O99" s="3"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B100" s="1"/>
+      <c r="M100" s="1"/>
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.4">
@@ -3762,22 +3776,22 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
-      <c r="M103" s="1"/>
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
+      <c r="M104" s="1"/>
       <c r="O104" s="3"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="M105" s="1"/>
-      <c r="O105" s="3"/>
+      <c r="O105"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
-      <c r="O106"/>
+      <c r="O106" s="3"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
@@ -3790,11 +3804,11 @@
       <c r="O108" s="3"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B109" s="1"/>
-      <c r="M109" s="1"/>
       <c r="O109" s="3"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="M110" s="1"/>
       <c r="O110" s="3"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.4">
@@ -3804,11 +3818,10 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="O112" s="3"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B113" s="1"/>
+      <c r="M113" s="1"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B114" s="1"/>
@@ -3817,10 +3830,6 @@
     <row r="115" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B115" s="1"/>
       <c r="M115" s="1"/>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B116" s="1"/>
-      <c r="M116" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3897,61 +3906,61 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -3960,25 +3969,25 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="O10" s="4"/>
     </row>
@@ -4400,72 +4409,72 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
-        <v>49</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -4474,109 +4483,109 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O17" s="4"/>
     </row>
@@ -4977,48 +4986,48 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O5" s="4"/>
     </row>
@@ -5027,61 +5036,61 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="M7" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="M9" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O11" s="4"/>
     </row>
@@ -5091,97 +5100,97 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O20" s="4"/>
     </row>
@@ -5190,108 +5199,108 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="O30" s="4"/>
     </row>
@@ -5300,73 +5309,73 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
@@ -5375,72 +5384,72 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M44" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O44" s="4"/>
     </row>
@@ -5450,61 +5459,61 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M49" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O50" s="4"/>
     </row>
@@ -5525,10 +5534,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5541,16 +5550,16 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5563,7 +5572,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O53" s="4"/>
     </row>
@@ -5861,108 +5870,108 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O10" s="4"/>
     </row>
@@ -5974,13 +5983,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="O12" s="4"/>
     </row>
@@ -5989,25 +5998,25 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O15" s="4"/>
     </row>
@@ -6436,25 +6445,25 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O3" s="4"/>
     </row>
@@ -6894,13 +6903,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="O2" s="4"/>
     </row>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728EAF3C-0E4F-4469-8BA3-574710E56069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C2E03-6911-4D14-9C6A-3D773CB11E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="453">
   <si>
     <t>English</t>
   </si>
@@ -1366,10 +1366,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ShowRoleSummaryButton</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>HideNameplates</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1384,9 +1380,6 @@
     <t>Ghosts See Roles</t>
   </si>
   <si>
-    <t>Show Role Summary</t>
-  </si>
-  <si>
     <t>Ghosts See Remaining Tasks</t>
   </si>
   <si>
@@ -1394,9 +1387,6 @@
   </si>
   <si>
     <t>Hide Task Arrows</t>
-  </si>
-  <si>
-    <t>最終結果を表示</t>
   </si>
   <si>
     <t>FormatShots</t>
@@ -2041,6 +2031,302 @@
     <rPh sb="9" eb="10">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CustomImpostor</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Custom Impostor</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かすたむいんぽすたー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTaker</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Under Taker</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アンダーテイカー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CustomImpostorIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CustomImpostorShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CustomImpostorFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I was customized!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改造されてしまった！</t>
+    <rPh sb="0" eb="2">
+      <t>カイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>This is an individually configurable crook.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>個別の設定が可能なインポスター</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Kill and Move DeadBody</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>You can Move Dead Body anywere.
+Hide Dead Bodies and Kill Everyone.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>死体をどこへでも動かすことができる。
+死体を隠して全員を殺そう。</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>死体を運べ</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerButtonCooldown</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerHasDuration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerDuration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerCanDumpDeadBodyInVent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerDraggingSpeed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatPercent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}%</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Move Cooldown</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Has Duration Time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Duration Time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dragging Speed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Dump Body in Vent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ベントに死体を捨てることができる</t>
+    <rPh sb="4" eb="6">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運ぶときの足の速さ</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運ぶ制限時間</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運ぶ制限時間を持つ</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運ぶクールダウン</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerDragText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Drag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Drop</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>置く</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerDropText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掴む</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Latam</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Filipino</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Brazilian</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Portuguese</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Russian</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dutch</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>French</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>German</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Italian</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Spanish</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2396,7 +2682,7 @@
   <dimension ref="B1:Q100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2835,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2999,37 +3285,37 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="M13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O14" s="4"/>
     </row>
@@ -3047,13 +3333,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="O16" s="4"/>
     </row>
@@ -3062,37 +3348,37 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O20" s="4"/>
     </row>
@@ -3122,25 +3408,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O24" s="4"/>
     </row>
@@ -3366,104 +3652,96 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>425</v>
+      </c>
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="M54" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
+      <c r="B55" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="M56" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
       <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -3474,14 +3752,16 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="M57" s="2"/>
       <c r="O57" s="4"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A58" s="7"/>
-      <c r="B58" s="9"/>
+      <c r="A58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -3492,16 +3772,14 @@
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="9"/>
+      <c r="M58" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="O58" s="4"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="A59" s="7"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -3512,80 +3790,88 @@
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O59" s="3"/>
+      <c r="M59" s="9"/>
+      <c r="O59" s="4"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O60" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O61" s="4"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="M61" s="9" t="s">
+      <c r="M62" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="O62" s="4"/>
-    </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
+      <c r="B63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M63" s="7" t="s">
+      <c r="M64" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O64" s="4"/>
-    </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B65" t="s">
-        <v>272</v>
-      </c>
-      <c r="M65" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="O65" s="4"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s">
         <v>270</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
         <v>269</v>
@@ -3597,36 +3883,36 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="O68" s="4"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
-      </c>
-      <c r="M69" t="s">
-        <v>275</v>
+        <v>271</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O70" s="4"/>
     </row>
@@ -3636,60 +3922,60 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O72" s="4"/>
     </row>
     <row r="73" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O73" s="4"/>
     </row>
     <row r="74" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="M74" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O75" s="4"/>
     </row>
     <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O76" s="4"/>
     </row>
@@ -3840,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3942,25 +4228,563 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O37" s="4"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O51" s="4"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="O57" s="4"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="O58" s="4"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="O59" s="4"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O61" s="4"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O62" s="4"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O64" s="4"/>
+    </row>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O66" s="4"/>
+    </row>
+    <row r="67" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O67" s="4"/>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O69" s="4"/>
+    </row>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O71" s="4"/>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O72" s="4"/>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O73" s="4"/>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O74" s="4"/>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O75" s="4"/>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O76" s="4"/>
+    </row>
+    <row r="77" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O77" s="4"/>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O78" s="4"/>
+    </row>
+    <row r="79" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O79" s="4"/>
+    </row>
+    <row r="80" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O80" s="4"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B81" s="5"/>
+      <c r="O81" s="4"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O85" s="4"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B90" s="1"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O96"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B99" s="1"/>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="O102" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q100"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="13" max="13" width="44.5" customWidth="1"/>
+    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -3968,87 +4792,206 @@
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
-        <v>369</v>
+      <c r="A9" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
-        <v>371</v>
+      <c r="A10" t="s">
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>372</v>
+        <v>81</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>352</v>
+      </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="s">
+        <v>279</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>354</v>
+      </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>409</v>
+      </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>411</v>
+      </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>418</v>
+      </c>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>418</v>
+      </c>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>417</v>
+      </c>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O29" s="3"/>
     </row>
-    <row r="31" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.4">
@@ -4341,589 +5284,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q100"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="13" max="13" width="44.5" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" t="s">
-        <v>282</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" t="s">
-        <v>282</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O29" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O35" s="4"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O49" s="4"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="O57" s="4"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O62" s="4"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O65" s="4"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O67" s="4"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B79" s="5"/>
-      <c r="O79" s="4"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O83" s="4"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B88" s="1"/>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O94"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B97" s="1"/>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="O100" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98A575F-FC0C-4F2D-9AA5-3764DA9D9B0E}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4938,41 +5304,41 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
+      <c r="C1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
+      <c r="N1" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>13</v>
@@ -5084,13 +5450,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O11" s="4"/>
     </row>
@@ -5282,25 +5648,25 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M29" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="M29" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="O30" s="4"/>
     </row>
@@ -5390,7 +5756,7 @@
         <v>210</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="O39" s="4"/>
     </row>
@@ -5459,13 +5825,13 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O46" s="4"/>
     </row>
@@ -5807,7 +6173,7 @@
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5870,67 +6236,67 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>242</v>
@@ -5941,7 +6307,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>247</v>
@@ -5953,7 +6319,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>241</v>
@@ -5965,7 +6331,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>243</v>
@@ -5983,13 +6349,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O12" s="4"/>
     </row>
@@ -5998,25 +6364,25 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O15" s="4"/>
     </row>
@@ -6024,49 +6390,94 @@
       <c r="A16" s="7"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>435</v>
+      </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>434</v>
+      </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>432</v>
+      </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>431</v>
+      </c>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O24" s="4"/>
     </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="15:15" x14ac:dyDescent="0.4">
@@ -6445,25 +6856,25 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O3" s="4"/>
     </row>
@@ -6837,10 +7248,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4B5581-88E7-4442-BC96-D82399DEE6D9}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6903,18 +7314,39 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>439</v>
+      </c>
       <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O5" s="4"/>
@@ -6947,13 +7379,13 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O15" s="4"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O17" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O18" s="4"/>
     </row>
     <row r="19" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O19" s="4"/>
@@ -6983,10 +7415,10 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O29" s="3"/>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="30" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O30" s="4"/>
     </row>
     <row r="31" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O31" s="4"/>
@@ -7000,8 +7432,8 @@
     <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O35" s="4"/>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O37" s="4"/>
@@ -7016,6 +7448,18 @@
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.4">
@@ -7080,34 +7524,24 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="O47" s="4"/>
+      <c r="O47" s="3"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O49" s="4"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="O51" s="4"/>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="O52" s="4"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
@@ -7129,10 +7563,8 @@
       <c r="M56" s="1"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="O57" s="4"/>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O58" s="4"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O59" s="4"/>
@@ -7143,17 +7575,17 @@
     <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O62" s="4"/>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O63" s="4"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O65" s="4"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O67" s="4"/>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O66" s="4"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O68" s="4"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O69" s="4"/>
@@ -7183,11 +7615,13 @@
       <c r="O77" s="4"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B78" s="5"/>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B79" s="5"/>
-      <c r="O79" s="4"/>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="O80" s="3"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
@@ -7195,12 +7629,12 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O83" s="4"/>
+      <c r="O82" s="4"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="O84" s="3"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
@@ -7214,11 +7648,11 @@
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
-      <c r="M87" s="1"/>
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
+      <c r="M88" s="1"/>
       <c r="O88" s="3"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.4">
@@ -7242,12 +7676,12 @@
       <c r="O92" s="3"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="O93" s="3"/>
+      <c r="O93"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O94"/>
+      <c r="B94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="O94" s="3"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
@@ -7256,11 +7690,11 @@
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
-      <c r="M96" s="1"/>
       <c r="O96" s="3"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
+      <c r="M97" s="1"/>
       <c r="O97" s="3"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
@@ -7272,11 +7706,6 @@
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
       <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="O100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5C2E03-6911-4D14-9C6A-3D773CB11E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A4A0DE-2BD7-41EE-8392-D518314E9F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -1298,10 +1298,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>{0}Seconds</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>{0}Times</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1976,10 +1972,331 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>EveryoneLose</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FinishedByHost</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Force End with Host</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ホストが強制終了を行った。</t>
+    <rPh sb="4" eb="6">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CustomImpostor</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Custom Impostor</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>かすたむいんぽすたー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTaker</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Under Taker</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アンダーテイカー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CustomImpostorIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CustomImpostorShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CustomImpostorFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>I was customized!</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改造されてしまった！</t>
+    <rPh sb="0" eb="2">
+      <t>カイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>This is an individually configurable crook.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>個別の設定が可能なインポスター</t>
+    <rPh sb="0" eb="2">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Kill and Move DeadBody</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>You can Move Dead Body anywere.
+Hide Dead Bodies and Kill Everyone.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>死体をどこへでも動かすことができる。
+死体を隠して全員を殺そう。</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>死体を運べ</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerButtonCooldown</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerHasDuration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerDuration</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerCanDumpDeadBodyInVent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerDraggingSpeed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FormatPercent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}%</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Move Cooldown</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Has Duration Time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Duration Time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dragging Speed</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Dump Body in Vent</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ベントに死体を捨てることができる</t>
+    <rPh sb="4" eb="6">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運ぶときの足の速さ</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運ぶ制限時間</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運ぶ制限時間を持つ</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>運ぶクールダウン</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerDragText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Drag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Drop</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>置く</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UnderTakerDropText</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>掴む</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Latam</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Filipino</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Brazilian</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Portuguese</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Russian</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Dutch</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>French</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>German</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Italian</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Spanish</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>&lt;align="center"&gt;&lt;size=120%&gt;Reference Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
 &lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt; from Eisbison
 &lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt; from tomarai
-&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt; from Yukinogatari
+&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt; from Dusk
 &lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt; from Haoming
 &lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt; from Yoppy
 &lt;color=#ffffff&gt;Town of Plus&lt;/color&gt; from tugaru1975
@@ -1989,6 +2306,7 @@
 &lt;color=#ffffff&gt;Las Monjas&lt;/color&gt; from KiraYamato94
 &lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt; from yukieiji
 &lt;color=#00bfff&gt;TownOfHost&lt;/color&gt; from Empty Bottle
+&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt; from Dolly
 &lt;/size&gt;</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1996,7 +2314,7 @@
     <t>&lt;align="center"&gt;&lt;size=120%&gt;参考Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
 Eisbison様の&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt;
 tomarai様の&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt;
-Yukinogatari様の&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt;
+Dusk様の&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt;
 Haoming様の&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt;
 よっキングの&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt;
 tugaru1975様の&lt;color=#ffffff&gt;TownOfPlus&lt;/color&gt;
@@ -2005,328 +2323,15 @@
 KiraYamato94様の&lt;color=#ffffff&gt;LasMonjas&lt;/color&gt;
 冷凍麦茶様の&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt;
 yukieiji様の&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt;
-空き瓶様の&lt;color=#00bfff&gt;TownOfHost&lt;/color&gt;&lt;/size&gt;&lt;/size&gt;</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>EveryoneLose</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FinishedByHost</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Force End with Host</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ホストが強制終了を行った。</t>
-    <rPh sb="4" eb="6">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CustomImpostor</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Custom Impostor</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>かすたむいんぽすたー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTaker</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Under Taker</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アンダーテイカー</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CustomImpostorIntro</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CustomImpostorShort</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CustomImpostorFull</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>I was customized!</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>改造されてしまった！</t>
-    <rPh sb="0" eb="2">
-      <t>カイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>This is an individually configurable crook.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>個別の設定が可能なインポスター</t>
-    <rPh sb="0" eb="2">
-      <t>コベツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerIntro</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerShort</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerFull</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Kill and Move DeadBody</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>You can Move Dead Body anywere.
-Hide Dead Bodies and Kill Everyone.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>死体をどこへでも動かすことができる。
-死体を隠して全員を殺そう。</t>
-    <rPh sb="0" eb="2">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>コロ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>死体を運べ</t>
-    <rPh sb="0" eb="2">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハコ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerButtonCooldown</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerHasDuration</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerDuration</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerCanDumpDeadBodyInVent</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerDraggingSpeed</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>FormatPercent</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>{0}%</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Move Cooldown</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Has Duration Time</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Duration Time</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Dragging Speed</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Can Dump Body in Vent</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ベントに死体を捨てることができる</t>
-    <rPh sb="4" eb="6">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>運ぶときの足の速さ</t>
-    <rPh sb="0" eb="1">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アシ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハヤ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>運ぶ制限時間</t>
-    <rPh sb="0" eb="1">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>運ぶ制限時間を持つ</t>
-    <rPh sb="0" eb="1">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>運ぶクールダウン</t>
-    <rPh sb="0" eb="1">
-      <t>ハコ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerDragText</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Drag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Drop</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>置く</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UnderTakerDropText</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>掴む</t>
-    <rPh sb="0" eb="1">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Latam</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Filipino</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Brazilian</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Portuguese</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Korean</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Russian</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Dutch</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>French</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>German</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Italian</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Spanish</t>
+空き瓶様の&lt;color=#00bfff&gt;TownOfHost&lt;/color&gt;
+Dolly様の&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt;&lt;/size&gt;</t>
+    <rPh sb="708" eb="709">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{0}Sec</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3121,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3285,37 +3290,37 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>385</v>
-      </c>
       <c r="M14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O14" s="4"/>
     </row>
@@ -3333,13 +3338,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="O16" s="4"/>
     </row>
@@ -3348,37 +3353,37 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B19" t="s">
+        <v>371</v>
+      </c>
+      <c r="M19" t="s">
         <v>372</v>
-      </c>
-      <c r="M19" t="s">
-        <v>373</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B20" t="s">
+        <v>373</v>
+      </c>
+      <c r="M20" t="s">
         <v>374</v>
-      </c>
-      <c r="M20" t="s">
-        <v>375</v>
       </c>
       <c r="O20" s="4"/>
     </row>
@@ -3408,25 +3413,25 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O24" s="4"/>
     </row>
@@ -3489,10 +3494,10 @@
         <v>111</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O32" s="4"/>
     </row>
@@ -3620,7 +3625,7 @@
         <v>251</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>256</v>
+        <v>452</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>249</v>
@@ -3632,7 +3637,7 @@
         <v>252</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M46" s="8" t="s">
         <v>250</v>
@@ -3652,25 +3657,25 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="M48" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="O49" s="4"/>
     </row>
@@ -3721,10 +3726,10 @@
         <v>84</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="O55" s="4"/>
     </row>
@@ -3859,60 +3864,60 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O66" s="4"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O67" s="4"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O68" s="4"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O70" s="4"/>
     </row>
@@ -3922,60 +3927,60 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O72" s="4"/>
     </row>
     <row r="73" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A73" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O73" s="4"/>
     </row>
     <row r="74" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="M75" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="M75" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="O75" s="4"/>
     </row>
     <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.4">
       <c r="A76" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="M76" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="O76" s="4"/>
     </row>
@@ -4228,49 +4233,49 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O9" s="4"/>
     </row>
@@ -4279,25 +4284,25 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>369</v>
-      </c>
       <c r="M12" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O12" s="4"/>
     </row>
@@ -4781,10 +4786,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>349</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>350</v>
       </c>
       <c r="O7" s="4"/>
     </row>
@@ -4820,153 +4825,153 @@
         <v>57</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="M13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="M18" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="M19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="M20" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="M21" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="O23" s="4"/>
     </row>
@@ -5288,7 +5293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98A575F-FC0C-4F2D-9AA5-3764DA9D9B0E}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -5305,40 +5310,40 @@
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>13</v>
@@ -5438,25 +5443,25 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="O11" s="4"/>
     </row>
@@ -5648,25 +5653,25 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M30" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="M30" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="O30" s="4"/>
     </row>
@@ -5756,7 +5761,7 @@
         <v>210</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O39" s="4"/>
     </row>
@@ -5825,13 +5830,13 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M46" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="O46" s="4"/>
     </row>
@@ -6236,67 +6241,67 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M2" t="s">
         <v>294</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M2" t="s">
-        <v>295</v>
       </c>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>242</v>
@@ -6307,7 +6312,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>247</v>
@@ -6319,7 +6324,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>241</v>
@@ -6331,7 +6336,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>243</v>
@@ -6349,13 +6354,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="O12" s="4"/>
     </row>
@@ -6364,25 +6369,25 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O15" s="4"/>
     </row>
@@ -6392,61 +6397,61 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="O21" s="4"/>
     </row>
@@ -6856,25 +6861,25 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s">
+        <v>291</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="O3" s="4"/>
     </row>
@@ -7314,37 +7319,37 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="O4" s="4"/>
     </row>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8867D7D4-0CF4-43CB-B7E2-BE0169C0E942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B318D-E333-4A85-8CC3-4EE7AAE77BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="584">
   <si>
     <t>English</t>
   </si>
@@ -1937,6 +1937,30 @@
 Dolly 创作的&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt;
 中文翻译：&lt;color=#ff0000&gt;四个憨批汉化组 旧事 氢氧则名&lt;/color&gt;&lt;/size&gt;</t>
     </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterSuccess</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterMiss</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterDuration</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterShowArrow</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterArrowUpdateCooldown</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Success KillCooldown</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -2040,7 +2064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2086,6 +2110,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
@@ -2804,7 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
@@ -6141,8 +6166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6458,15 +6483,35 @@
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="21" t="s">
+        <v>578</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>583</v>
+      </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="21" t="s">
+        <v>579</v>
+      </c>
       <c r="O24" s="5"/>
     </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="21" t="s">
+        <v>580</v>
+      </c>
+    </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="21" t="s">
+        <v>581</v>
+      </c>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="21" t="s">
+        <v>582</v>
+      </c>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B318D-E333-4A85-8CC3-4EE7AAE77BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E0AE6-DABE-4015-8810-B632970F9DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="578">
   <si>
     <t>English</t>
   </si>
@@ -224,7 +224,7 @@
     <t>全員敗北</t>
   </si>
   <si>
-    <t>一败涂地</t>
+    <t>无人生还</t>
   </si>
   <si>
     <t>CrewWinExtra</t>
@@ -272,7 +272,7 @@
     <t>&lt;size=80%&gt;リアクターサボが発動した。&lt;/size&gt;</t>
   </si>
   <si>
-    <t>反应堆已被激活</t>
+    <t>&lt;size=80%&gt;反应堆爆炸了&lt;/size&gt;</t>
   </si>
   <si>
     <t>O2Win</t>
@@ -284,7 +284,7 @@
     <t>&lt;size=80%&gt;酸素サボが発動した。&lt;/size&gt;</t>
   </si>
   <si>
-    <t>氧气正在被泄漏</t>
+    <t>&lt;size=80%&gt;氧气耗尽了&lt;/size&gt;</t>
   </si>
   <si>
     <t>OpportunistExtra</t>
@@ -350,7 +350,7 @@
     <t>===プレイヤー名：機種名===</t>
   </si>
   <si>
-    <t>===玩家名称：使用端口===</t>
+    <t>===玩家名称：游戏设备===</t>
   </si>
   <si>
     <t>MeetingStatus</t>
@@ -366,6 +366,11 @@
 緊急会議を開催できる&lt;/size&gt;</t>
   </si>
   <si>
+    <t>&lt;size=100%&gt;{0} 还能召开
+&lt;color=red&gt;{1}次会议 .所有人还能召开 {2} 次&lt;/color&gt;
+紧急会议.&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>NoUpdate</t>
   </si>
   <si>
@@ -377,6 +382,10 @@
 これが最新です。</t>
   </si>
   <si>
+    <t>目前不需要更新。
+已更新至最新版本。</t>
+  </si>
+  <si>
     <t>Updating</t>
   </si>
   <si>
@@ -398,6 +407,10 @@
   <si>
     <t>アップデートに失敗しました。
 手動でやり直してください。</t>
+  </si>
+  <si>
+    <t>无法自动更新。
+请尝试手动更新。</t>
   </si>
   <si>
     <t>UpdateInProgress</t>
@@ -413,6 +426,11 @@
 再度起動してください。</t>
   </si>
   <si>
+    <t>更新完成。
+请退出游戏，
+并再次启动。</t>
+  </si>
+  <si>
     <t>UpdateButton</t>
   </si>
   <si>
@@ -537,7 +555,29 @@
 &lt;/align&gt;</t>
   </si>
   <si>
+    <t>&lt;align="center"&gt;制作者：
+DekoKiyo
+&lt;/align&gt;</t>
+  </si>
+  <si>
     <t>CreditsText</t>
+  </si>
+  <si>
+    <t>&lt;align="center"&gt;&lt;size=120%&gt;Reference Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
+&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt; from Eisbison
+&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt; from tomarai
+&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt; from Dusk
+&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt; from Haoming
+&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt; from Yoppy
+&lt;color=#ffffff&gt;Town of Plus&lt;/color&gt; from tugaru1975
+&lt;color=#4169e1&gt;Town of Super&lt;/color&gt; from reitou-mugicha
+&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt; from eDonnes124
+&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt; from TeamToI
+&lt;color=#ffffff&gt;Las Monjas&lt;/color&gt; from KiraYamato94
+&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt; from yukieiji
+&lt;color=#00bfff&gt;TownOfHost&lt;/color&gt; from Empty Bottle
+&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt; from Dolly
+&lt;/size&gt;</t>
   </si>
   <si>
     <t>&lt;align="center"&gt;&lt;size=120%&gt;参考Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
@@ -709,6 +749,9 @@
     <t>のUltimateModsのバージョンがこのバージョンより古いです。</t>
   </si>
   <si>
+    <t>极限职业模组版本较旧</t>
+  </si>
+  <si>
     <t>ErrorNewerVersion</t>
   </si>
   <si>
@@ -718,6 +761,9 @@
     <t>のUltimateModsのバージョンがこのバージョンより新しいです。</t>
   </si>
   <si>
+    <t>极限职业模组版本较新</t>
+  </si>
+  <si>
     <t>ErrorWrongVersion</t>
   </si>
   <si>
@@ -728,19 +774,12 @@
   </si>
   <si>
     <t>极限职业模组为修改过的版本</t>
-  </si>
-  <si>
-    <t>ErrorHostNoVersion</t>
   </si>
   <si>
     <t>&lt;color=#00a2ff&gt;The host has no or a different version of UltimateMods
 You will be kicked in {0}s&lt;/color&gt;</t>
   </si>
   <si>
-    <t>&lt;color=#00a2ff&gt;ホストがUltimateModsを導入していないかバージョンが違います。
-バグ防止のため、あなたはあと{0}秒でキックされます。&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>Impostor</t>
   </si>
   <si>
@@ -881,6 +920,28 @@
 タスクを行おう。</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>普通船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>员</t>
+    </r>
+  </si>
+  <si>
     <t>JesterIntro</t>
   </si>
   <si>
@@ -890,930 +951,14 @@
     <t>ここから出ていけ</t>
   </si>
   <si>
-    <t>JesterShort</t>
-  </si>
-  <si>
-    <t>JesterFull</t>
-  </si>
-  <si>
-    <t>Get out of here to win.
-Not to be killed by &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>追放されれば勝利。
-&lt;color=#FF1919FF&gt;インポスター&lt;/color&gt;などに殺されないようにしよう。</t>
-  </si>
-  <si>
-    <t>SheriffIntro</t>
-  </si>
-  <si>
-    <t>Shoot the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>&lt;color=#FF1919FF&gt;インポスターたち&lt;/color&gt;を撃ち抜け</t>
-  </si>
-  <si>
-    <t>SheriffShort</t>
-  </si>
-  <si>
-    <t>SheriffFull</t>
-  </si>
-  <si>
-    <t>EngineerIntro</t>
-  </si>
-  <si>
-    <t>Let's Maintenance.</t>
-  </si>
-  <si>
-    <t>メンテナンスを欠かすな</t>
-  </si>
-  <si>
-    <t>EngineerShort</t>
-  </si>
-  <si>
-    <t>修理飞船</t>
-  </si>
-  <si>
-    <t>EngineerFull</t>
-  </si>
-  <si>
-    <t>You can repair Sabotage with button and
-enter vents.</t>
-  </si>
-  <si>
-    <t>サボタージュを直したり、ベントに入ることができる。</t>
-  </si>
-  <si>
-    <t>CustomImpostorIntro</t>
-  </si>
-  <si>
-    <t>I was customized!</t>
-  </si>
-  <si>
-    <t>改造されてしまった！</t>
-  </si>
-  <si>
-    <t>CustomImpostorShort</t>
-  </si>
-  <si>
-    <t>CustomImpostorFull</t>
-  </si>
-  <si>
-    <t>This is an individually configurable crook.</t>
-  </si>
-  <si>
-    <t>個別の設定が可能なインポスター</t>
-  </si>
-  <si>
-    <t>UnderTakerIntro</t>
-  </si>
-  <si>
-    <t>Kill and Move DeadBody</t>
-  </si>
-  <si>
-    <t>死体を運べ</t>
-  </si>
-  <si>
-    <t>UnderTakerShort</t>
-  </si>
-  <si>
-    <t>UnderTakerFull</t>
-  </si>
-  <si>
-    <t>You can Move Dead Body anywere.
-Hide Dead Bodies and Kill Everyone.</t>
-  </si>
-  <si>
-    <t>死体をどこへでも動かすことができる。
-死体を隠して全員を殺そう。</t>
-  </si>
-  <si>
-    <t>ChangePage</t>
-  </si>
-  <si>
-    <t>Press &lt; &gt; for Change Pages,</t>
-  </si>
-  <si>
-    <t>&lt; &gt;でページを変更</t>
-  </si>
-  <si>
-    <t>按 &lt; &gt; 以便查看其他内容</t>
-  </si>
-  <si>
-    <t>ActivateRoles</t>
-  </si>
-  <si>
-    <t>Activate Mod Roles</t>
-  </si>
-  <si>
-    <t>Mod役職有効化</t>
-  </si>
-  <si>
-    <t>启用模组职业</t>
-  </si>
-  <si>
-    <t>PresetSelection</t>
-  </si>
-  <si>
-    <t>Preset</t>
-  </si>
-  <si>
-    <t>プリセット</t>
-  </si>
-  <si>
-    <t>预设</t>
-  </si>
-  <si>
-    <t>RandomGen</t>
-  </si>
-  <si>
-    <t>Random Generator</t>
-  </si>
-  <si>
-    <t>強力な乱数生成機</t>
-  </si>
-  <si>
-    <t>启用强随机生成模式</t>
-  </si>
-  <si>
-    <t>CrewmateRoles</t>
-  </si>
-  <si>
-    <t>クルーメイト陣営役職</t>
-  </si>
-  <si>
-    <t>船员职业数</t>
-  </si>
-  <si>
-    <t>NeutralRoles</t>
-  </si>
-  <si>
-    <t>独立职业数</t>
-  </si>
-  <si>
-    <t>ImpostorRoles</t>
-  </si>
-  <si>
-    <t>インポスター陣営役職</t>
-  </si>
-  <si>
-    <t>内鬼职业数</t>
-  </si>
-  <si>
-    <t>ModifierRoles</t>
-  </si>
-  <si>
-    <t>属性陣営役職</t>
-  </si>
-  <si>
-    <t>附加职业数</t>
-  </si>
-  <si>
-    <t>RememberClassic</t>
-  </si>
-  <si>
-    <t>Remember the Past</t>
-  </si>
-  <si>
-    <t>過去を思い出す</t>
-  </si>
-  <si>
-    <t>记住过去</t>
-  </si>
-  <si>
-    <t>CrewmateRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Crewmate Roles</t>
-  </si>
-  <si>
-    <t>最小クルーメイト陣営役職数</t>
-  </si>
-  <si>
-    <t>最少船员职业数</t>
-  </si>
-  <si>
-    <t>CrewmateRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Crewmate Roles</t>
-  </si>
-  <si>
-    <t>最大クルーメイト陣営役職数</t>
-  </si>
-  <si>
-    <t>最多船员职业数</t>
-  </si>
-  <si>
-    <t>NeutralRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Neutral Roles</t>
-  </si>
-  <si>
-    <t>最小第三陣営役職数</t>
-  </si>
-  <si>
-    <t>最少独立职业数</t>
-  </si>
-  <si>
-    <t>NeutralRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Neutral Roles</t>
-  </si>
-  <si>
-    <t>最大第三陣営役職数</t>
-  </si>
-  <si>
-    <t>最多独立职业数</t>
-  </si>
-  <si>
-    <t>ImpostorRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Impostor Roles</t>
-  </si>
-  <si>
-    <t>最小インポスター陣営役職数</t>
-  </si>
-  <si>
-    <t>最少内鬼职业数</t>
-  </si>
-  <si>
-    <t>ImpostorRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Impostor Roles</t>
-  </si>
-  <si>
-    <t>最大インポスター陣営役職数</t>
-  </si>
-  <si>
-    <t>最多内鬼职业数</t>
-  </si>
-  <si>
-    <t>ModifierCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Modifier Roles</t>
-  </si>
-  <si>
-    <t>最小属性役職数</t>
-  </si>
-  <si>
-    <t>最少附加职业数</t>
-  </si>
-  <si>
-    <t>ModifierCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Modifier Roles</t>
-  </si>
-  <si>
-    <t>最大属性役職数</t>
-  </si>
-  <si>
-    <t>最多附加职业数</t>
-  </si>
-  <si>
-    <t>MaxNumberOfMeetings</t>
-  </si>
-  <si>
-    <t>Maximum Can Emergency Meetings</t>
-  </si>
-  <si>
-    <t>緊急会議の最大回数</t>
-  </si>
-  <si>
-    <t>召开紧急会议最多次数</t>
-  </si>
-  <si>
-    <t>BlockSkip</t>
-  </si>
-  <si>
-    <t>Can't Skip Vote</t>
-  </si>
-  <si>
-    <t>スキップ投票禁止</t>
-  </si>
-  <si>
-    <t>禁止弃票</t>
-  </si>
-  <si>
-    <t>NoVoteIsSelfVote</t>
-  </si>
-  <si>
-    <t>Can't Self Vote</t>
-  </si>
-  <si>
-    <t>自投票禁止</t>
-  </si>
-  <si>
-    <t>禁止自票</t>
-  </si>
-  <si>
-    <t>NoMedBayLimit</t>
-  </si>
-  <si>
-    <t>Can Simultaneous Progress Med Bay Scan</t>
-  </si>
-  <si>
-    <t>医務室のスキャンタスクを同時に進行できる</t>
-  </si>
-  <si>
-    <t>允许同时进行扫描</t>
-  </si>
-  <si>
-    <t>HideOutName</t>
-  </si>
-  <si>
-    <t>NameTag doesn't Cross the Wall</t>
-  </si>
-  <si>
-    <t>ネームタグの壁抜けを防止</t>
-  </si>
-  <si>
-    <t>玩家名字不会穿过墙壁</t>
-  </si>
-  <si>
-    <t>RefundVoteDeath</t>
-  </si>
-  <si>
-    <t>Refund Votes on Death Player</t>
-  </si>
-  <si>
-    <t>投票先が死亡した時、再投票可</t>
-  </si>
-  <si>
-    <t>若投票的人在会议时死亡可再次投票</t>
-  </si>
-  <si>
-    <t>EnableGodMira</t>
-  </si>
-  <si>
-    <t>Enable God MiraHQ</t>
-  </si>
-  <si>
-    <t>神ラを有効にする</t>
-  </si>
-  <si>
-    <t>启用 God MiraHQ</t>
-  </si>
-  <si>
-    <t>MirrorMap</t>
-  </si>
-  <si>
-    <t>Enable Mirror Maps</t>
-  </si>
-  <si>
-    <t>反転マップを有効化</t>
-  </si>
-  <si>
-    <t>启用镜像地图</t>
-  </si>
-  <si>
-    <t>DieZoom</t>
-  </si>
-  <si>
-    <t>Can Zoom Out If you died</t>
-  </si>
-  <si>
-    <t>死亡時、ズームアウトできる</t>
-  </si>
-  <si>
-    <t>死后获得千里眼</t>
-  </si>
-  <si>
-    <t>PlayRandomMaps</t>
-  </si>
-  <si>
-    <t>Enable Random Maps</t>
-  </si>
-  <si>
-    <t>ランダムマップモード</t>
-  </si>
-  <si>
-    <t>随机游玩地图</t>
-  </si>
-  <si>
-    <t>RandomMapsEnableSkeld</t>
-  </si>
-  <si>
-    <t>The Skeld</t>
-  </si>
-  <si>
-    <t>可随机到 The Skled</t>
-  </si>
-  <si>
-    <t>RandomMapsEnableMira</t>
-  </si>
-  <si>
-    <t>MiraHQ</t>
-  </si>
-  <si>
-    <t>可随机到 Mira HQ</t>
-  </si>
-  <si>
-    <t>RandomMapsEnablePolus</t>
-  </si>
-  <si>
-    <t>Polus</t>
-  </si>
-  <si>
-    <t>可随机到 Polus</t>
-  </si>
-  <si>
-    <t>RandomMapsEnableAirShip</t>
-  </si>
-  <si>
-    <t>AirShip</t>
-  </si>
-  <si>
-    <t>可随机到 Airship</t>
-  </si>
-  <si>
-    <t>RandomMapsEnableSubmerged</t>
-  </si>
-  <si>
-    <t>Submerged</t>
-  </si>
-  <si>
-    <t>可随机到 Submerged</t>
-  </si>
-  <si>
-    <t>RestrictDevices</t>
-  </si>
-  <si>
-    <t>Restrict Special Devices</t>
-  </si>
-  <si>
-    <t>特殊装置の制限</t>
-  </si>
-  <si>
-    <t>限制特殊装置可使用时间</t>
-  </si>
-  <si>
-    <t>DisableAdmin</t>
-  </si>
-  <si>
-    <t>Restrict Admin Table</t>
-  </si>
-  <si>
-    <t>アドミンの制限時間</t>
-  </si>
-  <si>
-    <t>管理室地图使用时间</t>
-  </si>
-  <si>
-    <t>DisableCameras</t>
-  </si>
-  <si>
-    <t>Restrict Security Devices</t>
-  </si>
-  <si>
-    <t>カメラの制限時間</t>
-  </si>
-  <si>
-    <t>限制监控使用时间</t>
-  </si>
-  <si>
-    <t>DisableVitals</t>
-  </si>
-  <si>
-    <t>Restrict Vitals Panel</t>
-  </si>
-  <si>
-    <t>バイタルの制限時間</t>
-  </si>
-  <si>
-    <t>限制生命检测装置使用时间</t>
-  </si>
-  <si>
-    <t>RestrictPerTurn</t>
-  </si>
-  <si>
-    <t>Time Per Round</t>
-  </si>
-  <si>
-    <t>ターン毎</t>
-  </si>
-  <si>
-    <t>每轮行动阶段的限制时间时间</t>
-  </si>
-  <si>
-    <t>RestrictPerGame</t>
-  </si>
-  <si>
-    <t>Time Per Game</t>
-  </si>
-  <si>
-    <t>試合毎</t>
-  </si>
-  <si>
-    <t>每局游戏的限制时间</t>
-  </si>
-  <si>
-    <t>AirShipSettings</t>
-  </si>
-  <si>
-    <t>AirShipの設定</t>
-  </si>
-  <si>
-    <t>飞艇地图设定</t>
-  </si>
-  <si>
-    <t>OldAirShipAdmin</t>
-  </si>
-  <si>
-    <t>Old AirShip Admin System</t>
-  </si>
-  <si>
-    <t>旧AirShipアドミン仕様</t>
-  </si>
-  <si>
-    <t>使用旧版飞艇管理室地图</t>
-  </si>
-  <si>
-    <t>EnableRecordsAdmin</t>
-  </si>
-  <si>
-    <t>Enable Archive Admin</t>
-  </si>
-  <si>
-    <t>アーカイブのアドミン有効化</t>
-  </si>
-  <si>
-    <t>启用位于档案室的地图</t>
-  </si>
-  <si>
-    <t>EnableCockpitAdmin</t>
-  </si>
-  <si>
-    <t>Enable Cockpit Admin</t>
-  </si>
-  <si>
-    <t>コックピットのアドミン有効化</t>
-  </si>
-  <si>
-    <t>启用位于驾驶舱的地图</t>
-  </si>
-  <si>
-    <t>AirShipReactorDuration</t>
-  </si>
-  <si>
-    <t>AirShip Reactor Duration</t>
-  </si>
-  <si>
-    <t>AirShip昇降機制限時間</t>
-  </si>
-  <si>
-    <t>飞艇地图调整航线破坏限制时间</t>
-  </si>
-  <si>
-    <t>RoleNumAssigned</t>
-  </si>
-  <si>
-    <t>Role Counts</t>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
-    <t>可存在数量</t>
-  </si>
-  <si>
-    <t>MaxShots</t>
-  </si>
-  <si>
-    <t>Max Shots</t>
-  </si>
-  <si>
-    <t>撃てる最大数</t>
-  </si>
-  <si>
-    <t>警长最多击杀次数</t>
-  </si>
-  <si>
-    <t>CanKillNeutral</t>
-  </si>
-  <si>
-    <t>Can Kill Neutral</t>
-  </si>
-  <si>
-    <t>第三陣営を殺せる</t>
-  </si>
-  <si>
-    <t>警长可以击杀独立阵营玩家</t>
-  </si>
-  <si>
-    <t>KillCooldowns</t>
-  </si>
-  <si>
-    <t>Kill Cooldowns</t>
-  </si>
-  <si>
-    <t>キルクール</t>
-  </si>
-  <si>
-    <t>警长击杀冷却</t>
-  </si>
-  <si>
-    <t>MisfireKillsTarget</t>
-  </si>
-  <si>
-    <t>Misfire Kills Target</t>
-  </si>
-  <si>
-    <t>ミスでも相手を道連れにする</t>
-  </si>
-  <si>
-    <t>警长误杀好人时连带目标</t>
-  </si>
-  <si>
-    <t>CanSabotage</t>
-  </si>
-  <si>
-    <t>Can Sabotage</t>
-  </si>
-  <si>
-    <t>サボタージュができる</t>
-  </si>
-  <si>
-    <t>自定义内鬼可以破坏</t>
-  </si>
-  <si>
-    <t>CanUseVents</t>
-  </si>
-  <si>
-    <t>Can Use Vents</t>
-  </si>
-  <si>
-    <t>ベントが使える</t>
-  </si>
-  <si>
-    <t>自定义内鬼可以使用管道</t>
-  </si>
-  <si>
-    <t>CanEmergencyMeeting</t>
-  </si>
-  <si>
-    <t>Can Emergency Meeting</t>
-  </si>
-  <si>
-    <t>緊急会議を開ける</t>
-  </si>
-  <si>
-    <t>自定义内鬼可以召开紧急会议</t>
-  </si>
-  <si>
-    <t>HasImpostorVision</t>
-  </si>
-  <si>
-    <t>Has Impostor Vision</t>
-  </si>
-  <si>
-    <t>インポスターの視界を持つ</t>
-  </si>
-  <si>
-    <t>自定义内鬼拥有内鬼视野</t>
-  </si>
-  <si>
-    <t>JesterMustFinishTasks</t>
-  </si>
-  <si>
-    <t>Must Finish Tasks</t>
-  </si>
-  <si>
-    <t>タスクを終了する必要がある</t>
-  </si>
-  <si>
-    <t>小丑需要完成任务才能获胜</t>
-  </si>
-  <si>
-    <t>EngineerCanFixSabo</t>
-  </si>
-  <si>
-    <t>Can Fix Sabotage with Button</t>
-  </si>
-  <si>
-    <t>ボタンでサボタージュを直せる</t>
-  </si>
-  <si>
-    <t>工程师可以修理破坏</t>
-  </si>
-  <si>
-    <t>EngineerSaboFixCount</t>
-  </si>
-  <si>
-    <t>Fix Count</t>
-  </si>
-  <si>
-    <t>直せる回数</t>
-  </si>
-  <si>
-    <t>工程师可修理次数</t>
-  </si>
-  <si>
-    <t>UnderTakerButtonCooldown</t>
-  </si>
-  <si>
-    <t>Move Cooldown</t>
-  </si>
-  <si>
-    <t>運ぶクールダウン</t>
-  </si>
-  <si>
-    <t>送葬者拖曳尸体冷却</t>
-  </si>
-  <si>
-    <t>UnderTakerHasDuration</t>
-  </si>
-  <si>
-    <t>Has Duration Time</t>
-  </si>
-  <si>
-    <t>運ぶ制限時間を持つ</t>
-  </si>
-  <si>
-    <t>限制送葬者拖曳尸体的时间</t>
-  </si>
-  <si>
-    <t>UnderTakerDuration</t>
-  </si>
-  <si>
-    <t>Duration Time</t>
-  </si>
-  <si>
-    <t>運ぶ制限時間</t>
-  </si>
-  <si>
-    <t>送葬者拖曳尸体的最大时间</t>
-  </si>
-  <si>
-    <t>UnderTakerDraggingSpeed</t>
-  </si>
-  <si>
-    <t>Dragging Speed</t>
-  </si>
-  <si>
-    <t>運ぶときの足の速さ</t>
-  </si>
-  <si>
-    <t>送葬者拖曳尸体时的速度</t>
-  </si>
-  <si>
-    <t>UnderTakerCanDumpDeadBodyInVent</t>
-  </si>
-  <si>
-    <t>Can Dump Body in Vent</t>
-  </si>
-  <si>
-    <t>ベントに死体を捨てることができる</t>
-  </si>
-  <si>
-    <t>送葬者可以将尸体抛弃在管道</t>
-  </si>
-  <si>
-    <t>ReamingShots</t>
-  </si>
-  <si>
-    <t>Shots: {0}</t>
-  </si>
-  <si>
-    <t>残り {0}発</t>
-  </si>
-  <si>
-    <t>剩余次数：{0}</t>
-  </si>
-  <si>
-    <t>ReamingCount</t>
-  </si>
-  <si>
-    <t>Reaming: {0}</t>
-  </si>
-  <si>
-    <t>残り {0}回</t>
-  </si>
-  <si>
-    <t>剩余回数：{0}</t>
-  </si>
-  <si>
-    <t>EngineerRepairButtonText</t>
-  </si>
-  <si>
-    <t>Repair</t>
-  </si>
-  <si>
-    <t>直す</t>
-  </si>
-  <si>
-    <t>维修</t>
-  </si>
-  <si>
-    <t>UnderTakerDropText</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>置く</t>
-  </si>
-  <si>
-    <t>放下</t>
-  </si>
-  <si>
-    <t>UnderTakerDragText</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>掴む</t>
-  </si>
-  <si>
-    <t>拖曳</t>
-  </si>
-  <si>
-    <t>&lt;size=100%&gt;{0} 还能召开
-&lt;color=red&gt;{1}次会议 .所有人还能召开 {2} 次&lt;/color&gt;
-紧急会议.&lt;/size&gt;</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>更新完成。
-请退出游戏，
-并再次启动。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>无法自动更新。
-请尝试手动更新。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>目前不需要更新。
-已更新至最新版本。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>房主没有极限职业模组或模组版本不同\n您将在{0}秒后被踢出</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>极限职业模组版本较新</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>极限职业模组版本较旧</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>你可以移动到尸体任何地方。
-悄无声息的隐藏尸体并杀死所有人。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>拖动并隐藏尸体</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>自定义内鬼的各项内鬼功能可以自由配置。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>你的能力由房间设置决定</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>工程师存活时每局游戏可以在任何位置修理若干次飞船破坏。
-工程师可以使用管道。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>维修飞船上的重要设备</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>警长拥有击杀内鬼的能力。
-如果警长试图击杀一名船员，他会以死谢罪。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>干掉&lt;color=#FF1919FF&gt;内鬼&lt;/color&gt;</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>小丑属于独立阵营。如果小丑在会议中被投出，小丑单独获胜。
-小丑不会被内鬼击杀。</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>想办法被投出去</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>想</t>
     </r>
     <r>
@@ -1831,53 +976,904 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>法被投出去</t>
     </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t>普通船</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>员</t>
-    </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>&lt;align="center"&gt;制作者：
-DekoKiyo
-&lt;/align&gt;</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>&lt;align="center"&gt;&lt;size=120%&gt;Reference Mod&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
-&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt; from Eisbison
-&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt; from tomarai
-&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt; from Dusk
-&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt; from Haoming
-&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt; from Yoppy
-&lt;color=#ffffff&gt;Town of Plus&lt;/color&gt; from tugaru1975
-&lt;color=#4169e1&gt;Town of Super&lt;/color&gt; from reitou-mugicha
-&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt; from eDonnes124
-&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt; from TeamToI
-&lt;color=#ffffff&gt;Las Monjas&lt;/color&gt; from KiraYamato94
-&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt; from yukieiji
-&lt;color=#00bfff&gt;TownOfHost&lt;/color&gt; from Empty Bottle
-&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt; from Dolly
-&lt;/size&gt;</t>
-    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>JesterShort</t>
+  </si>
+  <si>
+    <t>想办法被投出去</t>
+  </si>
+  <si>
+    <t>JesterFull</t>
+  </si>
+  <si>
+    <t>Get out of here to win.
+Not to be killed by &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>追放されれば勝利。
+&lt;color=#FF1919FF&gt;インポスター&lt;/color&gt;などに殺されないようにしよう。</t>
+  </si>
+  <si>
+    <t>小丑属于独立阵营。如果小丑在会议中被投出，小丑单独获胜。
+小丑不会被内鬼击杀。</t>
+  </si>
+  <si>
+    <t>SheriffIntro</t>
+  </si>
+  <si>
+    <t>Shoot the &lt;color=#FF1919FF&gt;Impostors&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF1919FF&gt;インポスターたち&lt;/color&gt;を撃ち抜け</t>
+  </si>
+  <si>
+    <t>干掉&lt;color=#FF1919FF&gt;内鬼&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>SheriffShort</t>
+  </si>
+  <si>
+    <t>SheriffFull</t>
+  </si>
+  <si>
+    <t>警长拥有击杀内鬼的能力。
+如果警长试图击杀一名船员，他会以死谢罪。</t>
+  </si>
+  <si>
+    <t>EngineerIntro</t>
+  </si>
+  <si>
+    <t>Let's Maintenance.</t>
+  </si>
+  <si>
+    <t>メンテナンスを欠かすな</t>
+  </si>
+  <si>
+    <t>维修飞船上的重要设备</t>
+  </si>
+  <si>
+    <t>EngineerShort</t>
+  </si>
+  <si>
+    <t>修理飞船</t>
+  </si>
+  <si>
+    <t>EngineerFull</t>
+  </si>
+  <si>
+    <t>You can repair Sabotage with button and
+enter vents.</t>
+  </si>
+  <si>
+    <t>サボタージュを直したり、ベントに入ることができる。</t>
+  </si>
+  <si>
+    <t>工程师存活时每局游戏可以在任何位置修理若干次飞船破坏。
+工程师可以使用管道。</t>
+  </si>
+  <si>
+    <t>CustomImpostorIntro</t>
+  </si>
+  <si>
+    <t>I was customized!</t>
+  </si>
+  <si>
+    <t>改造されてしまった！</t>
+  </si>
+  <si>
+    <t>你的能力由房间设置决定</t>
+  </si>
+  <si>
+    <t>CustomImpostorShort</t>
+  </si>
+  <si>
+    <t>CustomImpostorFull</t>
+  </si>
+  <si>
+    <t>This is an individually configurable crook.</t>
+  </si>
+  <si>
+    <t>個別の設定が可能なインポスター</t>
+  </si>
+  <si>
+    <t>自定义内鬼的各项内鬼功能可以自由配置。</t>
+  </si>
+  <si>
+    <t>UnderTakerIntro</t>
+  </si>
+  <si>
+    <t>Kill and Move DeadBody</t>
+  </si>
+  <si>
+    <t>死体を運べ</t>
+  </si>
+  <si>
+    <t>拖动并隐藏尸体</t>
+  </si>
+  <si>
+    <t>UnderTakerShort</t>
+  </si>
+  <si>
+    <t>UnderTakerFull</t>
+  </si>
+  <si>
+    <t>You can Move Dead Body anywere.
+Hide Dead Bodies and Kill Everyone.</t>
+  </si>
+  <si>
+    <t>死体をどこへでも動かすことができる。
+死体を隠して全員を殺そう。</t>
+  </si>
+  <si>
+    <t>你可以移动到尸体任何地方。
+悄无声息的隐藏尸体并杀死所有人。</t>
+  </si>
+  <si>
+    <t>ChangePage</t>
+  </si>
+  <si>
+    <t>Press &lt; &gt; for Change Pages,</t>
+  </si>
+  <si>
+    <t>&lt; &gt;でページを変更</t>
+  </si>
+  <si>
+    <t>按 &lt; &gt; 以便查看其他内容</t>
+  </si>
+  <si>
+    <t>ActivateRoles</t>
+  </si>
+  <si>
+    <t>Activate Mod Roles</t>
+  </si>
+  <si>
+    <t>Mod役職有効化</t>
+  </si>
+  <si>
+    <t>启用模组职业</t>
+  </si>
+  <si>
+    <t>PresetSelection</t>
+  </si>
+  <si>
+    <t>Preset</t>
+  </si>
+  <si>
+    <t>プリセット</t>
+  </si>
+  <si>
+    <t>预设</t>
+  </si>
+  <si>
+    <t>RandomGen</t>
+  </si>
+  <si>
+    <t>Random Generator</t>
+  </si>
+  <si>
+    <t>強力な乱数生成機</t>
+  </si>
+  <si>
+    <t>启用强随机生成模式</t>
+  </si>
+  <si>
+    <t>CrewmateRoles</t>
+  </si>
+  <si>
+    <t>クルーメイト陣営役職</t>
+  </si>
+  <si>
+    <t>船员职业数</t>
+  </si>
+  <si>
+    <t>NeutralRoles</t>
+  </si>
+  <si>
+    <t>独立职业数</t>
+  </si>
+  <si>
+    <t>ImpostorRoles</t>
+  </si>
+  <si>
+    <t>インポスター陣営役職</t>
+  </si>
+  <si>
+    <t>内鬼职业数</t>
+  </si>
+  <si>
+    <t>ModifierRoles</t>
+  </si>
+  <si>
+    <t>属性陣営役職</t>
+  </si>
+  <si>
+    <t>附加职业数</t>
+  </si>
+  <si>
+    <t>RememberClassic</t>
+  </si>
+  <si>
+    <t>Remember the Past</t>
+  </si>
+  <si>
+    <t>過去を思い出す</t>
+  </si>
+  <si>
+    <t>载入上次游戏的设置</t>
+  </si>
+  <si>
+    <t>CrewmateRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Crewmate Roles</t>
+  </si>
+  <si>
+    <t>最小クルーメイト陣営役職数</t>
+  </si>
+  <si>
+    <t>最少船员职业数</t>
+  </si>
+  <si>
+    <t>CrewmateRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Crewmate Roles</t>
+  </si>
+  <si>
+    <t>最大クルーメイト陣営役職数</t>
+  </si>
+  <si>
+    <t>最多船员职业数</t>
+  </si>
+  <si>
+    <t>NeutralRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Neutral Roles</t>
+  </si>
+  <si>
+    <t>最小第三陣営役職数</t>
+  </si>
+  <si>
+    <t>最少独立职业数</t>
+  </si>
+  <si>
+    <t>NeutralRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Neutral Roles</t>
+  </si>
+  <si>
+    <t>最大第三陣営役職数</t>
+  </si>
+  <si>
+    <t>最多独立职业数</t>
+  </si>
+  <si>
+    <t>ImpostorRolesCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Impostor Roles</t>
+  </si>
+  <si>
+    <t>最小インポスター陣営役職数</t>
+  </si>
+  <si>
+    <t>最少内鬼职业数</t>
+  </si>
+  <si>
+    <t>ImpostorRolesCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Impostor Roles</t>
+  </si>
+  <si>
+    <t>最大インポスター陣営役職数</t>
+  </si>
+  <si>
+    <t>最多内鬼职业数</t>
+  </si>
+  <si>
+    <t>ModifierCountMin</t>
+  </si>
+  <si>
+    <t>Minimum Modifier Roles</t>
+  </si>
+  <si>
+    <t>最小属性役職数</t>
+  </si>
+  <si>
+    <t>最少附加职业数</t>
+  </si>
+  <si>
+    <t>ModifierCountMax</t>
+  </si>
+  <si>
+    <t>Maximum Modifier Roles</t>
+  </si>
+  <si>
+    <t>最大属性役職数</t>
+  </si>
+  <si>
+    <t>最多附加职业数</t>
+  </si>
+  <si>
+    <t>MaxNumberOfMeetings</t>
+  </si>
+  <si>
+    <t>Maximum Can Emergency Meetings</t>
+  </si>
+  <si>
+    <t>緊急会議の最大回数</t>
+  </si>
+  <si>
+    <t>最大紧急会议次数</t>
+  </si>
+  <si>
+    <t>BlockSkip</t>
+  </si>
+  <si>
+    <t>Can't Skip Vote</t>
+  </si>
+  <si>
+    <t>スキップ投票禁止</t>
+  </si>
+  <si>
+    <t>禁止弃票</t>
+  </si>
+  <si>
+    <t>NoVoteIsSelfVote</t>
+  </si>
+  <si>
+    <t>Can't Self Vote</t>
+  </si>
+  <si>
+    <t>自投票禁止</t>
+  </si>
+  <si>
+    <t>禁止自票</t>
+  </si>
+  <si>
+    <t>NoMedBayLimit</t>
+  </si>
+  <si>
+    <t>Can Simultaneous Progress Med Bay Scan</t>
+  </si>
+  <si>
+    <t>医務室のスキャンタスクを同時に進行できる</t>
+  </si>
+  <si>
+    <t>允许同时进行扫描</t>
+  </si>
+  <si>
+    <t>HideOutName</t>
+  </si>
+  <si>
+    <t>NameTag doesn't Cross the Wall</t>
+  </si>
+  <si>
+    <t>ネームタグの壁抜けを防止</t>
+  </si>
+  <si>
+    <t>玩家名字不会穿过墙壁</t>
+  </si>
+  <si>
+    <t>RefundVoteDeath</t>
+  </si>
+  <si>
+    <t>Refund Votes on Death Player</t>
+  </si>
+  <si>
+    <t>投票先が死亡した時、再投票可</t>
+  </si>
+  <si>
+    <t>若投票的人在会议时死亡可再次投票</t>
+  </si>
+  <si>
+    <t>EnableGodMira</t>
+  </si>
+  <si>
+    <t>Enable God MiraHQ</t>
+  </si>
+  <si>
+    <t>神ラを有効にする</t>
+  </si>
+  <si>
+    <t>启用 God MiraHQ</t>
+  </si>
+  <si>
+    <t>MirrorMap</t>
+  </si>
+  <si>
+    <t>Enable Mirror Maps</t>
+  </si>
+  <si>
+    <t>反転マップを有効化</t>
+  </si>
+  <si>
+    <t>启用镜像地图</t>
+  </si>
+  <si>
+    <t>DieZoom</t>
+  </si>
+  <si>
+    <t>Can Zoom Out If you died</t>
+  </si>
+  <si>
+    <t>死亡時、ズームアウトできる</t>
+  </si>
+  <si>
+    <t>死后获得千里眼</t>
+  </si>
+  <si>
+    <t>PlayRandomMaps</t>
+  </si>
+  <si>
+    <t>Enable Random Maps</t>
+  </si>
+  <si>
+    <t>ランダムマップモード</t>
+  </si>
+  <si>
+    <t>随机游玩地图</t>
+  </si>
+  <si>
+    <t>RandomMapsEnableSkeld</t>
+  </si>
+  <si>
+    <t>The Skeld</t>
+  </si>
+  <si>
+    <t>可随机到 The Skled</t>
+  </si>
+  <si>
+    <t>RandomMapsEnableMira</t>
+  </si>
+  <si>
+    <t>MiraHQ</t>
+  </si>
+  <si>
+    <t>可随机到 Mira HQ</t>
+  </si>
+  <si>
+    <t>RandomMapsEnablePolus</t>
+  </si>
+  <si>
+    <t>Polus</t>
+  </si>
+  <si>
+    <t>可随机到 Polus</t>
+  </si>
+  <si>
+    <t>RandomMapsEnableAirShip</t>
+  </si>
+  <si>
+    <t>AirShip</t>
+  </si>
+  <si>
+    <t>可随机到 Airship</t>
+  </si>
+  <si>
+    <t>RandomMapsEnableSubmerged</t>
+  </si>
+  <si>
+    <t>Submerged</t>
+  </si>
+  <si>
+    <t>可随机到 Submerged</t>
+  </si>
+  <si>
+    <t>RestrictDevices</t>
+  </si>
+  <si>
+    <t>Restrict Special Devices</t>
+  </si>
+  <si>
+    <t>特殊装置の制限</t>
+  </si>
+  <si>
+    <t>限制特殊装置可使用时间</t>
+  </si>
+  <si>
+    <t>DisableAdmin</t>
+  </si>
+  <si>
+    <t>Restrict Admin Table</t>
+  </si>
+  <si>
+    <t>アドミンの制限時間</t>
+  </si>
+  <si>
+    <t>管理室地图使用时间</t>
+  </si>
+  <si>
+    <t>DisableCameras</t>
+  </si>
+  <si>
+    <t>Restrict Security Devices</t>
+  </si>
+  <si>
+    <t>カメラの制限時間</t>
+  </si>
+  <si>
+    <t>限制监控使用时间</t>
+  </si>
+  <si>
+    <t>DisableVitals</t>
+  </si>
+  <si>
+    <t>Restrict Vitals Panel</t>
+  </si>
+  <si>
+    <t>バイタルの制限時間</t>
+  </si>
+  <si>
+    <t>限制生命检测装置使用时间</t>
+  </si>
+  <si>
+    <t>RestrictPerTurn</t>
+  </si>
+  <si>
+    <t>Time Per Round</t>
+  </si>
+  <si>
+    <t>ターン毎</t>
+  </si>
+  <si>
+    <t>每轮行动阶段的限制时间时间</t>
+  </si>
+  <si>
+    <t>RestrictPerGame</t>
+  </si>
+  <si>
+    <t>Time Per Game</t>
+  </si>
+  <si>
+    <t>試合毎</t>
+  </si>
+  <si>
+    <t>每局游戏的限制时间</t>
+  </si>
+  <si>
+    <t>AirShipSettings</t>
+  </si>
+  <si>
+    <t>AirShipの設定</t>
+  </si>
+  <si>
+    <t>飞艇地图设定</t>
+  </si>
+  <si>
+    <t>OldAirShipAdmin</t>
+  </si>
+  <si>
+    <t>Old AirShip Admin System</t>
+  </si>
+  <si>
+    <t>旧AirShipアドミン仕様</t>
+  </si>
+  <si>
+    <t>使用旧版飞艇管理室地图</t>
+  </si>
+  <si>
+    <t>EnableRecordsAdmin</t>
+  </si>
+  <si>
+    <t>Enable Archive Admin</t>
+  </si>
+  <si>
+    <t>アーカイブのアドミン有効化</t>
+  </si>
+  <si>
+    <t>启用位于档案室的地图</t>
+  </si>
+  <si>
+    <t>EnableCockpitAdmin</t>
+  </si>
+  <si>
+    <t>Enable Cockpit Admin</t>
+  </si>
+  <si>
+    <t>コックピットのアドミン有効化</t>
+  </si>
+  <si>
+    <t>启用位于驾驶舱的地图</t>
+  </si>
+  <si>
+    <t>AirShipReactorDuration</t>
+  </si>
+  <si>
+    <t>AirShip Reactor Duration</t>
+  </si>
+  <si>
+    <t>AirShip昇降機制限時間</t>
+  </si>
+  <si>
+    <t>飞艇地图调整航线破坏限制时间</t>
+  </si>
+  <si>
+    <t>RoleNumAssigned</t>
+  </si>
+  <si>
+    <t>Role Counts</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>可存在数量</t>
+  </si>
+  <si>
+    <t>MaxShots</t>
+  </si>
+  <si>
+    <t>Max Shots</t>
+  </si>
+  <si>
+    <t>撃てる最大数</t>
+  </si>
+  <si>
+    <t>最多击杀次数</t>
+  </si>
+  <si>
+    <t>CanKillNeutral</t>
+  </si>
+  <si>
+    <t>Can Kill Neutral</t>
+  </si>
+  <si>
+    <t>第三陣営を殺せる</t>
+  </si>
+  <si>
+    <t>可以击杀独立阵营玩家</t>
+  </si>
+  <si>
+    <t>KillCooldowns</t>
+  </si>
+  <si>
+    <t>Kill Cooldowns</t>
+  </si>
+  <si>
+    <t>キルクール</t>
+  </si>
+  <si>
+    <t>击杀冷却</t>
+  </si>
+  <si>
+    <t>MisfireKillsTarget</t>
+  </si>
+  <si>
+    <t>Misfire Kills Target</t>
+  </si>
+  <si>
+    <t>ミスでも相手を道連れにする</t>
+  </si>
+  <si>
+    <t>走火时连带目标一同死亡</t>
+  </si>
+  <si>
+    <t>CanSabotage</t>
+  </si>
+  <si>
+    <t>Can Sabotage</t>
+  </si>
+  <si>
+    <t>サボタージュができる</t>
+  </si>
+  <si>
+    <t>可以破坏</t>
+  </si>
+  <si>
+    <t>CanUseVents</t>
+  </si>
+  <si>
+    <t>Can Use Vents</t>
+  </si>
+  <si>
+    <t>ベントが使える</t>
+  </si>
+  <si>
+    <t>可以使用管道</t>
+  </si>
+  <si>
+    <t>CanEmergencyMeeting</t>
+  </si>
+  <si>
+    <t>Can Emergency Meeting</t>
+  </si>
+  <si>
+    <t>緊急会議を開ける</t>
+  </si>
+  <si>
+    <t>可以召开紧急会议</t>
+  </si>
+  <si>
+    <t>HasImpostorVision</t>
+  </si>
+  <si>
+    <t>Has Impostor Vision</t>
+  </si>
+  <si>
+    <t>インポスターの視界を持つ</t>
+  </si>
+  <si>
+    <t>拥有内鬼视野</t>
+  </si>
+  <si>
+    <t>JesterMustFinishTasks</t>
+  </si>
+  <si>
+    <t>Must Finish Tasks</t>
+  </si>
+  <si>
+    <t>タスクを終了する必要がある</t>
+  </si>
+  <si>
+    <t>小丑需要完成任务才能获胜</t>
+  </si>
+  <si>
+    <t>EngineerCanFixSabo</t>
+  </si>
+  <si>
+    <t>Can Fix Sabotage with Button</t>
+  </si>
+  <si>
+    <t>ボタンでサボタージュを直せる</t>
+  </si>
+  <si>
+    <t>工程师可以修理破坏</t>
+  </si>
+  <si>
+    <t>EngineerSaboFixCount</t>
+  </si>
+  <si>
+    <t>Fix Count</t>
+  </si>
+  <si>
+    <t>直せる回数</t>
+  </si>
+  <si>
+    <t>工程师可修理次数</t>
+  </si>
+  <si>
+    <t>UnderTakerButtonCooldown</t>
+  </si>
+  <si>
+    <t>Move Cooldown</t>
+  </si>
+  <si>
+    <t>運ぶクールダウン</t>
+  </si>
+  <si>
+    <t>送葬者拖曳尸体冷却</t>
+  </si>
+  <si>
+    <t>UnderTakerHasDuration</t>
+  </si>
+  <si>
+    <t>Has Duration Time</t>
+  </si>
+  <si>
+    <t>運ぶ制限時間を持つ</t>
+  </si>
+  <si>
+    <t>限制送葬者拖曳尸体的时间</t>
+  </si>
+  <si>
+    <t>UnderTakerDuration</t>
+  </si>
+  <si>
+    <t>Duration Time</t>
+  </si>
+  <si>
+    <t>運ぶ制限時間</t>
+  </si>
+  <si>
+    <t>送葬者拖曳尸体的最大时间</t>
+  </si>
+  <si>
+    <t>UnderTakerDraggingSpeed</t>
+  </si>
+  <si>
+    <t>Dragging Speed</t>
+  </si>
+  <si>
+    <t>運ぶときの足の速さ</t>
+  </si>
+  <si>
+    <t>送葬者拖曳尸体时的速度</t>
+  </si>
+  <si>
+    <t>UnderTakerCanDumpDeadBodyInVent</t>
+  </si>
+  <si>
+    <t>Can Dump Body in Vent</t>
+  </si>
+  <si>
+    <t>ベントに死体を捨てることができる</t>
+  </si>
+  <si>
+    <t>送葬者可以将尸体抛弃在管道</t>
+  </si>
+  <si>
+    <t>ReamingShots</t>
+  </si>
+  <si>
+    <t>Shots: {0}</t>
+  </si>
+  <si>
+    <t>残り {0}発</t>
+  </si>
+  <si>
+    <t>剩余次数：{0}</t>
+  </si>
+  <si>
+    <t>ReamingCount</t>
+  </si>
+  <si>
+    <t>Reaming: {0}</t>
+  </si>
+  <si>
+    <t>残り {0}回</t>
+  </si>
+  <si>
+    <t>剩余回数：{0}</t>
+  </si>
+  <si>
+    <t>EngineerRepairButtonText</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>直す</t>
+  </si>
+  <si>
+    <t>维修</t>
+  </si>
+  <si>
+    <t>UnderTakerDropText</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>置く</t>
+  </si>
+  <si>
+    <t>放下</t>
+  </si>
+  <si>
+    <t>UnderTakerDragText</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>掴む</t>
+  </si>
+  <si>
+    <t>拖曳</t>
+  </si>
+  <si>
+    <t>房主没有极限职业模组或模组版本不同
+您将在{0}秒后被踢出</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>&lt;color=#00a2ff&gt;ホストがUltimateModsを導入していないかバージョンが違います。
+バグ防止のため、あなたはあと{0}秒でキックされます。&lt;/color&gt;</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ErrorHostNoVersion</t>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <r>
@@ -1893,7 +1889,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>ykundesu</t>
@@ -1920,7 +1916,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="游ゴシック"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="128"/>
       </rPr>
       <t>Empty Bottle</t>
@@ -1937,38 +1933,14 @@
 Dolly 创作的&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt;
 中文翻译：&lt;color=#ff0000&gt;四个憨批汉化组 旧事 氢氧则名&lt;/color&gt;&lt;/size&gt;</t>
     </r>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>BountyHunterSuccess</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>BountyHunterMiss</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>BountyHunterDuration</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>BountyHunterShowArrow</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>BountyHunterArrowUpdateCooldown</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>Success KillCooldown</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2007,22 +1979,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2039,8 +1997,15 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2064,7 +2029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2096,21 +2061,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
@@ -2389,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2820,7 +2781,7 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2829,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3135,7 +3096,7 @@
       <c r="M21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="O21" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3149,7 +3110,7 @@
       <c r="M22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3239,7 +3200,7 @@
       <c r="M30" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="O30" s="19" t="s">
+      <c r="O30" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3257,7 +3218,7 @@
         <v>110</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>556</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
@@ -3265,100 +3226,100 @@
     </row>
     <row r="34" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>559</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>558</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>557</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>557</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>558</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
@@ -3366,30 +3327,30 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
@@ -3400,72 +3361,72 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O48" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
@@ -3473,30 +3434,30 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O52" s="12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
@@ -3504,27 +3465,27 @@
     </row>
     <row r="54" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O54" s="10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="409.5" x14ac:dyDescent="0.4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="408.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>576</v>
+        <v>169</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O55" s="10" t="s">
         <v>577</v>
@@ -3532,16 +3493,16 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
@@ -3561,10 +3522,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -3577,10 +3538,10 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
@@ -3601,10 +3562,10 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -3617,38 +3578,38 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="8" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
@@ -3658,16 +3619,16 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
@@ -3675,72 +3636,72 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.4">
@@ -3749,72 +3710,72 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>562</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="O74" s="17" t="s">
-        <v>561</v>
+        <v>226</v>
+      </c>
+      <c r="O74" s="15" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.4">
-      <c r="A76" s="2" t="s">
-        <v>224</v>
+      <c r="A76" s="19" t="s">
+        <v>576</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M76" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="O76" s="12" t="s">
-        <v>560</v>
+        <v>232</v>
+      </c>
+      <c r="M76" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="O76" s="10" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.4">
@@ -3956,7 +3917,7 @@
       <c r="M115" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
 </worksheet>
@@ -3966,7 +3927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -4030,100 +3991,100 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -4131,30 +4092,30 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -4502,7 +4463,7 @@
       <c r="O102" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4511,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="I4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4575,86 +4536,86 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>574</v>
+        <v>278</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -4662,212 +4623,212 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>573</v>
+        <v>282</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>572</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>571</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="33" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>570</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="33" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>570</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>569</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>568</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>567</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>566</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>566</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="33" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>565</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>564</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>564</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>563</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
@@ -5179,7 +5140,7 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5188,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView topLeftCell="I25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5252,58 +5213,58 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -5311,21 +5272,21 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
@@ -5334,49 +5295,49 @@
         <v>33</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -5385,114 +5346,114 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
@@ -5500,128 +5461,128 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="O24" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
@@ -5629,86 +5590,86 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="O37" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
@@ -5717,86 +5678,86 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="B39" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>427</v>
+        <v>445</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="B40" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="M40" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="B41" t="s">
-        <v>434</v>
+        <v>452</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>436</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>437</v>
+        <v>455</v>
       </c>
       <c r="B42" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="B43" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="O43" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="B44" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="M44" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
@@ -5805,72 +5766,72 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
@@ -5890,10 +5851,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -5906,18 +5867,18 @@
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5930,10 +5891,10 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
@@ -6157,7 +6118,7 @@
       <c r="M109" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6166,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6230,128 +6191,128 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="M2" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
       <c r="O7" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -6362,16 +6323,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -6379,30 +6340,30 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -6411,107 +6372,87 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
-        <v>578</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>583</v>
-      </c>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
-        <v>579</v>
-      </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
-        <v>580</v>
-      </c>
-    </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
-        <v>581</v>
-      </c>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
-        <v>582</v>
-      </c>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
@@ -6832,7 +6773,7 @@
       <c r="O107" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6841,8 +6782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6850,7 +6791,7 @@
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
     <col min="13" max="13" width="44.5" customWidth="1"/>
-    <col min="15" max="15" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -6905,30 +6846,30 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -7294,7 +7235,7 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7304,7 +7245,7 @@
   <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7367,44 +7308,44 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -7767,7 +7708,7 @@
       <c r="O99" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80E0AE6-DABE-4015-8810-B632970F9DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43E41C-13C7-4D01-B45A-973FCC8DEB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="642">
   <si>
     <t>English</t>
   </si>
@@ -173,22 +173,10 @@
     <t>CrewmateWin</t>
   </si>
   <si>
-    <t>Crewmates Win</t>
-  </si>
-  <si>
-    <t>クルーメイト勝利</t>
-  </si>
-  <si>
     <t>船员阵营获胜</t>
   </si>
   <si>
     <t>ImpostorWin</t>
-  </si>
-  <si>
-    <t>Impostors Win</t>
-  </si>
-  <si>
-    <t>インポスター勝利</t>
   </si>
   <si>
     <t>内鬼阵营获胜</t>
@@ -716,18 +704,6 @@
     <t>隐藏名牌</t>
   </si>
   <si>
-    <t>HideTaskArrows</t>
-  </si>
-  <si>
-    <t>Hide Task Arrows</t>
-  </si>
-  <si>
-    <t>タスクの矢印を\n非表示にする</t>
-  </si>
-  <si>
-    <t>隐藏任务箭头</t>
-  </si>
-  <si>
     <t>ErrorNotInstalled</t>
   </si>
   <si>
@@ -831,9 +807,6 @@
     <t>Custom Impostor</t>
   </si>
   <si>
-    <t>かすたむいんぽすたー</t>
-  </si>
-  <si>
     <t>自定义内鬼</t>
   </si>
   <si>
@@ -918,28 +891,6 @@
   <si>
     <t>通常のクルーメイト
 タスクを行おう。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>普通船</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>员</t>
-    </r>
   </si>
   <si>
     <t>JesterIntro</t>
@@ -1000,10 +951,6 @@
 &lt;color=#FF1919FF&gt;インポスター&lt;/color&gt;などに殺されないようにしよう。</t>
   </si>
   <si>
-    <t>小丑属于独立阵营。如果小丑在会议中被投出，小丑单独获胜。
-小丑不会被内鬼击杀。</t>
-  </si>
-  <si>
     <t>SheriffIntro</t>
   </si>
   <si>
@@ -1013,19 +960,12 @@
     <t>&lt;color=#FF1919FF&gt;インポスターたち&lt;/color&gt;を撃ち抜け</t>
   </si>
   <si>
-    <t>干掉&lt;color=#FF1919FF&gt;内鬼&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>SheriffShort</t>
   </si>
   <si>
     <t>SheriffFull</t>
   </si>
   <si>
-    <t>警长拥有击杀内鬼的能力。
-如果警长试图击杀一名船员，他会以死谢罪。</t>
-  </si>
-  <si>
     <t>EngineerIntro</t>
   </si>
   <si>
@@ -1035,13 +975,7 @@
     <t>メンテナンスを欠かすな</t>
   </si>
   <si>
-    <t>维修飞船上的重要设备</t>
-  </si>
-  <si>
     <t>EngineerShort</t>
-  </si>
-  <si>
-    <t>修理飞船</t>
   </si>
   <si>
     <t>EngineerFull</t>
@@ -1054,10 +988,6 @@
     <t>サボタージュを直したり、ベントに入ることができる。</t>
   </si>
   <si>
-    <t>工程师存活时每局游戏可以在任何位置修理若干次飞船破坏。
-工程师可以使用管道。</t>
-  </si>
-  <si>
     <t>CustomImpostorIntro</t>
   </si>
   <si>
@@ -1067,9 +997,6 @@
     <t>改造されてしまった！</t>
   </si>
   <si>
-    <t>你的能力由房间设置决定</t>
-  </si>
-  <si>
     <t>CustomImpostorShort</t>
   </si>
   <si>
@@ -1080,9 +1007,6 @@
   </si>
   <si>
     <t>個別の設定が可能なインポスター</t>
-  </si>
-  <si>
-    <t>自定义内鬼的各项内鬼功能可以自由配置。</t>
   </si>
   <si>
     <t>UnderTakerIntro</t>
@@ -1111,10 +1035,6 @@
 死体を隠して全員を殺そう。</t>
   </si>
   <si>
-    <t>你可以移动到尸体任何地方。
-悄无声息的隐藏尸体并杀死所有人。</t>
-  </si>
-  <si>
     <t>ChangePage</t>
   </si>
   <si>
@@ -1692,9 +1612,6 @@
   </si>
   <si>
     <t>可以召开紧急会议</t>
-  </si>
-  <si>
-    <t>HasImpostorVision</t>
   </si>
   <si>
     <t>Has Impostor Vision</t>
@@ -1864,16 +1781,16 @@
   <si>
     <t>房主没有极限职业模组或模组版本不同
 您将在{0}秒后被踢出</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>&lt;color=#00a2ff&gt;ホストがUltimateModsを導入していないかバージョンが違います。
 バグ防止のため、あなたはあと{0}秒でキックされます。&lt;/color&gt;</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ErrorHostNoVersion</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <r>
@@ -1933,7 +1850,469 @@
 Dolly 创作的&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt;
 中文翻译：&lt;color=#ff0000&gt;四个憨批汉化组 旧事 氢氧则名&lt;/color&gt;&lt;/size&gt;</t>
     </r>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>シェリフに殺される</t>
+    <rPh sb="5" eb="6">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Can Killed by Sheriff</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カスタムインポスター</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Madmate</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>マッドメイト</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HasImpostorVision</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CanFixComms</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CanFixReactor</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CanFixBlackout</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Can Fix O2</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Can Fix Comms</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Can Fix Reactor</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Can Fix Blackout</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>酸素サボを直せる</t>
+    <rPh sb="0" eb="2">
+      <t>サンソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>通信妨害を直せる</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボウガイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>リアクター系サボを直せる</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>停電を直せる</t>
+    <rPh sb="0" eb="2">
+      <t>テイデン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HasTasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Has Tasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスクを持つ</t>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CanFixO2</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NumCommonTasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NumLongTasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>NumShortTasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Common Tasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Long Tasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Short Tasks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>通常タスク</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ショートタスク</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ロングタスク</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CanDieToSheriff</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunter</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Bounty Hunter</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>バウンティハンター</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>小丑属于独立阵营。如果小丑在会议中被投出，小丑单独获胜。
+小丑不会被内鬼击杀。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>干掉&lt;color=#FF1919FF&gt;内鬼&lt;/color&gt;</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>警长拥有击杀内鬼的能力。
+如果警长试图击杀一名船员，他会以死谢罪。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>维修飞船上的重要设备</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>修理飞船</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>工程师存活时每局游戏可以在任何位置修理若干次飞船破坏。
+工程师可以使用管道。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>你的能力由房间设置决定</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>自定义内鬼的各项内鬼功能可以自由配置。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>你可以移动到尸体任何地方。
+悄无声息的隐藏尸体并杀死所有人。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>普通船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>员</t>
+    </r>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterSuccess</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterMiss</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterDuration</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterShowArrow</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>BountyHunterArrowUpdateCooldown</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Succcess Cooldown</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Miss Cooldown</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Target Duration</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Show Arrow</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Arrow Update Cooldown</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>成功時のクールダウン</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>失敗時の追加クールダウン</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ターゲットの制限時間</t>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>CanMoveInVents</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Can Move In Vents</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ベントの中を移動できる</t>
+    <rPh sb="4" eb="5">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MadmateKnowImpostorTaskEnd</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Know Impostor When Task End</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>矢印を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>矢印の更新時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスクが終わるとインポスターが分かる</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MadmateCanWinWhenTaskEnd</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Can Win When Task End</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>タスクが終わると勝利できる</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HidePlayerName</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Hide Player Name</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>プレイヤー名非表示</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MadmateIntro</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MadmateShort</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>MadmateFull</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Help the Impostors</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>インポスターを助けよう</t>
+  </si>
+  <si>
+    <t>インポスターを助けよう</t>
+    <rPh sb="7" eb="8">
+      <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>TaskWin</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;All Tasks were completed.&lt;/size&gt;</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;タスクが全部完了した。&lt;/size&gt;</t>
+    <rPh sb="14" eb="16">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>インポスター陣営勝利</t>
+    <rPh sb="6" eb="8">
+      <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>クルーメイト陣営勝利</t>
+    <rPh sb="6" eb="8">
+      <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Twam Crewmates Win</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Team Impostors Win</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -1971,14 +2350,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -2007,6 +2378,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2029,7 +2406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2049,9 +2426,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2068,10 +2442,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
@@ -2781,7 +3159,7 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2790,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2862,7 +3240,7 @@
       <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2876,12 +3254,12 @@
       <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O4" s="13"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
@@ -2893,7 +3271,7 @@
       <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2907,7 +3285,7 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2921,7 +3299,7 @@
       <c r="M7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2935,7 +3313,7 @@
       <c r="M8" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2949,7 +3327,7 @@
       <c r="M9" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2963,356 +3341,354 @@
       <c r="M10" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="O11" s="14"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>638</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M14" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O17" s="14"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M19" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>89</v>
-      </c>
+      <c r="A23" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>637</v>
+      </c>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O25" s="13"/>
+      <c r="A25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="M26" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>97</v>
-      </c>
+      <c r="O26" s="12"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="M27" t="s">
+        <v>92</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O28" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="M31" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O28" s="12" t="s">
+      <c r="O31" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O29" s="14"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B33" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="M33" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="O30" s="17" t="s">
+      <c r="O33" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M35" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="O32" s="10" t="s">
+      <c r="O35" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M36" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="O34" s="10" t="s">
+      <c r="O36" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+    <row r="37" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M37" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="O35" s="15" t="s">
+      <c r="O37" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M38" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="O36" s="10" t="s">
+      <c r="O38" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>125</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="O39" s="10" t="s">
+      <c r="O39" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>121</v>
       </c>
       <c r="M40" s="7" t="s">
@@ -3322,211 +3698,205 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O41" s="14"/>
+    <row r="41" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>137</v>
-      </c>
+      <c r="O42" s="13"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="M44" s="7"/>
-      <c r="O44" s="14"/>
+      <c r="A44" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>144</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="M45" s="7"/>
+      <c r="O45" s="13"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O48" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>156</v>
+        <v>148</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O50" s="14"/>
+      <c r="A50" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="O50" s="11" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>160</v>
-      </c>
+      <c r="O51" s="13"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O54" s="13"/>
+    </row>
+    <row r="55" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B55" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="M55" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="O52" s="12" t="s">
+      <c r="O55" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O53" s="14"/>
-    </row>
-    <row r="54" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:15" ht="408.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="O54" s="10" t="s">
+      <c r="O56" s="10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" ht="408.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="M57" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="O57" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="O55" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="O57" s="14"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>177</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3537,16 +3907,16 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-      <c r="M58" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="O58" s="12" t="s">
-        <v>179</v>
-      </c>
+      <c r="M58" s="3"/>
+      <c r="O58" s="13"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3557,16 +3927,16 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-      <c r="M59" s="8"/>
-      <c r="O59" s="14"/>
+      <c r="M59" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="O59" s="11" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3577,205 +3947,211 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="O60" s="12" t="s">
-        <v>183</v>
-      </c>
+      <c r="M60" s="8"/>
+      <c r="O60" s="13"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O61" s="12" t="s">
-        <v>187</v>
+        <v>176</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="O61" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O62" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="O64" s="13"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B65" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M65" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="O62" s="15" t="s">
+      <c r="O65" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="O63" s="14"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O64" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O65" s="14"/>
-    </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" t="s">
-        <v>197</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O66" s="12" t="s">
-        <v>199</v>
-      </c>
+      <c r="O66" s="13"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="O67" s="12" t="s">
-        <v>203</v>
+        <v>194</v>
+      </c>
+      <c r="O67" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>207</v>
+        <v>198</v>
+      </c>
+      <c r="O68" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O69" s="15" t="s">
-        <v>211</v>
+        <v>202</v>
+      </c>
+      <c r="O69" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O70" s="12" t="s">
-        <v>215</v>
+        <v>206</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B71" s="1"/>
-      <c r="O71" s="14"/>
+      <c r="O71" s="13"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="O72" s="12" t="s">
-        <v>219</v>
+        <v>210</v>
+      </c>
+      <c r="O72" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="O73" s="12" t="s">
-        <v>223</v>
+        <v>214</v>
+      </c>
+      <c r="O73" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="O74" s="15" t="s">
-        <v>227</v>
+        <v>218</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="O75" s="12" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="O75" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.4">
-      <c r="A76" s="19" t="s">
-        <v>576</v>
+      <c r="A76" s="18" t="s">
+        <v>556</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M76" s="18" t="s">
-        <v>575</v>
+        <v>224</v>
+      </c>
+      <c r="M76" s="17" t="s">
+        <v>555</v>
       </c>
       <c r="O76" s="10" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.4">
@@ -3904,20 +4280,20 @@
     <row r="112" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B115" s="1"/>
       <c r="M115" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
 </worksheet>
@@ -3927,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3936,7 +4312,7 @@
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
     <col min="13" max="13" width="44.5" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -3991,138 +4367,153 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="M3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>250</v>
+        <v>241</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>560</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="O15" s="5"/>
@@ -4463,7 +4854,7 @@
       <c r="O102" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4472,8 +4863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4481,7 +4872,7 @@
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
     <col min="13" max="13" width="44.5" customWidth="1"/>
-    <col min="15" max="15" width="26" style="1" customWidth="1"/>
+    <col min="15" max="15" width="50.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -4536,86 +4927,86 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -4623,221 +5014,248 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="33" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="33" x14ac:dyDescent="0.4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="49.5" x14ac:dyDescent="0.4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="33" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>296</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>300</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="49.5" x14ac:dyDescent="0.4">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>306</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>310</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="33" x14ac:dyDescent="0.4">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="49.5" x14ac:dyDescent="0.4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>324</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>634</v>
+      </c>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="M25" t="s">
+        <v>633</v>
+      </c>
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="M26" t="s">
+        <v>633</v>
+      </c>
       <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
@@ -5140,17 +5558,17 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5213,58 +5631,58 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -5272,21 +5690,21 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
@@ -5295,49 +5713,49 @@
         <v>33</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -5346,114 +5764,114 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
@@ -5461,401 +5879,393 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="O24" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>411</v>
-      </c>
+      <c r="A27" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O31" s="5"/>
+      <c r="A31" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>427</v>
-      </c>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="O37" t="s">
-        <v>442</v>
+        <v>419</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="O38" s="5"/>
+      <c r="A38" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="O38" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B39" t="s">
-        <v>444</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>446</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>448</v>
-      </c>
-      <c r="M40" t="s">
-        <v>449</v>
+        <v>425</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="B41" t="s">
-        <v>452</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>453</v>
+        <v>429</v>
+      </c>
+      <c r="M41" t="s">
+        <v>430</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="B43" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O43" t="s">
-        <v>462</v>
+        <v>438</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="B44" t="s">
-        <v>464</v>
-      </c>
-      <c r="M44" t="s">
-        <v>465</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>466</v>
+        <v>441</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="O44" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="O45" s="5"/>
+      <c r="A45" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B45" t="s">
+        <v>445</v>
+      </c>
+      <c r="M45" t="s">
+        <v>446</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>469</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="O51" s="5"/>
+      <c r="A51" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5866,19 +6276,15 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-      <c r="M52" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="M52" s="3"/>
+      <c r="O52" s="5"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -5891,14 +6297,19 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="3"/>
+      <c r="A54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>135</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5909,8 +6320,12 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="O54" s="5"/>
+      <c r="M54" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B55" s="3"/>
@@ -5929,25 +6344,35 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-      <c r="O56" s="4"/>
+      <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O57" s="5"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O59" s="5"/>
+      <c r="B57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="O57" s="4"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O58" s="5"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B60" s="3"/>
-      <c r="M60" s="3"/>
+      <c r="O60" s="5"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O61" s="5"/>
+      <c r="B61" s="3"/>
+      <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B62" s="1"/>
-      <c r="M62" s="1"/>
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
@@ -5968,9 +6393,11 @@
     <row r="66" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B66" s="1"/>
       <c r="M66" s="1"/>
+      <c r="O66" s="5"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O67" s="5"/>
+      <c r="B67" s="1"/>
+      <c r="M67" s="1"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O68" s="5"/>
@@ -5981,17 +6408,17 @@
     <row r="70" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O70" s="5"/>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O72" s="5"/>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O71" s="5"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O73" s="5"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O75" s="5"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O77" s="5"/>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O74" s="5"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O76" s="5"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O78" s="5"/>
@@ -6024,27 +6451,25 @@
       <c r="O87" s="5"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B88" s="6"/>
+      <c r="O88" s="5"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O89" s="4"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B90" s="1"/>
-      <c r="M90" s="1"/>
       <c r="O90" s="4"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
-      <c r="O91" s="5"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O93" s="4"/>
+      <c r="O91" s="4"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="O92" s="5"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B94" s="1"/>
-      <c r="M94" s="1"/>
       <c r="O94" s="4"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
@@ -6059,11 +6484,11 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
+      <c r="M97" s="1"/>
       <c r="O97" s="4"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
-      <c r="M98" s="1"/>
       <c r="O98" s="4"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
@@ -6084,14 +6509,14 @@
     <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="O102"/>
+      <c r="O102" s="4"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O103" s="4"/>
+      <c r="B103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="O103"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B104" s="1"/>
-      <c r="M104" s="1"/>
       <c r="O104" s="4"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
@@ -6101,11 +6526,11 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
+      <c r="M106" s="1"/>
       <c r="O106" s="4"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
-      <c r="M107" s="1"/>
       <c r="O107" s="4"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.4">
@@ -6116,19 +6541,24 @@
     <row r="109" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B109" s="1"/>
       <c r="M109" s="1"/>
+      <c r="O109" s="4"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="M110" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6136,7 +6566,7 @@
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
     <col min="13" max="13" width="44.5" customWidth="1"/>
-    <col min="15" max="15" width="24.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="39.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -6191,478 +6621,639 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="M2" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="O7" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O27" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O28" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O30" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O31" s="5" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O24" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="M34" s="18" t="s">
+        <v>613</v>
+      </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O36" s="4"/>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="O36" s="5"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="O37" s="5"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>622</v>
+      </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>625</v>
+      </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O42" s="5"/>
     </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O46" s="4"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
       <c r="O51" s="5"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="O53" s="5"/>
-    </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="3"/>
-      <c r="M54" s="3"/>
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O55" s="4"/>
+      <c r="O55" s="5"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O56" s="5"/>
     </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O57" s="5"/>
+    </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B58" s="3"/>
-      <c r="M58" s="3"/>
       <c r="O58" s="5"/>
     </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="O59" s="5"/>
+    </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
       <c r="O61" s="5"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B63" s="1"/>
-      <c r="M63" s="1"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
       <c r="O63" s="5"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B64" s="1"/>
-      <c r="M64" s="1"/>
+      <c r="B64" s="3"/>
+      <c r="M64" s="3"/>
       <c r="O64" s="5"/>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O65" s="4"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O66" s="5"/>
     </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O67" s="5"/>
-    </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B68" s="3"/>
+      <c r="M68" s="3"/>
       <c r="O68" s="5"/>
     </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O69" s="5"/>
-    </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="O70" s="5"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B71" s="1"/>
+      <c r="M71" s="1"/>
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B72" s="1"/>
+      <c r="M72" s="1"/>
       <c r="O72" s="5"/>
     </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="O73" s="5"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B74" s="1"/>
+      <c r="M74" s="1"/>
       <c r="O74" s="5"/>
     </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O79" s="5"/>
-    </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O80" s="5"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O81" s="5"/>
@@ -6670,60 +7261,42 @@
     <row r="82" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O83" s="5"/>
-    </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O84" s="5"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O85" s="5"/>
-    </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B86" s="6"/>
       <c r="O86" s="5"/>
     </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O87" s="5"/>
+    </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="O88" s="4"/>
+      <c r="O88" s="5"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="O89" s="4"/>
+      <c r="O89" s="5"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O90" s="5"/>
     </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O91" s="5"/>
+    </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="O92" s="4"/>
+      <c r="O92" s="5"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="O93" s="4"/>
+      <c r="O93" s="5"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="O94" s="4"/>
+      <c r="O94" s="5"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B95" s="1"/>
-      <c r="O95" s="4"/>
+      <c r="O95" s="5"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="O97" s="4"/>
+      <c r="B96" s="6"/>
+      <c r="O96" s="5"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
@@ -6736,12 +7309,7 @@
       <c r="O99" s="4"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O101"/>
+      <c r="O100" s="5"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
@@ -6755,11 +7323,11 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
+      <c r="M104" s="1"/>
       <c r="O104" s="4"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
-      <c r="M105" s="1"/>
       <c r="O105" s="4"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.4">
@@ -6772,8 +7340,55 @@
       <c r="M107" s="1"/>
       <c r="O107" s="4"/>
     </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="O108" s="4"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="O109" s="4"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="O110" s="4"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="O112" s="4"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="O113" s="4"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B114" s="1"/>
+      <c r="O114" s="4"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="O115" s="4"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="O116" s="4"/>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="O117" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6846,30 +7461,30 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -7235,7 +7850,7 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7245,7 +7860,7 @@
   <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7308,44 +7923,44 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -7708,7 +8323,7 @@
       <c r="O99" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A43E41C-13C7-4D01-B45A-973FCC8DEB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F7A23B-2AAD-40B7-98BA-15A8F10943E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="645">
   <si>
     <t>English</t>
   </si>
@@ -86,9 +86,6 @@
     <t>UMの設定</t>
   </si>
   <si>
-    <t>极限职业选项</t>
-  </si>
-  <si>
     <t>VanillaOptionsText</t>
   </si>
   <si>
@@ -98,18 +95,12 @@
     <t>AmongUsの設定</t>
   </si>
   <si>
-    <t>原版选项</t>
-  </si>
-  <si>
     <t>GeneralSettings</t>
   </si>
   <si>
     <t>UM Settings</t>
   </si>
   <si>
-    <t>极限职业设置</t>
-  </si>
-  <si>
     <t>ImpostorSettings</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>インポスター役職</t>
   </si>
   <si>
-    <t>内鬼职业设置</t>
-  </si>
-  <si>
     <t>NeutralSettings</t>
   </si>
   <si>
@@ -131,9 +119,6 @@
     <t>第三陣営役職</t>
   </si>
   <si>
-    <t>独立职业设置</t>
-  </si>
-  <si>
     <t>CrewmateSettings</t>
   </si>
   <si>
@@ -143,9 +128,6 @@
     <t>クルーメイト役職</t>
   </si>
   <si>
-    <t>船员职业设置</t>
-  </si>
-  <si>
     <t>ModifierSettings</t>
   </si>
   <si>
@@ -155,9 +137,6 @@
     <t>属性役職</t>
   </si>
   <si>
-    <t>附加职业设置</t>
-  </si>
-  <si>
     <t>OtherSettings</t>
   </si>
   <si>
@@ -167,21 +146,12 @@
     <t>その他設定</t>
   </si>
   <si>
-    <t>其他职业设置</t>
-  </si>
-  <si>
     <t>CrewmateWin</t>
   </si>
   <si>
-    <t>船员阵营获胜</t>
-  </si>
-  <si>
     <t>ImpostorWin</t>
   </si>
   <si>
-    <t>内鬼阵营获胜</t>
-  </si>
-  <si>
     <t>JesterWin</t>
   </si>
   <si>
@@ -200,9 +170,6 @@
     <t>強制終了</t>
   </si>
   <si>
-    <t>强制结束</t>
-  </si>
-  <si>
     <t>EveryoneLose</t>
   </si>
   <si>
@@ -212,9 +179,6 @@
     <t>全員敗北</t>
   </si>
   <si>
-    <t>无人生还</t>
-  </si>
-  <si>
     <t>CrewWinExtra</t>
   </si>
   <si>
@@ -224,9 +188,6 @@
     <t>クルーメイト{0}勝利</t>
   </si>
   <si>
-    <t>船员阵营{0}获胜</t>
-  </si>
-  <si>
     <t>ImpostorWinExtra</t>
   </si>
   <si>
@@ -236,9 +197,6 @@
     <t>インポスター{0}勝利</t>
   </si>
   <si>
-    <t>内鬼阵营{0}获胜</t>
-  </si>
-  <si>
     <t>JesterWinExtra</t>
   </si>
   <si>
@@ -248,9 +206,6 @@
     <t>ジェスター{0}勝利</t>
   </si>
   <si>
-    <t>小丑{0}获胜</t>
-  </si>
-  <si>
     <t>ReactorWin</t>
   </si>
   <si>
@@ -296,9 +251,6 @@
     <t>ホストが強制終了を行った。</t>
   </si>
   <si>
-    <t>房主强制结束游戏</t>
-  </si>
-  <si>
     <t>CreditsMain</t>
   </si>
   <si>
@@ -308,9 +260,6 @@
     <t>制作:DekoKiyo</t>
   </si>
   <si>
-    <t>模组作者：DekoKiyo</t>
-  </si>
-  <si>
     <t>CreditsVersion</t>
   </si>
   <si>
@@ -326,9 +275,6 @@
     <t>Version.Beta{0}</t>
   </si>
   <si>
-    <t>测试版 V.{0}</t>
-  </si>
-  <si>
     <t>PlatformTitle</t>
   </si>
   <si>
@@ -336,9 +282,6 @@
   </si>
   <si>
     <t>===プレイヤー名：機種名===</t>
-  </si>
-  <si>
-    <t>===玩家名称：游戏设备===</t>
   </si>
   <si>
     <t>MeetingStatus</t>
@@ -354,11 +297,6 @@
 緊急会議を開催できる&lt;/size&gt;</t>
   </si>
   <si>
-    <t>&lt;size=100%&gt;{0} 还能召开
-&lt;color=red&gt;{1}次会议 .所有人还能召开 {2} 次&lt;/color&gt;
-紧急会议.&lt;/size&gt;</t>
-  </si>
-  <si>
     <t>NoUpdate</t>
   </si>
   <si>
@@ -395,10 +333,6 @@
   <si>
     <t>アップデートに失敗しました。
 手動でやり直してください。</t>
-  </si>
-  <si>
-    <t>无法自动更新。
-请尝试手动更新。</t>
   </si>
   <si>
     <t>UpdateInProgress</t>
@@ -414,11 +348,6 @@
 再度起動してください。</t>
   </si>
   <si>
-    <t>更新完成。
-请退出游戏，
-并再次启动。</t>
-  </si>
-  <si>
     <t>UpdateButton</t>
   </si>
   <si>
@@ -426,9 +355,6 @@
   </si>
   <si>
     <t>Modアップデート</t>
-  </si>
-  <si>
-    <t>模组更新</t>
   </si>
   <si>
     <t>UpdateRestart</t>
@@ -593,9 +519,6 @@
     <t>Modクレジット</t>
   </si>
   <si>
-    <t>鸣谢</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -617,9 +540,6 @@
     <t>時間切れ</t>
   </si>
   <si>
-    <t>超时</t>
-  </si>
-  <si>
     <t>TimeRemaining</t>
   </si>
   <si>
@@ -629,9 +549,6 @@
     <t>残り時間: {0}</t>
   </si>
   <si>
-    <t>剩余时间:{0}</t>
-  </si>
-  <si>
     <t>ButtonBlocked</t>
   </si>
   <si>
@@ -653,57 +570,27 @@
     <t>ジェスターは緊急会議を開けない…</t>
   </si>
   <si>
-    <t>小丑不能召开紧急会议</t>
-  </si>
-  <si>
     <t>GhostsSeeTasksButton</t>
   </si>
   <si>
-    <t>Ghosts See Remaining Tasks</t>
-  </si>
-  <si>
-    <t>幽霊時全員の\nタスク残量が見える</t>
-  </si>
-  <si>
-    <t>幽灵可见他人任务进度</t>
-  </si>
-  <si>
     <t>GhostsSeeVotesButton</t>
   </si>
   <si>
     <t>Ghosts See Roles</t>
   </si>
   <si>
-    <t>幽霊時全員の\n約束が見える</t>
-  </si>
-  <si>
-    <t>幽灵可见他人职业</t>
-  </si>
-  <si>
     <t>GhostsSeeRolesButton</t>
   </si>
   <si>
     <t>Ghosts See Votes</t>
   </si>
   <si>
-    <t>幽霊時全員の\n投票先が見える</t>
-  </si>
-  <si>
-    <t>幽灵可见他人投票</t>
-  </si>
-  <si>
     <t>HideNameplates</t>
   </si>
   <si>
     <t>Hide Nameplates</t>
   </si>
   <si>
-    <t>ネームプレートを\n非表示にする</t>
-  </si>
-  <si>
-    <t>隐藏名牌</t>
-  </si>
-  <si>
     <t>ErrorNotInstalled</t>
   </si>
   <si>
@@ -713,9 +600,6 @@
     <t>のUltimateModsは正常に導入されていません。</t>
   </si>
   <si>
-    <t>没有极限职业模组或模组版本不同</t>
-  </si>
-  <si>
     <t>ErrorOlderVersion</t>
   </si>
   <si>
@@ -725,9 +609,6 @@
     <t>のUltimateModsのバージョンがこのバージョンより古いです。</t>
   </si>
   <si>
-    <t>极限职业模组版本较旧</t>
-  </si>
-  <si>
     <t>ErrorNewerVersion</t>
   </si>
   <si>
@@ -737,9 +618,6 @@
     <t>のUltimateModsのバージョンがこのバージョンより新しいです。</t>
   </si>
   <si>
-    <t>极限职业模组版本较新</t>
-  </si>
-  <si>
     <t>ErrorWrongVersion</t>
   </si>
   <si>
@@ -747,13 +625,6 @@
   </si>
   <si>
     <t>のUltimateModsのバージョンがこのバージョンと違います。</t>
-  </si>
-  <si>
-    <t>极限职业模组为修改过的版本</t>
-  </si>
-  <si>
-    <t>&lt;color=#00a2ff&gt;The host has no or a different version of UltimateMods
-You will be kicked in {0}s&lt;/color&gt;</t>
   </si>
   <si>
     <t>Impostor</t>
@@ -1320,18 +1191,6 @@
     <t>启用镜像地图</t>
   </si>
   <si>
-    <t>DieZoom</t>
-  </si>
-  <si>
-    <t>Can Zoom Out If you died</t>
-  </si>
-  <si>
-    <t>死亡時、ズームアウトできる</t>
-  </si>
-  <si>
-    <t>死后获得千里眼</t>
-  </si>
-  <si>
     <t>PlayRandomMaps</t>
   </si>
   <si>
@@ -1777,135 +1636,70 @@
   </si>
   <si>
     <t>拖曳</t>
-  </si>
-  <si>
-    <t>房主没有极限职业模组或模组版本不同
-您将在{0}秒后被踢出</t>
-    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>&lt;color=#00a2ff&gt;ホストがUltimateModsを導入していないかバージョンが違います。
 バグ防止のため、あなたはあと{0}秒でキックされます。&lt;/color&gt;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ErrorHostNoVersion</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;align="center"&gt;&lt;size=120%&gt;参考模组&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
-Eisbison 创作的&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt;
-tomarai 创作的&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt;
-Dusk 创作的&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt;
-Haoming 创作的&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ykundesu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 创作的&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt;
-tugaru1975 创作的&lt;color=#ffffff&gt;TownOfPlus&lt;/color&gt;
-eDonnes124 创作的&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt;
-TOI集体作者创作的&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt;
-KiraYamato94 创作的&lt;color=#ffffff&gt;LasMonjas&lt;/color&gt;
-冷凍麦茶 创作的&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt;
-yukieiji 创作的&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Empty Bottle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 创作的&lt;color=#00bfff&gt;TownOfHost&lt;/color&gt;
-Dolly 创作的&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt;
-中文翻译：&lt;color=#ff0000&gt;四个憨批汉化组 旧事 氢氧则名&lt;/color&gt;&lt;/size&gt;</t>
-    </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>シェリフに殺される</t>
     <rPh sb="5" eb="6">
       <t>コロ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Can Killed by Sheriff</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>カスタムインポスター</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Madmate</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>マッドメイト</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>HasImpostorVision</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CanFixComms</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CanFixReactor</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CanFixBlackout</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Can Fix O2</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Can Fix Comms</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Can Fix Reactor</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Can Fix Blackout</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>酸素サボを直せる</t>
@@ -1915,7 +1709,7 @@
     <rPh sb="5" eb="6">
       <t>ナオ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>通信妨害を直せる</t>
@@ -1928,7 +1722,7 @@
     <rPh sb="5" eb="6">
       <t>ナオ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>リアクター系サボを直せる</t>
@@ -1938,7 +1732,7 @@
     <rPh sb="9" eb="10">
       <t>ナオ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>停電を直せる</t>
@@ -1948,121 +1742,121 @@
     <rPh sb="3" eb="4">
       <t>ナオ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>HasTasks</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Has Tasks</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>タスクを持つ</t>
     <rPh sb="4" eb="5">
       <t>モ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CanFixO2</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>NumCommonTasks</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>NumLongTasks</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>NumShortTasks</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Common Tasks</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Long Tasks</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Short Tasks</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>通常タスク</t>
     <rPh sb="0" eb="2">
       <t>ツウジョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ショートタスク</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ロングタスク</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CanDieToSheriff</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BountyHunter</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Bounty Hunter</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>バウンティハンター</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>小丑属于独立阵营。如果小丑在会议中被投出，小丑单独获胜。
 小丑不会被内鬼击杀。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>干掉&lt;color=#FF1919FF&gt;内鬼&lt;/color&gt;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>警长拥有击杀内鬼的能力。
 如果警长试图击杀一名船员，他会以死谢罪。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>维修飞船上的重要设备</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>修理飞船</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>工程师存活时每局游戏可以在任何位置修理若干次飞船破坏。
 工程师可以使用管道。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>你的能力由房间设置决定</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>自定义内鬼的各项内鬼功能可以自由配置。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>你可以移动到尸体任何地方。
 悄无声息的隐藏尸体并杀死所有人。</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <r>
@@ -2078,47 +1872,47 @@
       </rPr>
       <t>员</t>
     </r>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BountyHunterSuccess</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BountyHunterMiss</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BountyHunterDuration</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BountyHunterShowArrow</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>BountyHunterArrowUpdateCooldown</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Succcess Cooldown</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Miss Cooldown</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Target Duration</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Show Arrow</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Arrow Update Cooldown</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>成功時のクールダウン</t>
@@ -2128,7 +1922,7 @@
     <rPh sb="2" eb="3">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>失敗時の追加クールダウン</t>
@@ -2141,7 +1935,7 @@
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ターゲットの制限時間</t>
@@ -2151,15 +1945,15 @@
     <rPh sb="8" eb="10">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>CanMoveInVents</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Can Move In Vents</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>ベントの中を移動できる</t>
@@ -2169,15 +1963,15 @@
     <rPh sb="6" eb="8">
       <t>イドウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>MadmateKnowImpostorTaskEnd</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Know Impostor When Task End</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>矢印を表示する</t>
@@ -2187,7 +1981,7 @@
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>矢印の更新時間</t>
@@ -2200,7 +1994,7 @@
     <rPh sb="5" eb="7">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>タスクが終わるとインポスターが分かる</t>
@@ -2210,15 +2004,15 @@
     <rPh sb="15" eb="16">
       <t>ワ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>MadmateCanWinWhenTaskEnd</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Can Win When Task End</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>タスクが終わると勝利できる</t>
@@ -2228,15 +2022,15 @@
     <rPh sb="8" eb="10">
       <t>ショウリ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>HidePlayerName</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Hide Player Name</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>プレイヤー名非表示</t>
@@ -2246,23 +2040,23 @@
     <rPh sb="6" eb="9">
       <t>ヒヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>MadmateIntro</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>MadmateShort</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>MadmateFull</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Help the Impostors</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>インポスターを助けよう</t>
@@ -2272,15 +2066,15 @@
     <rPh sb="7" eb="8">
       <t>タス</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>TaskWin</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>&lt;size=80%&gt;All Tasks were completed.&lt;/size&gt;</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>&lt;size=80%&gt;タスクが全部完了した。&lt;/size&gt;</t>
@@ -2290,36 +2084,1951 @@
     <rPh sb="16" eb="18">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>インポスター陣営勝利</t>
     <rPh sb="6" eb="8">
       <t>ジンエイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>クルーメイト陣営勝利</t>
     <rPh sb="6" eb="8">
       <t>ジンエイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Twam Crewmates Win</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>Team Impostors Win</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>CanZoomInOutDead</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Can Zoom In&amp;Out When Player is Dead</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>死亡時、ズームイン&amp;アウト可能</t>
+    <rPh sb="0" eb="3">
+      <t>シボウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业选项</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>原版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>选项</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内鬼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>独立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>员职业设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>附加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>其他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>员阵营获胜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内鬼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>阵营获胜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>束</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>无人生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>还</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>船</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>员阵营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>获胜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内鬼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>阵营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>获胜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>小丑{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>获胜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>房主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>束游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>戏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>作者：DekoKiyo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>版 V.{0}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>===玩家名称：游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>戏设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>===</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;size=100%&gt;{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>能召开
+&lt;color=red&gt;{1}次会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> .所有人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">能召开 {2} 次&lt;/color&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>紧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>急会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>.&lt;/size&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>无法自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">更新。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>请尝试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>更新。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">更新完成。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>退出游</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>戏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>，
+并再次启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>更新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>闭</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;align="center"&gt;&lt;size=120%&gt;参考模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/size&gt;&lt;/align&gt;&lt;size=78%&gt;
+Eisbison </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#ff351f&gt;TheOtherRoles&lt;/color&gt;
+tomarai </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#ff351f&gt;TheOtherRoles+&lt;/color&gt;
+Dusk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#ff351f&gt;TheOtherRolesGM&lt;/color&gt;
+Haoming </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#ff351f&gt;TheOtherRolesGM Haoming&lt;/color&gt;
+ykundesu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#ffa500&gt;Super&lt;/color&gt;&lt;color=#ff0000&gt;New&lt;/color&gt;&lt;color=#00ff00&gt;Roles&lt;/color&gt;
+tugaru1975 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#ffffff&gt;TownOfPlus&lt;/color&gt;
+eDonnes124 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>作的&lt;color=#e39804&gt;TownOfUs-R&lt;/color&gt;
+TOI集体作者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#00bdff&gt;Town&lt;/color&gt;&lt;color=#ffffff&gt;Of&lt;/color&gt;&lt;color=#ff0000&gt;Impostors&lt;/color&gt;
+KiraYamato94 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#ffffff&gt;LasMonjas&lt;/color&gt;
+冷凍麦茶 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#4169e1&gt;TownOfSuper&lt;/color&gt;
+yukieiji </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#ffffff&gt;Extreme Roles&lt;/color&gt;
+Empty Bottle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">作的&lt;color=#00bfff&gt;TownOfHost&lt;/color&gt;
+Dolly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>作的&lt;color=#1a33c3&gt;Nebula on the Ship&lt;/color&gt;
+中文翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>：&lt;color=#ff0000&gt;四个憨批</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>汉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> 旧事 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>氢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>氧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>名&lt;/color&gt;&lt;/size&gt;</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>鸣谢</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>时</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>剩余</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>:{0}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>小丑不能召开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>紧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>急会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>议</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>幽灵可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>他人任</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>务进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>幽灵可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>他人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>幽灵可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>他人投票</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>隐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>藏名牌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>没有极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>或模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>版本不同</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>旧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>版本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>较</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>新</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>组为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>的版本</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>房主没有极限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>职业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>或模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック Light"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>版本不同
+您将在{0}秒后被踢出</t>
+    </r>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>&lt;color=#00a2ff&gt;The host has no or a different version of UltimateMods
+You will be kicked in {0}s&lt;/color&gt;</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>EnableCustomSounds</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>カスタムサウンドを
+使用する</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Enable
+Custom Sounds</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Ghosts See
+Remaining Tasks</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>幽霊時全員の
+タスク残量が見える</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>幽霊時全員の
+役職が見える</t>
+    <rPh sb="7" eb="9">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>幽霊時全員の
+投票先が見える</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ネームプレートを
+非表示にする</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2365,13 +4074,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -2383,6 +4085,22 @@
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック Light"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2406,7 +4124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2426,30 +4144,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
@@ -3159,17 +4882,17 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q116"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3240,659 +4963,659 @@
       <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="11" t="s">
-        <v>19</v>
+      <c r="O2" s="20" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
+      <c r="O3" s="20" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="O4" s="12"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>26</v>
+      <c r="O5" s="20" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>639</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>641</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="O13" s="20" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="O15" s="20" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="O16" s="20" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O17" s="13"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="O18" s="20" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
+      </c>
+      <c r="O22" s="19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>636</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="O23" s="2"/>
+      <c r="A23" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>85</v>
+        <v>69</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O26" s="12"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>92</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="O27" s="20" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="O28" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>99</v>
+        <v>81</v>
+      </c>
+      <c r="O29" s="20" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O30" s="13"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>103</v>
+        <v>82</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" s="21" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O32" s="13"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O34" s="13"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="O35" s="22" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O36" s="14" t="s">
-        <v>115</v>
+        <v>94</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="O37" s="22" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="O38" s="22" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O39" s="11" t="s">
-        <v>127</v>
+        <v>104</v>
+      </c>
+      <c r="O39" s="20" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="O40" s="22" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="O41" s="22" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O42" s="13"/>
+      <c r="O42" s="18"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O43" s="11" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="O43" s="20" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O44" s="11" t="s">
-        <v>137</v>
+        <v>113</v>
+      </c>
+      <c r="O44" s="20" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="M45" s="7"/>
-      <c r="O45" s="13"/>
+      <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="O46" s="11" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="O46" s="20" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="O47" s="23" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>147</v>
+        <v>124</v>
+      </c>
+      <c r="O48" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="O49" s="20" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>152</v>
+        <v>129</v>
+      </c>
+      <c r="O50" s="20" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O51" s="13"/>
+      <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O52" s="11" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="O52" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="O53" s="11" t="s">
-        <v>160</v>
+        <v>136</v>
+      </c>
+      <c r="O53" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O54" s="13"/>
+      <c r="O54" s="18"/>
     </row>
     <row r="55" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="O55" s="10" t="s">
-        <v>164</v>
+        <v>140</v>
+      </c>
+      <c r="O55" s="22" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="408.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>557</v>
+        <v>144</v>
+      </c>
+      <c r="O56" s="22" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="O57" s="11" t="s">
-        <v>171</v>
+        <v>147</v>
+      </c>
+      <c r="O57" s="20" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
@@ -3908,14 +5631,14 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
-      <c r="O58" s="13"/>
+      <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -3928,10 +5651,10 @@
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="O59" s="11" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="O59" s="20" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
@@ -3948,14 +5671,14 @@
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="8"/>
-      <c r="O60" s="13"/>
+      <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -3968,201 +5691,210 @@
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="O61" s="11" t="s">
-        <v>179</v>
+        <v>154</v>
+      </c>
+      <c r="O61" s="20" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O62" s="11" t="s">
-        <v>183</v>
+        <v>157</v>
+      </c>
+      <c r="O62" s="20" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>187</v>
+        <v>160</v>
+      </c>
+      <c r="O63" s="23" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B64" s="3"/>
       <c r="M64" s="3"/>
-      <c r="O64" s="13"/>
+      <c r="O64" s="18"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>191</v>
+        <v>164</v>
+      </c>
+      <c r="O65" s="23" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O66" s="13"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O66" s="18"/>
+    </row>
+    <row r="67" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" t="s">
-        <v>193</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O67" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="O67" s="20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O68" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+      <c r="M68" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="O68" s="20" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="B69" t="s">
-        <v>201</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="O69" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="O69" s="20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B71" s="1"/>
-      <c r="O71" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="O70" s="23" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A71" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="O71" s="23"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A72" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="O72" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B72" s="1"/>
+      <c r="O72" s="18"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="O73" s="11" t="s">
-        <v>215</v>
+        <v>174</v>
+      </c>
+      <c r="O73" s="20" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="O74" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+      <c r="O74" s="20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="O75" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.4">
-      <c r="A76" s="18" t="s">
-        <v>556</v>
+        <v>180</v>
+      </c>
+      <c r="O75" s="23" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M76" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="O76" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M76" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="O76" s="20" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="75" x14ac:dyDescent="0.4">
+      <c r="A77" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="O77" s="22" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O78" s="5"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O80" s="5"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O79" s="5"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O81" s="5"/>
@@ -4194,20 +5926,18 @@
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O90" s="5"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O92" s="4"/>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O91" s="5"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O93" s="4"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B94" s="6"/>
-      <c r="O94" s="5"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="O96" s="4"/>
+      <c r="O94" s="4"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B95" s="6"/>
+      <c r="O95" s="5"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
@@ -4215,14 +5945,14 @@
       <c r="O97" s="4"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B98" s="1"/>
+      <c r="M98" s="1"/>
       <c r="O98" s="4"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O99" s="4"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B100" s="1"/>
-      <c r="M100" s="1"/>
       <c r="O100" s="4"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.4">
@@ -4237,22 +5967,22 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
+      <c r="M103" s="1"/>
       <c r="O103" s="4"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
-      <c r="M104" s="1"/>
       <c r="O104" s="4"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="M105" s="1"/>
-      <c r="O105"/>
+      <c r="O105" s="4"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
-      <c r="O106" s="4"/>
+      <c r="O106"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
@@ -4265,11 +5995,11 @@
       <c r="O108" s="4"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B109" s="1"/>
+      <c r="M109" s="1"/>
       <c r="O109" s="4"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B110" s="1"/>
-      <c r="M110" s="1"/>
       <c r="O110" s="4"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.4">
@@ -4279,21 +6009,29 @@
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M112" s="1"/>
+      <c r="O112" s="4"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B113" s="1"/>
-      <c r="M113" s="1"/>
-    </row>
-    <row r="114" spans="2:13" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B114" s="1"/>
       <c r="M114" s="1"/>
-    </row>
-    <row r="115" spans="2:13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B115" s="1"/>
       <c r="M115" s="1"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="O116"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
 </worksheet>
@@ -4367,152 +6105,152 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="M5" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>560</v>
+        <v>200</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>513</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>591</v>
+      <c r="A10" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>544</v>
       </c>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>562</v>
+      <c r="A11" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>515</v>
       </c>
       <c r="O11" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -4854,7 +6592,7 @@
       <c r="O102" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4927,86 +6665,86 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="M2" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="M3" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>601</v>
+        <v>228</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -5014,247 +6752,247 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>592</v>
+        <v>237</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>593</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="33" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>596</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>597</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>598</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>599</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>600</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>634</v>
+      <c r="A24" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>587</v>
       </c>
       <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>632</v>
+      <c r="A25" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>585</v>
       </c>
       <c r="M25" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>632</v>
+      <c r="A26" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>585</v>
       </c>
       <c r="M26" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="O26" s="5"/>
     </row>
@@ -5558,7 +7296,7 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5568,7 +7306,7 @@
   <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5631,58 +7369,58 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>318</v>
+        <v>277</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -5690,72 +7428,72 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>332</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -5764,114 +7502,114 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>338</v>
+        <v>297</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>340</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>341</v>
+        <v>300</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
@@ -5879,227 +7617,235 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="O24" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>627</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>628</v>
+      <c r="A27" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>581</v>
       </c>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>397</v>
+        <v>356</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>399</v>
+        <v>358</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>404</v>
-      </c>
+      <c r="A31" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>419</v>
+        <v>374</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>420</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>421</v>
+        <v>376</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="O38" t="s">
-        <v>423</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
@@ -6108,86 +7854,86 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>427</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="B41" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="M41" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>431</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
       <c r="B42" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
       <c r="B44" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="O44" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="B45" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="M45" t="s">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>447</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
@@ -6196,72 +7942,72 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>452</v>
+        <v>407</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>458</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
@@ -6281,10 +8027,10 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6297,18 +8043,18 @@
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="8" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -6321,10 +8067,10 @@
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="8" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
@@ -6343,18 +8089,6 @@
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
@@ -6548,7 +8282,7 @@
       <c r="M110" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6557,7 +8291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -6621,247 +8355,247 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="M2" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
       <c r="O7" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
-        <v>563</v>
+      <c r="A10" s="13" t="s">
+        <v>516</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>558</v>
+      <c r="A11" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>511</v>
       </c>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
-        <v>578</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>571</v>
+      <c r="A12" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>524</v>
       </c>
       <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="M13" s="18" t="s">
-        <v>572</v>
-      </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="B20" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="M14" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" s="18" t="s">
-        <v>566</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="M20" s="13" t="s">
         <v>570</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>574</v>
-      </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>577</v>
-      </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>582</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>585</v>
-      </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="18" t="s">
-        <v>580</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>584</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>617</v>
       </c>
       <c r="O20" s="5"/>
     </row>
@@ -6873,16 +8607,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
@@ -6890,30 +8624,30 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>513</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
@@ -6922,133 +8656,133 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>517</v>
+        <v>472</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>518</v>
+        <v>473</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>521</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>524</v>
+        <v>479</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>525</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>526</v>
+        <v>481</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>528</v>
+        <v>483</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>529</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>531</v>
+        <v>486</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>532</v>
+        <v>487</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>612</v>
+      <c r="A33" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>565</v>
       </c>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="18" t="s">
-        <v>603</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="M34" s="18" t="s">
-        <v>613</v>
+      <c r="A34" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>566</v>
       </c>
       <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>614</v>
+      <c r="A35" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A36" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>620</v>
+      <c r="A36" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>573</v>
       </c>
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>621</v>
+      <c r="A37" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>574</v>
       </c>
       <c r="O37" s="5"/>
     </row>
@@ -7056,26 +8790,26 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="18" t="s">
-        <v>618</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>622</v>
+      <c r="A39" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>575</v>
       </c>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A40" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="M40" s="18" t="s">
-        <v>625</v>
+      <c r="A40" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>578</v>
       </c>
       <c r="O40" s="5"/>
     </row>
@@ -7388,7 +9122,7 @@
       <c r="O117" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7461,30 +9195,30 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>490</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>536</v>
+        <v>491</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>537</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>538</v>
+        <v>493</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -7850,7 +9584,7 @@
       <c r="O100" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7923,44 +9657,44 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -8323,7 +10057,7 @@
       <c r="O99" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c28a2233398bfb90/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9241C298-16B4-4A31-83F1-3DF43D4D2165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA19CA99-CBCB-4266-8DA6-EEC340A846BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="737">
   <si>
     <t>English</t>
   </si>
@@ -1708,100 +1708,40 @@
     <t>载入上次游戏的设置</t>
   </si>
   <si>
-    <t>CrewmateRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Crewmate Roles</t>
-  </si>
-  <si>
-    <t>最小クルーメイト陣営役職数</t>
-  </si>
-  <si>
-    <t>最少船员职业数</t>
-  </si>
-  <si>
-    <t>CrewmateRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Crewmate Roles</t>
-  </si>
-  <si>
-    <t>最大クルーメイト陣営役職数</t>
-  </si>
-  <si>
-    <t>最多船员职业数</t>
-  </si>
-  <si>
-    <t>NeutralRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Neutral Roles</t>
-  </si>
-  <si>
-    <t>最小第三陣営役職数</t>
-  </si>
-  <si>
-    <t>最少独立职业数</t>
-  </si>
-  <si>
-    <t>NeutralRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Neutral Roles</t>
-  </si>
-  <si>
-    <t>最大第三陣営役職数</t>
-  </si>
-  <si>
-    <t>最多独立职业数</t>
-  </si>
-  <si>
-    <t>ImpostorRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Impostor Roles</t>
-  </si>
-  <si>
-    <t>最小インポスター陣営役職数</t>
-  </si>
-  <si>
-    <t>最少内鬼职业数</t>
-  </si>
-  <si>
-    <t>ImpostorRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Impostor Roles</t>
-  </si>
-  <si>
-    <t>最大インポスター陣営役職数</t>
-  </si>
-  <si>
-    <t>最多内鬼职业数</t>
-  </si>
-  <si>
-    <t>ModifierCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Modifier Roles</t>
-  </si>
-  <si>
-    <t>最小属性役職数</t>
-  </si>
-  <si>
-    <t>最少附加职业数</t>
-  </si>
-  <si>
-    <t>ModifierCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Modifier Roles</t>
-  </si>
-  <si>
-    <t>最大属性役職数</t>
-  </si>
-  <si>
-    <t>最多附加职业数</t>
+    <t>CrewmateRolesCount</t>
+  </si>
+  <si>
+    <t>Crewmate Roles Count</t>
+  </si>
+  <si>
+    <t>クルーメイト陣営役職数</t>
+  </si>
+  <si>
+    <t>NeutralRolesCount</t>
+  </si>
+  <si>
+    <t>Neutral Roles Count</t>
+  </si>
+  <si>
+    <t>第三陣営役職数</t>
+  </si>
+  <si>
+    <t>ImpostorRolesCount</t>
+  </si>
+  <si>
+    <t>Impostor Roles Count</t>
+  </si>
+  <si>
+    <t>インポスター陣営役職数</t>
+  </si>
+  <si>
+    <t>ModifierCount</t>
+  </si>
+  <si>
+    <t>Modifier Roles Count</t>
+  </si>
+  <si>
+    <t>属性役職数</t>
   </si>
   <si>
     <t>MaxNumberOfMeetings</t>
@@ -3656,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -6382,10 +6322,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6594,582 +6534,540 @@
         <v>456</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="O14" s="17" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="O15" s="17" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="O21" s="17"/>
+      <c r="A21" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M23" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>493</v>
-      </c>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>508</v>
+        <v>501</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="12" t="s">
+        <v>503</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>512</v>
-      </c>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="O31" s="17"/>
+      <c r="A31" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="O32" s="17"/>
+      <c r="A32" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>533</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="O35" s="17"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>535</v>
+        <v>523</v>
+      </c>
+      <c r="B36" t="s">
+        <v>524</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>538</v>
+        <v>527</v>
+      </c>
+      <c r="B37" t="s">
+        <v>528</v>
+      </c>
+      <c r="M37" t="s">
+        <v>529</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
+      </c>
+      <c r="B38" t="s">
+        <v>532</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="2"/>
-      <c r="O39" s="17"/>
+      <c r="A39" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B39" t="s">
+        <v>536</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B40" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B41" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M41" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B42" t="s">
-        <v>552</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>554</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="O42" s="17"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B43" t="s">
-        <v>556</v>
+        <v>547</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B44" t="s">
-        <v>560</v>
+        <v>550</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B45" t="s">
-        <v>564</v>
-      </c>
-      <c r="M45" t="s">
-        <v>565</v>
+        <v>554</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="2"/>
-      <c r="O46" s="17"/>
+      <c r="A46" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>573</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="O48" s="17"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>576</v>
+        <v>138</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>577</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>580</v>
+        <v>142</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>581</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>585</v>
-      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="O51" s="17"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
       <c r="O52" s="17"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="B53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="O53" s="13"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O54" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="O54" s="17"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="O55" s="17"/>
+      <c r="O55" s="13"/>
     </row>
     <row r="56" spans="1:15">
       <c r="O56" s="17"/>
@@ -7183,81 +7081,79 @@
       <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="O59" s="13"/>
+      <c r="B59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="O59" s="17"/>
     </row>
     <row r="60" spans="1:15">
+      <c r="B60" s="1"/>
+      <c r="M60" s="1"/>
       <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="B61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="O61" s="13"/>
+      <c r="B61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="O61" s="17"/>
     </row>
     <row r="62" spans="1:15">
+      <c r="B62" s="1"/>
+      <c r="M62" s="1"/>
       <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:15">
       <c r="B63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="O63" s="17"/>
+      <c r="O63" s="13"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="B64" s="1"/>
-      <c r="M64" s="1"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="2:15">
-      <c r="B65" s="1"/>
-      <c r="M65" s="1"/>
+    <row r="65" spans="15:15">
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="2:15">
-      <c r="B66" s="1"/>
-      <c r="M66" s="1"/>
+    <row r="66" spans="15:15">
       <c r="O66" s="17"/>
     </row>
-    <row r="67" spans="2:15">
-      <c r="B67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="O67" s="13"/>
-    </row>
-    <row r="68" spans="2:15">
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="2:15">
+    <row r="67" spans="15:15">
+      <c r="O67" s="17"/>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="15:15">
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="15:15">
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="2:15">
-      <c r="O71" s="17"/>
-    </row>
-    <row r="72" spans="2:15">
-      <c r="O72" s="13"/>
-    </row>
-    <row r="73" spans="2:15">
-      <c r="O73" s="17"/>
-    </row>
-    <row r="74" spans="2:15">
+    <row r="71" spans="15:15">
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" s="17"/>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="15:15">
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="2:15">
-      <c r="O75" s="13"/>
-    </row>
-    <row r="76" spans="2:15">
+    <row r="75" spans="15:15">
+      <c r="O75" s="17"/>
+    </row>
+    <row r="76" spans="15:15">
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="2:15">
-      <c r="O77" s="13"/>
-    </row>
-    <row r="78" spans="2:15">
+    <row r="77" spans="15:15">
+      <c r="O77" s="17"/>
+    </row>
+    <row r="78" spans="15:15">
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="15:15">
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="15:15">
       <c r="O80" s="17"/>
     </row>
     <row r="81" spans="2:15">
@@ -7273,19 +7169,23 @@
       <c r="O84" s="17"/>
     </row>
     <row r="85" spans="2:15">
-      <c r="O85" s="17"/>
+      <c r="B85" s="6"/>
+      <c r="O85" s="13"/>
     </row>
     <row r="86" spans="2:15">
-      <c r="O86" s="17"/>
+      <c r="O86" s="13"/>
     </row>
     <row r="87" spans="2:15">
-      <c r="O87" s="17"/>
+      <c r="B87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="13"/>
     </row>
     <row r="88" spans="2:15">
+      <c r="B88" s="1"/>
+      <c r="M88" s="1"/>
       <c r="O88" s="17"/>
     </row>
     <row r="89" spans="2:15">
-      <c r="B89" s="6"/>
       <c r="O89" s="13"/>
     </row>
     <row r="90" spans="2:15">
@@ -7299,12 +7199,15 @@
     <row r="92" spans="2:15">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="O92" s="17"/>
+      <c r="O92" s="13"/>
     </row>
     <row r="93" spans="2:15">
+      <c r="B93" s="1"/>
+      <c r="M93" s="1"/>
       <c r="O93" s="13"/>
     </row>
     <row r="94" spans="2:15">
+      <c r="B94" s="1"/>
       <c r="O94" s="13"/>
     </row>
     <row r="95" spans="2:15">
@@ -7324,16 +7227,15 @@
     </row>
     <row r="98" spans="2:15">
       <c r="B98" s="1"/>
+      <c r="M98" s="1"/>
       <c r="O98" s="13"/>
     </row>
     <row r="99" spans="2:15">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="O99" s="13"/>
+      <c r="O99" s="17"/>
     </row>
     <row r="100" spans="2:15">
-      <c r="B100" s="1"/>
-      <c r="M100" s="1"/>
       <c r="O100" s="13"/>
     </row>
     <row r="101" spans="2:15">
@@ -7348,10 +7250,11 @@
     </row>
     <row r="103" spans="2:15">
       <c r="B103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="O103" s="17"/>
+      <c r="O103" s="13"/>
     </row>
     <row r="104" spans="2:15">
+      <c r="B104" s="1"/>
+      <c r="M104" s="1"/>
       <c r="O104" s="13"/>
     </row>
     <row r="105" spans="2:15">
@@ -7363,25 +7266,6 @@
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
       <c r="O106" s="13"/>
-    </row>
-    <row r="107" spans="2:15">
-      <c r="B107" s="1"/>
-      <c r="O107" s="13"/>
-    </row>
-    <row r="108" spans="2:15">
-      <c r="B108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="O108" s="13"/>
-    </row>
-    <row r="109" spans="2:15">
-      <c r="B109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="O109" s="13"/>
-    </row>
-    <row r="110" spans="2:15">
-      <c r="B110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="O110" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -7461,247 +7345,247 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="M2" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="2" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="2" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="11" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="11" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="11" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="11" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="11" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="11" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="11" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="11" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="11" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="11" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="11" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="O20" s="17"/>
     </row>
@@ -7713,16 +7597,16 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -7730,30 +7614,30 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -7762,72 +7646,72 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -7835,61 +7719,61 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="11" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="11" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="11" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="11" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="11" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="O37" s="17"/>
     </row>
@@ -7898,25 +7782,25 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="11" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="11" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="O40" s="17"/>
     </row>
@@ -7925,13 +7809,13 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="11" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="O42" s="17"/>
     </row>
@@ -7940,49 +7824,49 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="11" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="11" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="11" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="O46" s="13"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="11" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="O47" s="13"/>
     </row>
@@ -7991,13 +7875,13 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="B49" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="M49" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="O49" s="17"/>
     </row>
@@ -8390,30 +8274,30 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="B2" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -8421,25 +8305,25 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="11" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="O6" s="17"/>
     </row>
@@ -8448,13 +8332,13 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="11" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="O8" s="17"/>
     </row>
@@ -8919,64 +8803,64 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="11" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="B6" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="M6" t="s">
         <v>278</v>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c28a2233398bfb90/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA19CA99-CBCB-4266-8DA6-EEC340A846BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B315DA9-C31C-4AE8-AD79-913E990A1485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="754">
   <si>
     <t>English</t>
   </si>
@@ -2761,12 +2758,101 @@
   <si>
     <t>Revive</t>
   </si>
+  <si>
+    <t>EvilHacker</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イビルハッカー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>みんなを監視しよう</t>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いつでもどこでもアドミンを使える。</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Let's look after everyone.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すべてを見透かそう</t>
+    <rPh sb="4" eb="6">
+      <t>ミス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Let's see it all through.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>You can use Admin anytime, anywhere.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerCanMoveEvenIfUsesAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Move Even If Uses Admin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動しながらアドミンを使える</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerCanHasBetterAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Has BetterAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改良アドミンを使える</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3156,11 +3242,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -3168,7 +3254,7 @@
     <col min="15" max="15" width="10.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3218,115 +3304,115 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O3" s="5"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="15:15">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O17" s="5"/>
     </row>
-    <row r="19" spans="15:15">
+    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="15:15">
+    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="15:15">
+    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="15:15">
+    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="15:15">
+    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="15:15">
+    <row r="24" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="15:15">
+    <row r="25" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="15:15">
+    <row r="26" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="15:15">
+    <row r="27" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="15:15">
+    <row r="28" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="15:15">
+    <row r="29" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O29" s="4"/>
     </row>
-    <row r="31" spans="15:15">
+    <row r="31" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="15:15">
+    <row r="32" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O35" s="5"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -3341,7 +3427,7 @@
       <c r="M42" s="3"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3356,7 +3442,7 @@
       <c r="M43" s="3"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -3371,7 +3457,7 @@
       <c r="M44" s="3"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -3386,7 +3472,7 @@
       <c r="M45" s="3"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -3401,187 +3487,187 @@
       <c r="M46" s="3"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B47" s="3"/>
       <c r="M47" s="3"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O49" s="5"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B51" s="3"/>
       <c r="M51" s="3"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="M53" s="1"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="M54" s="1"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B55" s="1"/>
       <c r="M55" s="1"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="M56" s="1"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="M57" s="1"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O62" s="5"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O65" s="5"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O67" s="5"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B79" s="6"/>
       <c r="O79" s="5"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
       <c r="M81" s="1"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B82" s="1"/>
       <c r="M82" s="1"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O83" s="5"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
       <c r="M85" s="1"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B86" s="1"/>
       <c r="M86" s="1"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="M87" s="1"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B89" s="1"/>
       <c r="M89" s="1"/>
       <c r="O89" s="4"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B90" s="1"/>
       <c r="M90" s="1"/>
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
       <c r="M93" s="1"/>
       <c r="O93" s="4"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O94"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="M95" s="1"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="M96" s="1"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="M98" s="1"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
       <c r="O99" s="4"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
       <c r="M100" s="1"/>
       <c r="O100" s="4"/>
@@ -3596,11 +3682,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="45.375" customWidth="1"/>
@@ -3609,7 +3695,7 @@
     <col min="15" max="15" width="46.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3662,7 +3748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3676,7 +3762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -3690,10 +3776,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3707,7 +3793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -3721,7 +3807,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -3735,7 +3821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -3749,7 +3835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -3763,7 +3849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -3777,11 +3863,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -3795,7 +3881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>52</v>
       </c>
@@ -3809,7 +3895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -3823,7 +3909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -3837,7 +3923,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>63</v>
       </c>
@@ -3851,10 +3937,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -3869,7 +3955,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -3883,7 +3969,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>75</v>
       </c>
@@ -3897,7 +3983,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -3911,7 +3997,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
@@ -3925,7 +4011,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>87</v>
       </c>
@@ -3937,7 +4023,7 @@
       </c>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -3951,7 +4037,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>94</v>
       </c>
@@ -3965,10 +4051,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>98</v>
       </c>
@@ -3982,7 +4068,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
@@ -3996,7 +4082,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>105</v>
       </c>
@@ -4010,10 +4096,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -4027,10 +4113,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="1:15" ht="56.25">
+    <row r="33" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
@@ -4044,10 +4130,10 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:15" ht="37.5">
+    <row r="35" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -4061,7 +4147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>120</v>
       </c>
@@ -4075,7 +4161,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="37.5">
+    <row r="37" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>124</v>
       </c>
@@ -4089,7 +4175,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="56.25">
+    <row r="38" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>128</v>
       </c>
@@ -4103,7 +4189,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>132</v>
       </c>
@@ -4117,7 +4203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="56.25">
+    <row r="40" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>136</v>
       </c>
@@ -4131,7 +4217,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="37.5">
+    <row r="41" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -4145,10 +4231,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>138</v>
       </c>
@@ -4162,7 +4248,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>142</v>
       </c>
@@ -4176,13 +4262,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="M45" s="7"/>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>146</v>
       </c>
@@ -4196,7 +4282,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>149</v>
       </c>
@@ -4210,7 +4296,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>153</v>
       </c>
@@ -4224,7 +4310,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>156</v>
       </c>
@@ -4238,7 +4324,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
@@ -4252,10 +4338,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>161</v>
       </c>
@@ -4269,7 +4355,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>165</v>
       </c>
@@ -4283,10 +4369,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:15" ht="56.25">
+    <row r="55" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>169</v>
       </c>
@@ -4300,7 +4386,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="408.95" customHeight="1">
+    <row r="56" spans="1:15" ht="408.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>173</v>
       </c>
@@ -4314,7 +4400,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>177</v>
       </c>
@@ -4328,7 +4414,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -4343,7 +4429,7 @@
       <c r="M58" s="3"/>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>181</v>
       </c>
@@ -4367,7 +4453,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="8"/>
       <c r="C60" s="3"/>
@@ -4383,7 +4469,7 @@
       <c r="M60" s="8"/>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>185</v>
       </c>
@@ -4407,7 +4493,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>189</v>
       </c>
@@ -4421,7 +4507,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>193</v>
       </c>
@@ -4435,12 +4521,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B64" s="3"/>
       <c r="M64" s="3"/>
       <c r="O64" s="14"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>197</v>
       </c>
@@ -4454,10 +4540,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O66" s="14"/>
     </row>
-    <row r="67" spans="1:15" ht="37.5">
+    <row r="67" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>201</v>
       </c>
@@ -4471,7 +4557,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="37.5">
+    <row r="68" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
@@ -4485,7 +4571,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="37.5">
+    <row r="69" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>209</v>
       </c>
@@ -4499,7 +4585,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="37.5">
+    <row r="70" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>213</v>
       </c>
@@ -4513,7 +4599,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="37.5">
+    <row r="71" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
         <v>217</v>
       </c>
@@ -4525,7 +4611,7 @@
       </c>
       <c r="O71" s="14"/>
     </row>
-    <row r="72" spans="1:15" ht="37.5">
+    <row r="72" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>220</v>
       </c>
@@ -4537,13 +4623,13 @@
       </c>
       <c r="O72" s="14"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B73" s="1"/>
       <c r="O73" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>224</v>
       </c>
@@ -4557,7 +4643,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="37.5">
+    <row r="75" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>228</v>
       </c>
@@ -4571,7 +4657,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="37.5">
+    <row r="76" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>232</v>
       </c>
@@ -4585,7 +4671,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="36.75">
+    <row r="77" spans="1:15" ht="36.75" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>236</v>
       </c>
@@ -4599,7 +4685,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="75">
+    <row r="78" spans="1:15" ht="75" x14ac:dyDescent="0.4">
       <c r="A78" s="11" t="s">
         <v>240</v>
       </c>
@@ -4611,12 +4697,12 @@
       </c>
       <c r="O78" s="13"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="11" t="s">
         <v>243</v>
       </c>
@@ -4628,7 +4714,7 @@
       </c>
       <c r="O80" s="13"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>246</v>
       </c>
@@ -4640,7 +4726,7 @@
       </c>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" s="11" t="s">
         <v>249</v>
       </c>
@@ -4652,7 +4738,7 @@
       </c>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" s="11" t="s">
         <v>252</v>
       </c>
@@ -4664,7 +4750,7 @@
       </c>
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" s="11" t="s">
         <v>255</v>
       </c>
@@ -4676,7 +4762,7 @@
       </c>
       <c r="O84" s="17"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" s="11" t="s">
         <v>258</v>
       </c>
@@ -4688,7 +4774,7 @@
       </c>
       <c r="O85" s="17"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" s="11" t="s">
         <v>261</v>
       </c>
@@ -4700,7 +4786,7 @@
       </c>
       <c r="O86" s="17"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87" s="11" t="s">
         <v>264</v>
       </c>
@@ -4712,7 +4798,7 @@
       </c>
       <c r="O87" s="17"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A88" s="11" t="s">
         <v>267</v>
       </c>
@@ -4724,7 +4810,7 @@
       </c>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A89" s="11" t="s">
         <v>270</v>
       </c>
@@ -4736,7 +4822,7 @@
       </c>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" s="11" t="s">
         <v>273</v>
       </c>
@@ -4748,7 +4834,7 @@
       </c>
       <c r="O90" s="17"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" s="11" t="s">
         <v>276</v>
       </c>
@@ -4760,10 +4846,10 @@
       </c>
       <c r="O91" s="17"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O92" s="17"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="11" t="s">
         <v>279</v>
       </c>
@@ -4775,7 +4861,7 @@
       </c>
       <c r="O93" s="13"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" s="11" t="s">
         <v>281</v>
       </c>
@@ -4787,7 +4873,7 @@
       </c>
       <c r="O94" s="13"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" s="11" t="s">
         <v>283</v>
       </c>
@@ -4799,7 +4885,7 @@
       </c>
       <c r="O95" s="13"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" s="11" t="s">
         <v>285</v>
       </c>
@@ -4811,7 +4897,7 @@
       </c>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>287</v>
       </c>
@@ -4823,98 +4909,98 @@
       </c>
       <c r="O97" s="13"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="O98" s="13"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
       <c r="O99" s="13"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
       <c r="M100" s="1"/>
       <c r="O100" s="13"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O101" s="13"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O102" s="13"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
       <c r="M103" s="1"/>
       <c r="O103" s="13"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
       <c r="M104" s="1"/>
       <c r="O104" s="13"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="M105" s="1"/>
       <c r="O105" s="13"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
       <c r="O106" s="13"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
       <c r="M107" s="1"/>
       <c r="O107" s="17"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B108" s="1"/>
       <c r="M108" s="1"/>
       <c r="O108" s="13"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B109" s="1"/>
       <c r="M109" s="1"/>
       <c r="O109" s="13"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B110" s="1"/>
       <c r="M110" s="1"/>
       <c r="O110" s="13"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B111" s="1"/>
       <c r="M111" s="1"/>
       <c r="O111" s="13"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O112" s="13"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B113" s="1"/>
       <c r="M113" s="1"/>
       <c r="O113" s="13"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B114" s="1"/>
       <c r="M114" s="1"/>
       <c r="O114" s="13"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B115" s="1"/>
       <c r="O115" s="17"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B116" s="1"/>
       <c r="M116" s="1"/>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B117" s="1"/>
       <c r="M117" s="1"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B118" s="1"/>
       <c r="M118" s="1"/>
       <c r="O118"/>
@@ -4928,13 +5014,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -4943,7 +5029,7 @@
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4996,7 +5082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -5010,7 +5096,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>292</v>
       </c>
@@ -5024,10 +5110,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -5041,7 +5127,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>298</v>
       </c>
@@ -5055,7 +5141,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>301</v>
       </c>
@@ -5069,7 +5155,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>304</v>
       </c>
@@ -5083,7 +5169,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>308</v>
       </c>
@@ -5097,7 +5183,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>312</v>
       </c>
@@ -5109,7 +5195,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>315</v>
       </c>
@@ -5121,7 +5207,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>317</v>
       </c>
@@ -5133,7 +5219,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>319</v>
       </c>
@@ -5145,7 +5231,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>321</v>
       </c>
@@ -5157,128 +5243,125 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="2" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O17" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15">
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="O22" s="5"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O23" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15">
-      <c r="O34" s="4"/>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O35" s="4"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O40" s="5"/>
     </row>
-    <row r="42" spans="2:15">
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O41" s="5"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5293,7 +5376,7 @@
       <c r="M48" s="3"/>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -5308,7 +5391,7 @@
       <c r="M49" s="3"/>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -5323,7 +5406,7 @@
       <c r="M50" s="3"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -5338,190 +5421,205 @@
       <c r="M51" s="3"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="2:15">
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="O54" s="5"/>
-    </row>
-    <row r="56" spans="2:15">
-      <c r="B56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="O56" s="5"/>
-    </row>
-    <row r="58" spans="2:15">
-      <c r="B58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="O58" s="5"/>
-    </row>
-    <row r="59" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O55" s="5"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B59" s="1"/>
       <c r="M59" s="1"/>
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B60" s="1"/>
       <c r="M60" s="1"/>
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
       <c r="M61" s="1"/>
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B62" s="1"/>
       <c r="M62" s="1"/>
       <c r="O62" s="5"/>
     </row>
-    <row r="64" spans="2:15">
-      <c r="O64" s="5"/>
-    </row>
-    <row r="65" spans="15:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O65" s="5"/>
     </row>
-    <row r="66" spans="15:15">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O66" s="5"/>
     </row>
-    <row r="67" spans="15:15">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O67" s="5"/>
     </row>
-    <row r="69" spans="15:15">
-      <c r="O69" s="5"/>
-    </row>
-    <row r="70" spans="15:15">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O68" s="5"/>
+    </row>
+    <row r="70" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O70" s="5"/>
     </row>
-    <row r="72" spans="15:15">
-      <c r="O72" s="5"/>
-    </row>
-    <row r="74" spans="15:15">
-      <c r="O74" s="5"/>
-    </row>
-    <row r="75" spans="15:15">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O71" s="5"/>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O73" s="5"/>
+    </row>
+    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="15:15">
+    <row r="76" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="15:15">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="15:15">
+    <row r="78" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="15:15">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O79" s="5"/>
     </row>
-    <row r="80" spans="15:15">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O80" s="5"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O81" s="5"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O82" s="5"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O83" s="5"/>
     </row>
-    <row r="84" spans="2:15">
-      <c r="B84" s="6"/>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O84" s="5"/>
     </row>
-    <row r="86" spans="2:15">
-      <c r="B86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B85" s="6"/>
+      <c r="O85" s="5"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="M87" s="1"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="2:15">
-      <c r="O88" s="5"/>
-    </row>
-    <row r="90" spans="2:15">
-      <c r="B90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O89" s="5"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
+      <c r="M93" s="1"/>
       <c r="O93" s="4"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B94" s="1"/>
-      <c r="M94" s="1"/>
       <c r="O94" s="4"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="M95" s="1"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="M96" s="1"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="M97" s="1"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="M98" s="1"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="2:15">
-      <c r="O99"/>
-    </row>
-    <row r="100" spans="2:15">
-      <c r="B100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="O99" s="4"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O100"/>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B101" s="1"/>
       <c r="M101" s="1"/>
       <c r="O101" s="4"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
+      <c r="M102" s="1"/>
       <c r="O102" s="4"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
-      <c r="M103" s="1"/>
       <c r="O103" s="4"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
       <c r="M104" s="1"/>
       <c r="O104" s="4"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="M105" s="1"/>
       <c r="O105" s="4"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="O106" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5533,11 +5631,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
@@ -5546,7 +5644,7 @@
     <col min="15" max="15" width="50.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5599,7 +5697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>329</v>
       </c>
@@ -5613,7 +5711,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>333</v>
       </c>
@@ -5627,7 +5725,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>334</v>
       </c>
@@ -5641,7 +5739,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>338</v>
       </c>
@@ -5655,7 +5753,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -5669,7 +5767,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="37.5">
+    <row r="7" spans="1:18" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -5683,10 +5781,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>347</v>
       </c>
@@ -5700,7 +5798,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>351</v>
       </c>
@@ -5714,7 +5812,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="56.25">
+    <row r="11" spans="1:18" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>353</v>
       </c>
@@ -5728,7 +5826,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>357</v>
       </c>
@@ -5742,7 +5840,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>361</v>
       </c>
@@ -5756,7 +5854,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="33.75">
+    <row r="14" spans="1:18" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>362</v>
       </c>
@@ -5770,7 +5868,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>364</v>
       </c>
@@ -5784,7 +5882,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>368</v>
       </c>
@@ -5798,7 +5896,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="37.5">
+    <row r="17" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>370</v>
       </c>
@@ -5812,7 +5910,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>374</v>
       </c>
@@ -5826,7 +5924,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>378</v>
       </c>
@@ -5840,7 +5938,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>379</v>
       </c>
@@ -5854,7 +5952,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>383</v>
       </c>
@@ -5868,7 +5966,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>387</v>
       </c>
@@ -5882,7 +5980,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="37.5">
+    <row r="23" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>388</v>
       </c>
@@ -5896,7 +5994,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>392</v>
       </c>
@@ -5908,7 +6006,7 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
         <v>395</v>
       </c>
@@ -5920,7 +6018,7 @@
       </c>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
         <v>397</v>
       </c>
@@ -5932,7 +6030,7 @@
       </c>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>398</v>
       </c>
@@ -5944,7 +6042,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
         <v>401</v>
       </c>
@@ -5956,7 +6054,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15" ht="37.5">
+    <row r="29" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
         <v>403</v>
       </c>
@@ -5968,7 +6066,7 @@
       </c>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="11" t="s">
         <v>406</v>
       </c>
@@ -5979,7 +6077,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>409</v>
       </c>
@@ -5991,7 +6089,7 @@
       </c>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>412</v>
       </c>
@@ -6003,7 +6101,7 @@
       </c>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>415</v>
       </c>
@@ -6015,7 +6113,7 @@
       </c>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>418</v>
       </c>
@@ -6027,7 +6125,7 @@
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>421</v>
       </c>
@@ -6039,22 +6137,51 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>745</v>
+      </c>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>743</v>
+      </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -6069,7 +6196,7 @@
       <c r="M42" s="3"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6084,7 +6211,7 @@
       <c r="M43" s="3"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6099,7 +6226,7 @@
       <c r="M44" s="3"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6114,7 +6241,7 @@
       <c r="M45" s="3"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6129,187 +6256,187 @@
       <c r="M46" s="3"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B47" s="3"/>
       <c r="M47" s="3"/>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O49" s="5"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B51" s="3"/>
       <c r="M51" s="3"/>
       <c r="O51" s="5"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="M53" s="1"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="M54" s="1"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B55" s="1"/>
       <c r="M55" s="1"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="M56" s="1"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="M57" s="1"/>
       <c r="O57" s="5"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O61" s="5"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O62" s="5"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O65" s="5"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O67" s="5"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O78" s="5"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B79" s="6"/>
       <c r="O79" s="5"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
       <c r="M81" s="1"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B82" s="1"/>
       <c r="M82" s="1"/>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O83" s="5"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
       <c r="M85" s="1"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B86" s="1"/>
       <c r="M86" s="1"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="M87" s="1"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B89" s="1"/>
       <c r="M89" s="1"/>
       <c r="O89" s="4"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B90" s="1"/>
       <c r="M90" s="1"/>
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
       <c r="M93" s="1"/>
       <c r="O93" s="4"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O94"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="M95" s="1"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="M96" s="1"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="M98" s="1"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
       <c r="O99" s="4"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
       <c r="M100" s="1"/>
       <c r="O100" s="4"/>
@@ -6324,11 +6451,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -6337,7 +6464,7 @@
     <col min="15" max="15" width="30" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6390,7 +6517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>423</v>
       </c>
@@ -6404,7 +6531,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>427</v>
       </c>
@@ -6418,7 +6545,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>431</v>
       </c>
@@ -6432,7 +6559,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>435</v>
       </c>
@@ -6446,10 +6573,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>439</v>
       </c>
@@ -6463,7 +6590,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>442</v>
       </c>
@@ -6477,7 +6604,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>444</v>
       </c>
@@ -6491,7 +6618,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>447</v>
       </c>
@@ -6505,7 +6632,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>450</v>
       </c>
@@ -6519,11 +6646,11 @@
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>454</v>
       </c>
@@ -6537,7 +6664,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>457</v>
       </c>
@@ -6551,7 +6678,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>460</v>
       </c>
@@ -6565,7 +6692,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>463</v>
       </c>
@@ -6579,10 +6706,10 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>466</v>
       </c>
@@ -6596,7 +6723,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>470</v>
       </c>
@@ -6610,7 +6737,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>474</v>
       </c>
@@ -6624,7 +6751,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>478</v>
       </c>
@@ -6638,7 +6765,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>482</v>
       </c>
@@ -6652,7 +6779,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>486</v>
       </c>
@@ -6664,7 +6791,7 @@
       </c>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>489</v>
       </c>
@@ -6678,7 +6805,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>493</v>
       </c>
@@ -6692,7 +6819,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>497</v>
       </c>
@@ -6706,7 +6833,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
         <v>501</v>
       </c>
@@ -6728,10 +6855,10 @@
       </c>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>504</v>
       </c>
@@ -6745,7 +6872,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>508</v>
       </c>
@@ -6759,7 +6886,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>511</v>
       </c>
@@ -6773,7 +6900,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>514</v>
       </c>
@@ -6787,7 +6914,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>517</v>
       </c>
@@ -6801,7 +6928,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>520</v>
       </c>
@@ -6815,11 +6942,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>523</v>
       </c>
@@ -6833,7 +6960,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>527</v>
       </c>
@@ -6847,7 +6974,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>531</v>
       </c>
@@ -6861,7 +6988,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>535</v>
       </c>
@@ -6875,7 +7002,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>539</v>
       </c>
@@ -6889,7 +7016,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>543</v>
       </c>
@@ -6903,11 +7030,11 @@
         <v>546</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>547</v>
       </c>
@@ -6921,7 +7048,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>550</v>
       </c>
@@ -6935,7 +7062,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>554</v>
       </c>
@@ -6949,7 +7076,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>558</v>
       </c>
@@ -6963,7 +7090,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>562</v>
       </c>
@@ -6977,7 +7104,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -6992,7 +7119,7 @@
       <c r="M48" s="3"/>
       <c r="O48" s="17"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>138</v>
       </c>
@@ -7016,7 +7143,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -7040,7 +7167,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -7055,214 +7182,214 @@
       <c r="M51" s="3"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O52" s="17"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B53" s="3"/>
       <c r="M53" s="3"/>
       <c r="O53" s="13"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O55" s="13"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B57" s="3"/>
       <c r="M57" s="3"/>
       <c r="O57" s="13"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B59" s="1"/>
       <c r="M59" s="1"/>
       <c r="O59" s="17"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B60" s="1"/>
       <c r="M60" s="1"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B61" s="1"/>
       <c r="M61" s="1"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B62" s="1"/>
       <c r="M62" s="1"/>
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B63" s="1"/>
       <c r="M63" s="1"/>
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="15:15">
+    <row r="65" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="15:15">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O66" s="17"/>
     </row>
-    <row r="67" spans="15:15">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="15:15">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O68" s="13"/>
     </row>
-    <row r="69" spans="15:15">
+    <row r="69" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="15:15">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="15:15">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O71" s="13"/>
     </row>
-    <row r="72" spans="15:15">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O72" s="17"/>
     </row>
-    <row r="73" spans="15:15">
+    <row r="73" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O73" s="13"/>
     </row>
-    <row r="74" spans="15:15">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="15:15">
+    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="15:15">
+    <row r="76" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="15:15">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O77" s="17"/>
     </row>
-    <row r="78" spans="15:15">
+    <row r="78" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="15:15">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="15:15">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O80" s="17"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O84" s="17"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B85" s="6"/>
       <c r="O85" s="13"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O86" s="13"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="M87" s="1"/>
       <c r="O87" s="13"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
       <c r="M88" s="1"/>
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O89" s="13"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O90" s="13"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
       <c r="O91" s="13"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
       <c r="O92" s="13"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
       <c r="M93" s="1"/>
       <c r="O93" s="13"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B94" s="1"/>
       <c r="O94" s="13"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="M95" s="1"/>
       <c r="O95" s="13"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="M96" s="1"/>
       <c r="O96" s="13"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="M97" s="1"/>
       <c r="O97" s="13"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="M98" s="1"/>
       <c r="O98" s="13"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
       <c r="O99" s="17"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O100" s="13"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B101" s="1"/>
       <c r="M101" s="1"/>
       <c r="O101" s="13"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
       <c r="M102" s="1"/>
       <c r="O102" s="13"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
       <c r="O103" s="13"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
       <c r="M104" s="1"/>
       <c r="O104" s="13"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="M105" s="1"/>
       <c r="O105" s="13"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
       <c r="O106" s="13"/>
@@ -7277,11 +7404,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -7290,7 +7417,7 @@
     <col min="15" max="15" width="39.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7343,7 +7470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>566</v>
       </c>
@@ -7357,7 +7484,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>570</v>
       </c>
@@ -7371,7 +7498,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>574</v>
       </c>
@@ -7385,7 +7512,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>578</v>
       </c>
@@ -7399,7 +7526,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>582</v>
       </c>
@@ -7413,7 +7540,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>586</v>
       </c>
@@ -7427,7 +7554,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>590</v>
       </c>
@@ -7441,7 +7568,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>594</v>
       </c>
@@ -7455,7 +7582,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>598</v>
       </c>
@@ -7469,7 +7596,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>602</v>
       </c>
@@ -7481,7 +7608,7 @@
       </c>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>605</v>
       </c>
@@ -7493,7 +7620,7 @@
       </c>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>608</v>
       </c>
@@ -7505,7 +7632,7 @@
       </c>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>611</v>
       </c>
@@ -7517,7 +7644,7 @@
       </c>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>614</v>
       </c>
@@ -7529,7 +7656,7 @@
       </c>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>617</v>
       </c>
@@ -7541,7 +7668,7 @@
       </c>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>620</v>
       </c>
@@ -7553,7 +7680,7 @@
       </c>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>623</v>
       </c>
@@ -7565,7 +7692,7 @@
       </c>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>626</v>
       </c>
@@ -7577,7 +7704,7 @@
       </c>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>629</v>
       </c>
@@ -7589,13 +7716,13 @@
       </c>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="M21" s="2"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>632</v>
       </c>
@@ -7609,10 +7736,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>636</v>
       </c>
@@ -7626,7 +7753,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>640</v>
       </c>
@@ -7640,11 +7767,11 @@
         <v>643</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>644</v>
       </c>
@@ -7658,7 +7785,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>648</v>
       </c>
@@ -7672,7 +7799,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>652</v>
       </c>
@@ -7686,7 +7813,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>656</v>
       </c>
@@ -7700,7 +7827,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>660</v>
       </c>
@@ -7714,10 +7841,10 @@
         <v>663</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>664</v>
       </c>
@@ -7729,7 +7856,7 @@
       </c>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>667</v>
       </c>
@@ -7741,7 +7868,7 @@
       </c>
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
         <v>670</v>
       </c>
@@ -7753,7 +7880,7 @@
       </c>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
         <v>673</v>
       </c>
@@ -7765,7 +7892,7 @@
       </c>
       <c r="O36" s="17"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>676</v>
       </c>
@@ -7777,10 +7904,10 @@
       </c>
       <c r="O37" s="17"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
         <v>679</v>
       </c>
@@ -7792,7 +7919,7 @@
       </c>
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
         <v>682</v>
       </c>
@@ -7804,10 +7931,10 @@
       </c>
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
         <v>685</v>
       </c>
@@ -7819,10 +7946,10 @@
       </c>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
         <v>688</v>
       </c>
@@ -7834,7 +7961,7 @@
       </c>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>691</v>
       </c>
@@ -7846,7 +7973,7 @@
       </c>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>694</v>
       </c>
@@ -7858,7 +7985,7 @@
       </c>
       <c r="O46" s="13"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>697</v>
       </c>
@@ -7870,10 +7997,10 @@
       </c>
       <c r="O47" s="13"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O48" s="17"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>700</v>
       </c>
@@ -7885,34 +8012,52 @@
       </c>
       <c r="O49" s="17"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O50" s="17"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>750</v>
+      </c>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>753</v>
+      </c>
       <c r="O52" s="17"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O53" s="13"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O55" s="17"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O57" s="17"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O58" s="17"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -7927,7 +8072,7 @@
       <c r="M59" s="3"/>
       <c r="O59" s="17"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -7942,7 +8087,7 @@
       <c r="M60" s="3"/>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -7957,7 +8102,7 @@
       <c r="M61" s="3"/>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -7972,7 +8117,7 @@
       <c r="M62" s="3"/>
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7987,211 +8132,211 @@
       <c r="M63" s="3"/>
       <c r="O63" s="17"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B64" s="3"/>
       <c r="M64" s="3"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O65" s="13"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O66" s="17"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O67" s="13"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B68" s="3"/>
       <c r="M68" s="3"/>
       <c r="O68" s="17"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O69" s="13"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B70" s="1"/>
       <c r="M70" s="1"/>
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B71" s="1"/>
       <c r="M71" s="1"/>
       <c r="O71" s="17"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B72" s="1"/>
       <c r="M72" s="1"/>
       <c r="O72" s="17"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B73" s="1"/>
       <c r="M73" s="1"/>
       <c r="O73" s="17"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B74" s="1"/>
       <c r="M74" s="1"/>
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O75" s="13"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O77" s="17"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O80" s="13"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O83" s="13"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O84" s="17"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O85" s="13"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O86" s="17"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O87" s="17"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O88" s="17"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O90" s="17"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O91" s="17"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O92" s="17"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O93" s="17"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O94" s="17"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="6"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O97" s="13"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="M98" s="1"/>
       <c r="O98" s="13"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
       <c r="O99" s="13"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O100" s="17"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O101" s="13"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
       <c r="M102" s="1"/>
       <c r="O102" s="13"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
       <c r="M103" s="1"/>
       <c r="O103" s="13"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
       <c r="M104" s="1"/>
       <c r="O104" s="13"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="O105" s="13"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
       <c r="O106" s="13"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
       <c r="M107" s="1"/>
       <c r="O107" s="13"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B108" s="1"/>
       <c r="M108" s="1"/>
       <c r="O108" s="13"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B109" s="1"/>
       <c r="M109" s="1"/>
       <c r="O109" s="13"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B110" s="1"/>
       <c r="M110" s="1"/>
       <c r="O110" s="13"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O111" s="17"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B112" s="1"/>
       <c r="M112" s="1"/>
       <c r="O112" s="13"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B113" s="1"/>
       <c r="M113" s="1"/>
       <c r="O113" s="13"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B114" s="1"/>
       <c r="O114" s="13"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B115" s="1"/>
       <c r="M115" s="1"/>
       <c r="O115" s="13"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B116" s="1"/>
       <c r="M116" s="1"/>
       <c r="O116" s="13"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B117" s="1"/>
       <c r="M117" s="1"/>
       <c r="O117" s="13"/>
@@ -8210,7 +8355,7 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -8219,7 +8364,7 @@
     <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8272,7 +8417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>703</v>
       </c>
@@ -8286,7 +8431,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>707</v>
       </c>
@@ -8300,10 +8445,10 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>711</v>
       </c>
@@ -8315,7 +8460,7 @@
       </c>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>714</v>
       </c>
@@ -8327,10 +8472,10 @@
       </c>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>717</v>
       </c>
@@ -8342,106 +8487,106 @@
       </c>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O13" s="17"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O14" s="17"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="15:15">
+    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O17" s="17"/>
     </row>
-    <row r="18" spans="15:15">
+    <row r="18" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="15:15">
+    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O19" s="17"/>
     </row>
-    <row r="20" spans="15:15">
+    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="15:15">
+    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="15:15">
+    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O22" s="17"/>
     </row>
-    <row r="23" spans="15:15">
+    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O23" s="17"/>
     </row>
-    <row r="24" spans="15:15">
+    <row r="24" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="15:15">
+    <row r="25" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="15:15">
+    <row r="26" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="15:15">
+    <row r="27" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="15:15">
+    <row r="28" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="15:15">
+    <row r="29" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="15:15">
+    <row r="30" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="15:15">
+    <row r="31" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O31" s="17"/>
     </row>
-    <row r="32" spans="15:15">
+    <row r="32" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O32" s="17"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O33" s="17"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O34" s="17"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O35" s="17"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O37" s="17"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O38" s="17"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O39" s="17"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O40" s="17"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O41" s="17"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8456,7 +8601,7 @@
       <c r="M42" s="3"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -8471,7 +8616,7 @@
       <c r="M43" s="3"/>
       <c r="O43" s="17"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -8486,7 +8631,7 @@
       <c r="M44" s="3"/>
       <c r="O44" s="17"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -8501,7 +8646,7 @@
       <c r="M45" s="3"/>
       <c r="O45" s="17"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -8516,211 +8661,211 @@
       <c r="M46" s="3"/>
       <c r="O46" s="17"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B47" s="3"/>
       <c r="M47" s="3"/>
       <c r="O47" s="17"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O48" s="13"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O49" s="17"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O50" s="13"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B51" s="3"/>
       <c r="M51" s="3"/>
       <c r="O51" s="17"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O52" s="13"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="M53" s="1"/>
       <c r="O53" s="17"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="M54" s="1"/>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B55" s="1"/>
       <c r="M55" s="1"/>
       <c r="O55" s="17"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="M56" s="1"/>
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="M57" s="1"/>
       <c r="O57" s="17"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O58" s="13"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O59" s="17"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O62" s="17"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O63" s="13"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O66" s="13"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O67" s="17"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O68" s="13"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O71" s="17"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O72" s="17"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O73" s="17"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O75" s="17"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O77" s="17"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B79" s="6"/>
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O80" s="13"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
       <c r="M81" s="1"/>
       <c r="O81" s="13"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B82" s="1"/>
       <c r="M82" s="1"/>
       <c r="O82" s="13"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O84" s="13"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
       <c r="M85" s="1"/>
       <c r="O85" s="13"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B86" s="1"/>
       <c r="M86" s="1"/>
       <c r="O86" s="13"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="M87" s="1"/>
       <c r="O87" s="13"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
       <c r="O88" s="13"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B89" s="1"/>
       <c r="M89" s="1"/>
       <c r="O89" s="13"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B90" s="1"/>
       <c r="M90" s="1"/>
       <c r="O90" s="13"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
       <c r="O91" s="13"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
       <c r="O92" s="13"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
       <c r="M93" s="1"/>
       <c r="O93" s="13"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O94" s="17"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="M95" s="1"/>
       <c r="O95" s="13"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="M96" s="1"/>
       <c r="O96" s="13"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="O97" s="13"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="M98" s="1"/>
       <c r="O98" s="13"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
       <c r="O99" s="13"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
       <c r="M100" s="1"/>
       <c r="O100" s="13"/>
@@ -8736,10 +8881,10 @@
   <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="37.25" customWidth="1"/>
@@ -8748,7 +8893,7 @@
     <col min="15" max="15" width="16.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8801,7 +8946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>720</v>
       </c>
@@ -8815,7 +8960,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>724</v>
       </c>
@@ -8829,7 +8974,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>728</v>
       </c>
@@ -8843,7 +8988,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
         <v>732</v>
       </c>
@@ -8855,7 +9000,7 @@
       </c>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>735</v>
       </c>
@@ -8867,100 +9012,100 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="O16" s="5"/>
     </row>
-    <row r="18" spans="15:15">
+    <row r="18" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="15:15">
+    <row r="19" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="15:15">
+    <row r="20" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="15:15">
+    <row r="21" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="15:15">
+    <row r="22" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="15:15">
+    <row r="23" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="15:15">
+    <row r="24" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="15:15">
+    <row r="25" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="15:15">
+    <row r="26" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="15:15">
+    <row r="27" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="15:15">
+    <row r="28" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O28" s="4"/>
     </row>
-    <row r="30" spans="15:15">
+    <row r="30" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="15:15">
+    <row r="31" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="15:15">
+    <row r="32" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O34" s="5"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -8975,7 +9120,7 @@
       <c r="M41" s="3"/>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -8990,7 +9135,7 @@
       <c r="M42" s="3"/>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -9005,7 +9150,7 @@
       <c r="M43" s="3"/>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -9020,7 +9165,7 @@
       <c r="M44" s="3"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -9035,187 +9180,187 @@
       <c r="M45" s="3"/>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B46" s="3"/>
       <c r="M46" s="3"/>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O48" s="5"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B50" s="3"/>
       <c r="M50" s="3"/>
       <c r="O50" s="5"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
       <c r="M52" s="1"/>
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="M53" s="1"/>
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="M54" s="1"/>
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B55" s="1"/>
       <c r="M55" s="1"/>
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="M56" s="1"/>
       <c r="O56" s="5"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O61" s="5"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O63" s="5"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O64" s="5"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O66" s="5"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O68" s="5"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O70" s="5"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O71" s="5"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O75" s="5"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="2:15">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O77" s="5"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B78" s="6"/>
       <c r="O78" s="5"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B80" s="1"/>
       <c r="M80" s="1"/>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
       <c r="M81" s="1"/>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O82" s="5"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B84" s="1"/>
       <c r="M84" s="1"/>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
       <c r="M85" s="1"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B86" s="1"/>
       <c r="M86" s="1"/>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
       <c r="M88" s="1"/>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B89" s="1"/>
       <c r="M89" s="1"/>
       <c r="O89" s="4"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B90" s="1"/>
       <c r="M90" s="1"/>
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B91" s="1"/>
       <c r="M91" s="1"/>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O93"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B94" s="1"/>
       <c r="M94" s="1"/>
       <c r="O94" s="4"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
       <c r="M95" s="1"/>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B96" s="1"/>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B97" s="1"/>
       <c r="M97" s="1"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
       <c r="M98" s="1"/>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
       <c r="O99" s="4"/>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B315DA9-C31C-4AE8-AD79-913E990A1485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E18835-F0F9-447A-BEA6-DFA171223251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -5631,8 +5631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7404,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E18835-F0F9-447A-BEA6-DFA171223251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA3921-73F7-4621-BCE8-09849CBFA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="769">
   <si>
     <t>English</t>
   </si>
@@ -2844,6 +2844,84 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境</t>
+    <rPh sb="0" eb="2">
+      <t>ギャッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity to Power.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境を力に。</t>
+    <rPh sb="0" eb="2">
+      <t>ギャッキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インポスターが一人のとき、設定したキルクールになる。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Shorter kill cooldowns when there is only one imposter.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityStateKillCooldown</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity State KillCooldown</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境状態のときのキルクールダウン</t>
+    <rPh sb="0" eb="4">
+      <t>ギャッキョウジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityStateCanFindMadmate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity State Can Find MadMate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境状態のときにマッドメイトを探すことができる</t>
+    <rPh sb="0" eb="4">
+      <t>ギャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サガ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -5014,10 +5092,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R106"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5255,36 +5333,45 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>325</v>
-      </c>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="O16" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="O18" s="17" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O19" s="17" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O20" s="5"/>
@@ -5293,13 +5380,13 @@
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O22" s="4"/>
+      <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O23" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O25" s="5"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O24" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O26" s="5"/>
@@ -5322,58 +5409,46 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O35" s="4"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O36" s="4"/>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O41" s="5"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O42" s="5"/>
+    </row>
+    <row r="44" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+    <row r="48" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
@@ -5438,24 +5513,34 @@
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="O53" s="5"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="O54" s="5"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O55" s="5"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="O57" s="5"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="O59" s="5"/>
+      <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O56" s="5"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="O58" s="5"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B60" s="1"/>
@@ -5477,8 +5562,10 @@
       <c r="M63" s="1"/>
       <c r="O63" s="5"/>
     </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O65" s="5"/>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="O64" s="5"/>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O66" s="5"/>
@@ -5489,17 +5576,17 @@
     <row r="68" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O68" s="5"/>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O70" s="5"/>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O69" s="5"/>
     </row>
     <row r="71" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O71" s="5"/>
     </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O73" s="5"/>
-    </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O75" s="5"/>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O72" s="5"/>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O74" s="5"/>
     </row>
     <row r="76" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O76" s="5"/>
@@ -5529,13 +5616,11 @@
       <c r="O84" s="5"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B85" s="6"/>
       <c r="O85" s="5"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="O87" s="4"/>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B86" s="6"/>
+      <c r="O86" s="5"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B88" s="1"/>
@@ -5543,12 +5628,12 @@
       <c r="O88" s="4"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O89" s="5"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="O91" s="4"/>
+      <c r="B89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="O89" s="4"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O90" s="5"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
@@ -5562,11 +5647,11 @@
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B94" s="1"/>
+      <c r="M94" s="1"/>
       <c r="O94" s="4"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
-      <c r="M95" s="1"/>
       <c r="O95" s="4"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.4">
@@ -5590,12 +5675,12 @@
       <c r="O99" s="4"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O100"/>
+      <c r="B100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="O100" s="4"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="O101" s="4"/>
+      <c r="O101"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
@@ -5604,11 +5689,11 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
+      <c r="M103" s="1"/>
       <c r="O103" s="4"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
-      <c r="M104" s="1"/>
       <c r="O104" s="4"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
@@ -5620,6 +5705,11 @@
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
       <c r="O106" s="4"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="O107" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5631,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:M38"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6173,12 +6263,39 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>758</v>
+      </c>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>758</v>
+      </c>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>761</v>
+      </c>
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
@@ -7404,8 +7521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8043,9 +8160,27 @@
       <c r="O53" s="13"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>765</v>
+      </c>
       <c r="O54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>768</v>
+      </c>
       <c r="O55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
@@ -8881,7 +9016,7 @@
   <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FA3921-73F7-4621-BCE8-09849CBFA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E58D81-9205-4FD7-8218-F5C9CE026EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="772">
   <si>
     <t>English</t>
   </si>
@@ -2922,6 +2922,30 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdvarsityStateCanSeeVotes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity State Can See Votes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境状態のときに投票した人を見ることをできる</t>
+    <rPh sb="0" eb="4">
+      <t>ギャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -7521,8 +7545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8184,6 +8208,15 @@
       <c r="O55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>771</v>
+      </c>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">

--- a/Translate.xlsx
+++ b/Translate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dekob\UltimateMods-Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\UltimateMods-Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{931574E2-389A-4012-8DA5-593FF6A08347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E58D81-9205-4FD7-8218-F5C9CE026EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="772">
   <si>
     <t>English</t>
   </si>
@@ -1708,100 +1705,40 @@
     <t>载入上次游戏的设置</t>
   </si>
   <si>
-    <t>CrewmateRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Crewmate Roles</t>
-  </si>
-  <si>
-    <t>最小クルーメイト陣営役職数</t>
-  </si>
-  <si>
-    <t>最少船员职业数</t>
-  </si>
-  <si>
-    <t>CrewmateRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Crewmate Roles</t>
-  </si>
-  <si>
-    <t>最大クルーメイト陣営役職数</t>
-  </si>
-  <si>
-    <t>最多船员职业数</t>
-  </si>
-  <si>
-    <t>NeutralRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Neutral Roles</t>
-  </si>
-  <si>
-    <t>最小第三陣営役職数</t>
-  </si>
-  <si>
-    <t>最少独立职业数</t>
-  </si>
-  <si>
-    <t>NeutralRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Neutral Roles</t>
-  </si>
-  <si>
-    <t>最大第三陣営役職数</t>
-  </si>
-  <si>
-    <t>最多独立职业数</t>
-  </si>
-  <si>
-    <t>ImpostorRolesCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Impostor Roles</t>
-  </si>
-  <si>
-    <t>最小インポスター陣営役職数</t>
-  </si>
-  <si>
-    <t>最少内鬼职业数</t>
-  </si>
-  <si>
-    <t>ImpostorRolesCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Impostor Roles</t>
-  </si>
-  <si>
-    <t>最大インポスター陣営役職数</t>
-  </si>
-  <si>
-    <t>最多内鬼职业数</t>
-  </si>
-  <si>
-    <t>ModifierCountMin</t>
-  </si>
-  <si>
-    <t>Minimum Modifier Roles</t>
-  </si>
-  <si>
-    <t>最小属性役職数</t>
-  </si>
-  <si>
-    <t>最少附加职业数</t>
-  </si>
-  <si>
-    <t>ModifierCountMax</t>
-  </si>
-  <si>
-    <t>Maximum Modifier Roles</t>
-  </si>
-  <si>
-    <t>最大属性役職数</t>
-  </si>
-  <si>
-    <t>最多附加职业数</t>
+    <t>CrewmateRolesCount</t>
+  </si>
+  <si>
+    <t>Crewmate Roles Count</t>
+  </si>
+  <si>
+    <t>クルーメイト陣営役職数</t>
+  </si>
+  <si>
+    <t>NeutralRolesCount</t>
+  </si>
+  <si>
+    <t>Neutral Roles Count</t>
+  </si>
+  <si>
+    <t>第三陣営役職数</t>
+  </si>
+  <si>
+    <t>ImpostorRolesCount</t>
+  </si>
+  <si>
+    <t>Impostor Roles Count</t>
+  </si>
+  <si>
+    <t>インポスター陣営役職数</t>
+  </si>
+  <si>
+    <t>ModifierCount</t>
+  </si>
+  <si>
+    <t>Modifier Roles Count</t>
+  </si>
+  <si>
+    <t>属性役職数</t>
   </si>
   <si>
     <t>MaxNumberOfMeetings</t>
@@ -2820,6 +2757,197 @@
   </si>
   <si>
     <t>Revive</t>
+  </si>
+  <si>
+    <t>EvilHacker</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>イビルハッカー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>みんなを監視しよう</t>
+    <rPh sb="4" eb="6">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いつでもどこでもアドミンを使える。</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Let's look after everyone.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すべてを見透かそう</t>
+    <rPh sb="4" eb="6">
+      <t>ミス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Let's see it all through.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>You can use Admin anytime, anywhere.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerCanMoveEvenIfUsesAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Move Even If Uses Admin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>移動しながらアドミンを使える</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EvilHackerCanHasBetterAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Can Has BetterAdmin</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>改良アドミンを使える</t>
+    <rPh sb="0" eb="2">
+      <t>カイリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境</t>
+    <rPh sb="0" eb="2">
+      <t>ギャッキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityIntro</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity to Power.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境を力に。</t>
+    <rPh sb="0" eb="2">
+      <t>ギャッキョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チカラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityShort</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityFull</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インポスターが一人のとき、設定したキルクールになる。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Shorter kill cooldowns when there is only one imposter.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityStateKillCooldown</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity State KillCooldown</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境状態のときのキルクールダウン</t>
+    <rPh sb="0" eb="4">
+      <t>ギャッキョウジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdversityStateCanFindMadmate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity State Can Find MadMate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境状態のときにマッドメイトを探すことができる</t>
+    <rPh sb="0" eb="4">
+      <t>ギャ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>AdvarsityStateCanSeeVotes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Adversity State Can See Votes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>逆境状態のときに投票した人を見ることをできる</t>
+    <rPh sb="0" eb="4">
+      <t>ギャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2954,10 +3082,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3220,7 +3344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -3660,7 +3784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
@@ -4992,10 +5116,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5221,55 +5345,73 @@
       </c>
       <c r="O14" s="5"/>
     </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>737</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>738</v>
+      </c>
+      <c r="O15" s="5"/>
+    </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O19" s="17" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O20" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O21" s="4"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O22" s="5"/>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O23" s="4"/>
+    </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O25" s="5"/>
-    </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O26" s="5"/>
     </row>
@@ -5291,70 +5433,46 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O34" s="4"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O34" s="5"/>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O35" s="5"/>
+    </row>
+    <row r="36" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O36" s="4"/>
+    </row>
+    <row r="38" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O40" s="5"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+    <row r="47" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+    <row r="48" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.4">
@@ -5404,29 +5522,49 @@
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="O53" s="5"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B54" s="3"/>
+      <c r="M54" s="3"/>
       <c r="O54" s="5"/>
     </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O55" s="4"/>
+    </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="3"/>
-      <c r="M56" s="3"/>
       <c r="O56" s="5"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B58" s="1"/>
-      <c r="M58" s="1"/>
+      <c r="B58" s="3"/>
+      <c r="M58" s="3"/>
       <c r="O58" s="5"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="O59" s="5"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B60" s="1"/>
@@ -5443,11 +5581,15 @@
       <c r="M62" s="1"/>
       <c r="O62" s="5"/>
     </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="O63" s="5"/>
+    </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B64" s="1"/>
+      <c r="M64" s="1"/>
       <c r="O64" s="5"/>
-    </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O65" s="5"/>
     </row>
     <row r="66" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O66" s="5"/>
@@ -5455,11 +5597,14 @@
     <row r="67" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O67" s="5"/>
     </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O68" s="5"/>
+    </row>
     <row r="69" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O70" s="5"/>
+    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O71" s="5"/>
     </row>
     <row r="72" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O72" s="5"/>
@@ -5467,9 +5612,6 @@
     <row r="74" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O74" s="5"/>
     </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
-      <c r="O75" s="5"/>
-    </row>
     <row r="76" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O76" s="5"/>
     </row>
@@ -5495,31 +5637,27 @@
       <c r="O83" s="5"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B84" s="6"/>
       <c r="O84" s="5"/>
     </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O85" s="5"/>
+    </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="O87" s="4"/>
+      <c r="B86" s="6"/>
+      <c r="O86" s="5"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O88" s="5"/>
+      <c r="B88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="O88" s="4"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="O89" s="4"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="O91" s="4"/>
+      <c r="O90" s="5"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
@@ -5528,6 +5666,7 @@
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B93" s="1"/>
+      <c r="M93" s="1"/>
       <c r="O93" s="4"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
@@ -5537,7 +5676,6 @@
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B95" s="1"/>
-      <c r="M95" s="1"/>
       <c r="O95" s="4"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.4">
@@ -5556,7 +5694,9 @@
       <c r="O98" s="4"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O99"/>
+      <c r="B99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="O99" s="4"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B100" s="1"/>
@@ -5564,12 +5704,11 @@
       <c r="O100" s="4"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="O101" s="4"/>
+      <c r="O101"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B102" s="1"/>
+      <c r="M102" s="1"/>
       <c r="O102" s="4"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
@@ -5579,13 +5718,22 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
-      <c r="M104" s="1"/>
       <c r="O104" s="4"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B105" s="1"/>
       <c r="M105" s="1"/>
       <c r="O105" s="4"/>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="O106" s="4"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="O107" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -5597,8 +5745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6103,19 +6251,75 @@
       </c>
       <c r="O35" s="5"/>
     </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>745</v>
+      </c>
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>743</v>
+      </c>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>758</v>
+      </c>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>758</v>
+      </c>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>761</v>
+      </c>
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
@@ -6386,10 +6590,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R110"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6598,582 +6802,540 @@
         <v>456</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="O14" s="17" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="O15" s="17" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="O17" s="17" t="s">
-        <v>473</v>
-      </c>
+      <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O21" s="17"/>
+      <c r="A21" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="O22" s="17" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M23" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>493</v>
-      </c>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>508</v>
+        <v>501</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="12" t="s">
+        <v>503</v>
       </c>
       <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>512</v>
-      </c>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="O31" s="17"/>
+      <c r="A31" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="O31" s="17" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O32" s="17"/>
+      <c r="A32" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O35" s="17" t="s">
-        <v>533</v>
-      </c>
+      <c r="A35" s="2"/>
+      <c r="O35" s="17"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>535</v>
+        <v>523</v>
+      </c>
+      <c r="B36" t="s">
+        <v>524</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="O36" s="17" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>538</v>
+        <v>527</v>
+      </c>
+      <c r="B37" t="s">
+        <v>528</v>
+      </c>
+      <c r="M37" t="s">
+        <v>529</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
+      </c>
+      <c r="B38" t="s">
+        <v>532</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="O38" s="17" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="O39" s="17"/>
+      <c r="A39" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B39" t="s">
+        <v>536</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="O39" s="17" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B40" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="O40" s="17" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B41" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M41" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="O41" s="17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="B42" t="s">
-        <v>552</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="O42" s="17" t="s">
-        <v>554</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="O42" s="17"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="B43" t="s">
-        <v>556</v>
+        <v>547</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="O43" s="17" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B44" t="s">
-        <v>560</v>
+        <v>550</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>551</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B45" t="s">
-        <v>564</v>
-      </c>
-      <c r="M45" t="s">
-        <v>565</v>
+        <v>554</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>556</v>
       </c>
       <c r="O45" s="17" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="O46" s="17"/>
+      <c r="A46" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="O46" s="17" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="O47" s="17" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="O48" s="17" t="s">
-        <v>573</v>
-      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="O48" s="17"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>576</v>
+        <v>138</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="O49" s="17" t="s">
-        <v>577</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>580</v>
+        <v>142</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="O50" s="17" t="s">
-        <v>581</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="O51" s="17" t="s">
-        <v>585</v>
-      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="O51" s="17"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
       <c r="O52" s="17"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="O53" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="B53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="O53" s="13"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O54" s="17" t="s">
-        <v>145</v>
-      </c>
+      <c r="O54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="O55" s="17"/>
+      <c r="O55" s="13"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O56" s="17"/>
@@ -7187,81 +7349,79 @@
       <c r="O58" s="17"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O59" s="13"/>
+      <c r="B59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="O59" s="17"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B60" s="1"/>
+      <c r="M60" s="1"/>
       <c r="O60" s="17"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="O61" s="13"/>
+      <c r="B61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="O61" s="17"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B62" s="1"/>
+      <c r="M62" s="1"/>
       <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="O63" s="17"/>
+      <c r="O63" s="13"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B64" s="1"/>
-      <c r="M64" s="1"/>
       <c r="O64" s="17"/>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B65" s="1"/>
-      <c r="M65" s="1"/>
+    <row r="65" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O65" s="17"/>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B66" s="1"/>
-      <c r="M66" s="1"/>
+    <row r="66" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O66" s="17"/>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="O67" s="13"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O67" s="17"/>
+    </row>
+    <row r="68" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O68" s="13"/>
+    </row>
+    <row r="69" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O69" s="17"/>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O71" s="17"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O72" s="13"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O73" s="17"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O72" s="17"/>
+    </row>
+    <row r="73" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O74" s="17"/>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O75" s="13"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O75" s="17"/>
+    </row>
+    <row r="76" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O76" s="17"/>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O77" s="13"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O77" s="17"/>
+    </row>
+    <row r="78" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O80" s="17"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.4">
@@ -7277,19 +7437,23 @@
       <c r="O84" s="17"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O85" s="17"/>
+      <c r="B85" s="6"/>
+      <c r="O85" s="13"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O86" s="17"/>
+      <c r="O86" s="13"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O87" s="17"/>
+      <c r="B87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="13"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B88" s="1"/>
+      <c r="M88" s="1"/>
       <c r="O88" s="17"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B89" s="6"/>
       <c r="O89" s="13"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.4">
@@ -7303,12 +7467,15 @@
     <row r="92" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="O92" s="17"/>
+      <c r="O92" s="13"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B93" s="1"/>
+      <c r="M93" s="1"/>
       <c r="O93" s="13"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B94" s="1"/>
       <c r="O94" s="13"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.4">
@@ -7328,16 +7495,15 @@
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
+      <c r="M98" s="1"/>
       <c r="O98" s="13"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B99" s="1"/>
       <c r="M99" s="1"/>
-      <c r="O99" s="13"/>
+      <c r="O99" s="17"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B100" s="1"/>
-      <c r="M100" s="1"/>
       <c r="O100" s="13"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.4">
@@ -7352,10 +7518,11 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="O103" s="17"/>
+      <c r="O103" s="13"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B104" s="1"/>
+      <c r="M104" s="1"/>
       <c r="O104" s="13"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.4">
@@ -7367,25 +7534,6 @@
       <c r="B106" s="1"/>
       <c r="M106" s="1"/>
       <c r="O106" s="13"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B107" s="1"/>
-      <c r="O107" s="13"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="O108" s="13"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="O109" s="13"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="O110" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -7397,8 +7545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7465,247 +7613,247 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="M2" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="O12" s="17"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="O13" s="17"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="O14" s="17"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="O15" s="17"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="O16" s="17"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="O17" s="17"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="O18" s="17"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="O19" s="17"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="O20" s="17"/>
     </row>
@@ -7717,16 +7865,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
@@ -7734,30 +7882,30 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
@@ -7766,72 +7914,72 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.4">
@@ -7839,61 +7987,61 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="O34" s="17"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36" s="11" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="O36" s="17"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="O37" s="17"/>
     </row>
@@ -7902,25 +8050,25 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="11" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="O39" s="17"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40" s="11" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="O40" s="17"/>
     </row>
@@ -7929,13 +8077,13 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="O42" s="17"/>
     </row>
@@ -7944,49 +8092,49 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44" s="11" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="O46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="O47" s="13"/>
     </row>
@@ -7995,13 +8143,13 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="B49" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="M49" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="O49" s="17"/>
     </row>
@@ -8009,21 +8157,66 @@
       <c r="O50" s="17"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>750</v>
+      </c>
       <c r="O51" s="17"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>753</v>
+      </c>
       <c r="O52" s="17"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="O53" s="13"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>765</v>
+      </c>
       <c r="O54" s="17"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>767</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>768</v>
+      </c>
       <c r="O55" s="17"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="11" t="s">
+        <v>769</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>770</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>771</v>
+      </c>
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.4">
@@ -8394,30 +8587,30 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="B2" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -8425,25 +8618,25 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="O6" s="17"/>
     </row>
@@ -8452,13 +8645,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="O8" s="17"/>
     </row>
@@ -8856,7 +9049,7 @@
   <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8923,64 +9116,64 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="11" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="B6" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="M6" t="s">
         <v>278</v>
